--- a/cmip6/citations/cmip6_ipsl_citations.xlsx
+++ b/cmip6/citations/cmip6_ipsl_citations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipsl/Engineering/esdoc/bash/cmip6/models/templates_xls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipsl/Engineering/esdoc/bash/cmip6/citations/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB9EE97-499E-614E-B69C-D7B32C06EAAA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3B9249-E2A6-2448-9F22-74A155B1A05C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>ES-DOC CMIP6 Model Citations</t>
   </si>
@@ -53,77 +53,40 @@
     <t>Identifier / Mnemonic *</t>
   </si>
   <si>
-    <t>Title *</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Authors *</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
     <t>DOI</t>
   </si>
   <si>
-    <t>Abstract *</t>
-  </si>
-  <si>
-    <t>SOLAR-IRRADIANCE</t>
-  </si>
-  <si>
-    <t>Solar irradiance reduction via climate engineering-impact of different techniques on the energy balance and the hydrological cycle</t>
-  </si>
-  <si>
-    <t>Assesses the climate impacts of different techniques of solar radiation management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niemeier, U., H. Schmidt, K. Alterskjær, and J. E. Kristjánsson (2013), Solar irradiance reduction via climate engineering-impact of different techniques on the energy balance and the hydrological cycle, J. Geophys. Res., 118, 11905-11917 </t>
-  </si>
-  <si>
-    <t>http://onlinelibrary.wiley.com/doi/10.1002/2013JD020445/abstract</t>
-  </si>
-  <si>
     <t>10.1002/2013JD020445</t>
   </si>
   <si>
-    <t>Different techniques of solar radiation management (SRM) have been suggested to counteract global warming, among them the injection of sulfur into the stratosphere, mirrors in space, and marine cloud brightening through artificial emissions of sea salt. This study focuses on to what extent climate impacts of these three methods would be different. We present results from simulations with an Earth system model where the forcing from the increase of greenhouse gases in a transient scenario (RCP4.5) was balanced over 50 years by SRM. While global mean temperature increases slightly due to the inertia of the climate system and evolves similar with time for the different SRM methods, responses of global mean precipitation differ considerably among the methods. The hydrological sensitivity is decreased by SRM, most prominently for aerosol-based techniques, sea salt emissions, and injection of sulfate into the stratosphere. Reasons for these differences are discussed through an analysis of the surface energy budget. Furthermore, effects on large-scale tropical dynamics and on regional climate are discussed.</t>
+    <t>"@article{
+  title = {Unidata's Common Data Model Mapping to the ISO 19123 Data Model},
+  journal = {Earth Science Informatics},
+  author = {Nativi, Stefano and Caron, John and Domenico, Ben and Bigagli, Lorenzo},
+  year = {2008},
+}"</t>
   </si>
   <si>
-    <t>TIMESLICE-EXPERIMENTS</t>
+    <t>BibTex</t>
   </si>
   <si>
-    <t>Regional climate changes as simulated in time-slice experiments</t>
+    <t>http://journal.com/873487234</t>
   </si>
   <si>
-    <t>Timeslice experiments with CO2 at present levels and at time of CO2 doubling and tripling</t>
+    <t>Nativi_2008</t>
   </si>
   <si>
-    <t>Cubasch, U., J. Waszkewitz, G. Hegerl, and J. Perlwitz (1995), Regional climate changes as simulated in time-slice experiments, Climatic Change, 31, 372-304</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/article/10.1007/BF01095150</t>
-  </si>
-  <si>
-    <t>10.1007/BF01095150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Three 30 year long simulations have been performed with a T42 atmosphere model, in which the sea-surface temperature (SST) and sea-ice distribution have been taken from a transient climate change experiment with a T21 global coupled ocean-atmosphere model. In this so-called time-slice experiment, the SST values (and the greenhouse gas concentration) were taken at present time CO2 level, at the time of CO2 doubling and tripling.
-The annual cycle of temperature and precipitation has been studied over the IPCC regions and has been compared with observations. Additionally the combination of temperature and precipitation change has been analysed. Further parameters investigated include the difference between daily minimum and maximum temperature, the rainfall intensity and the length of droughts.
-While the regional simulation of the annual cycle of the near surface temperature is quite realistic with deviations rarely exceeding 3 K, the precipitation is reproduced to a much smaller degree of accuracy.
-The changes in temperature at the time of CO2 doubling amount to only 30–40% of those at the 3 * CO2 level and show hardly any seasonal variation, contrary to the 3 * CO2 experiment. The comparatively small response to the CO2 doubling can be attributed to the cold-start of the simulation, from which the SST has been extracted. The strong change in the seasonality cannot be explained by internal fluctuations and cold start alone, but has to be caused by feedback mechanisms. Due to the delay in warming caused by the transient experiment, from which the SST has been derived, the 3 * CO2 experiment can be compared to the CO2 doubling studies performed with mixed-layer models.
-The precipitation change does not display a clear signal. However, an increase of the rain intensity and of longer dry periods is simulated in many regions of the globe.
-The changes in these parameters as well as the combination of temperature- and precipitation change and the changes in the daily temperature range give valuable hints, in which regions observational studies should be intensified and under which aspects the observational data should be evaluated.
-</t>
+    <t>Long name for internal use (unarchived)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -177,10 +140,19 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="4">
@@ -203,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -288,17 +260,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="13"/>
       </left>
@@ -332,7 +293,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -373,34 +334,7 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -409,32 +343,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1593,7 +1533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV6"/>
+  <dimension ref="A1:IV7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1650,12 +1590,19 @@
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1674,21 +1621,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV30"/>
+  <dimension ref="A1:IP56"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.83203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="10" customWidth="1"/>
-    <col min="3" max="4" width="29.83203125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="10" customWidth="1"/>
-    <col min="7" max="256" width="16.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="81.83203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="42.83203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="46.83203125" style="18" customWidth="1"/>
+    <col min="6" max="250" width="16.33203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:250" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -1696,464 +1643,656 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:250" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>8</v>
+      <c r="E2" s="21" t="s">
+        <v>14</v>
       </c>
-      <c r="D2" s="13" t="s">
+    </row>
+    <row r="3" spans="1:250" s="27" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="C3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
-    </row>
-    <row r="3" spans="1:11" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
-    </row>
-    <row r="4" spans="1:11" ht="296" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-    </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-    </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-    </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-    </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-    </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-    </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-    </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-    </row>
-    <row r="13" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-    </row>
-    <row r="15" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-    </row>
-    <row r="16" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-    </row>
-    <row r="17" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-    </row>
-    <row r="18" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-    </row>
-    <row r="19" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-    </row>
-    <row r="20" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-    </row>
-    <row r="21" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-    </row>
-    <row r="22" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-    </row>
-    <row r="23" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-    </row>
-    <row r="24" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-    </row>
-    <row r="25" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-    </row>
-    <row r="26" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-    </row>
-    <row r="27" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-    </row>
-    <row r="28" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="22"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-    </row>
-    <row r="29" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="22"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-    </row>
-    <row r="30" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="22"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="26"/>
+      <c r="AU3" s="26"/>
+      <c r="AV3" s="26"/>
+      <c r="AW3" s="26"/>
+      <c r="AX3" s="26"/>
+      <c r="AY3" s="26"/>
+      <c r="AZ3" s="26"/>
+      <c r="BA3" s="26"/>
+      <c r="BB3" s="26"/>
+      <c r="BC3" s="26"/>
+      <c r="BD3" s="26"/>
+      <c r="BE3" s="26"/>
+      <c r="BF3" s="26"/>
+      <c r="BG3" s="26"/>
+      <c r="BH3" s="26"/>
+      <c r="BI3" s="26"/>
+      <c r="BJ3" s="26"/>
+      <c r="BK3" s="26"/>
+      <c r="BL3" s="26"/>
+      <c r="BM3" s="26"/>
+      <c r="BN3" s="26"/>
+      <c r="BO3" s="26"/>
+      <c r="BP3" s="26"/>
+      <c r="BQ3" s="26"/>
+      <c r="BR3" s="26"/>
+      <c r="BS3" s="26"/>
+      <c r="BT3" s="26"/>
+      <c r="BU3" s="26"/>
+      <c r="BV3" s="26"/>
+      <c r="BW3" s="26"/>
+      <c r="BX3" s="26"/>
+      <c r="BY3" s="26"/>
+      <c r="BZ3" s="26"/>
+      <c r="CA3" s="26"/>
+      <c r="CB3" s="26"/>
+      <c r="CC3" s="26"/>
+      <c r="CD3" s="26"/>
+      <c r="CE3" s="26"/>
+      <c r="CF3" s="26"/>
+      <c r="CG3" s="26"/>
+      <c r="CH3" s="26"/>
+      <c r="CI3" s="26"/>
+      <c r="CJ3" s="26"/>
+      <c r="CK3" s="26"/>
+      <c r="CL3" s="26"/>
+      <c r="CM3" s="26"/>
+      <c r="CN3" s="26"/>
+      <c r="CO3" s="26"/>
+      <c r="CP3" s="26"/>
+      <c r="CQ3" s="26"/>
+      <c r="CR3" s="26"/>
+      <c r="CS3" s="26"/>
+      <c r="CT3" s="26"/>
+      <c r="CU3" s="26"/>
+      <c r="CV3" s="26"/>
+      <c r="CW3" s="26"/>
+      <c r="CX3" s="26"/>
+      <c r="CY3" s="26"/>
+      <c r="CZ3" s="26"/>
+      <c r="DA3" s="26"/>
+      <c r="DB3" s="26"/>
+      <c r="DC3" s="26"/>
+      <c r="DD3" s="26"/>
+      <c r="DE3" s="26"/>
+      <c r="DF3" s="26"/>
+      <c r="DG3" s="26"/>
+      <c r="DH3" s="26"/>
+      <c r="DI3" s="26"/>
+      <c r="DJ3" s="26"/>
+      <c r="DK3" s="26"/>
+      <c r="DL3" s="26"/>
+      <c r="DM3" s="26"/>
+      <c r="DN3" s="26"/>
+      <c r="DO3" s="26"/>
+      <c r="DP3" s="26"/>
+      <c r="DQ3" s="26"/>
+      <c r="DR3" s="26"/>
+      <c r="DS3" s="26"/>
+      <c r="DT3" s="26"/>
+      <c r="DU3" s="26"/>
+      <c r="DV3" s="26"/>
+      <c r="DW3" s="26"/>
+      <c r="DX3" s="26"/>
+      <c r="DY3" s="26"/>
+      <c r="DZ3" s="26"/>
+      <c r="EA3" s="26"/>
+      <c r="EB3" s="26"/>
+      <c r="EC3" s="26"/>
+      <c r="ED3" s="26"/>
+      <c r="EE3" s="26"/>
+      <c r="EF3" s="26"/>
+      <c r="EG3" s="26"/>
+      <c r="EH3" s="26"/>
+      <c r="EI3" s="26"/>
+      <c r="EJ3" s="26"/>
+      <c r="EK3" s="26"/>
+      <c r="EL3" s="26"/>
+      <c r="EM3" s="26"/>
+      <c r="EN3" s="26"/>
+      <c r="EO3" s="26"/>
+      <c r="EP3" s="26"/>
+      <c r="EQ3" s="26"/>
+      <c r="ER3" s="26"/>
+      <c r="ES3" s="26"/>
+      <c r="ET3" s="26"/>
+      <c r="EU3" s="26"/>
+      <c r="EV3" s="26"/>
+      <c r="EW3" s="26"/>
+      <c r="EX3" s="26"/>
+      <c r="EY3" s="26"/>
+      <c r="EZ3" s="26"/>
+      <c r="FA3" s="26"/>
+      <c r="FB3" s="26"/>
+      <c r="FC3" s="26"/>
+      <c r="FD3" s="26"/>
+      <c r="FE3" s="26"/>
+      <c r="FF3" s="26"/>
+      <c r="FG3" s="26"/>
+      <c r="FH3" s="26"/>
+      <c r="FI3" s="26"/>
+      <c r="FJ3" s="26"/>
+      <c r="FK3" s="26"/>
+      <c r="FL3" s="26"/>
+      <c r="FM3" s="26"/>
+      <c r="FN3" s="26"/>
+      <c r="FO3" s="26"/>
+      <c r="FP3" s="26"/>
+      <c r="FQ3" s="26"/>
+      <c r="FR3" s="26"/>
+      <c r="FS3" s="26"/>
+      <c r="FT3" s="26"/>
+      <c r="FU3" s="26"/>
+      <c r="FV3" s="26"/>
+      <c r="FW3" s="26"/>
+      <c r="FX3" s="26"/>
+      <c r="FY3" s="26"/>
+      <c r="FZ3" s="26"/>
+      <c r="GA3" s="26"/>
+      <c r="GB3" s="26"/>
+      <c r="GC3" s="26"/>
+      <c r="GD3" s="26"/>
+      <c r="GE3" s="26"/>
+      <c r="GF3" s="26"/>
+      <c r="GG3" s="26"/>
+      <c r="GH3" s="26"/>
+      <c r="GI3" s="26"/>
+      <c r="GJ3" s="26"/>
+      <c r="GK3" s="26"/>
+      <c r="GL3" s="26"/>
+      <c r="GM3" s="26"/>
+      <c r="GN3" s="26"/>
+      <c r="GO3" s="26"/>
+      <c r="GP3" s="26"/>
+      <c r="GQ3" s="26"/>
+      <c r="GR3" s="26"/>
+      <c r="GS3" s="26"/>
+      <c r="GT3" s="26"/>
+      <c r="GU3" s="26"/>
+      <c r="GV3" s="26"/>
+      <c r="GW3" s="26"/>
+      <c r="GX3" s="26"/>
+      <c r="GY3" s="26"/>
+      <c r="GZ3" s="26"/>
+      <c r="HA3" s="26"/>
+      <c r="HB3" s="26"/>
+      <c r="HC3" s="26"/>
+      <c r="HD3" s="26"/>
+      <c r="HE3" s="26"/>
+      <c r="HF3" s="26"/>
+      <c r="HG3" s="26"/>
+      <c r="HH3" s="26"/>
+      <c r="HI3" s="26"/>
+      <c r="HJ3" s="26"/>
+      <c r="HK3" s="26"/>
+      <c r="HL3" s="26"/>
+      <c r="HM3" s="26"/>
+      <c r="HN3" s="26"/>
+      <c r="HO3" s="26"/>
+      <c r="HP3" s="26"/>
+      <c r="HQ3" s="26"/>
+      <c r="HR3" s="26"/>
+      <c r="HS3" s="26"/>
+      <c r="HT3" s="26"/>
+      <c r="HU3" s="26"/>
+      <c r="HV3" s="26"/>
+      <c r="HW3" s="26"/>
+      <c r="HX3" s="26"/>
+      <c r="HY3" s="26"/>
+      <c r="HZ3" s="26"/>
+      <c r="IA3" s="26"/>
+      <c r="IB3" s="26"/>
+      <c r="IC3" s="26"/>
+      <c r="ID3" s="26"/>
+      <c r="IE3" s="26"/>
+      <c r="IF3" s="26"/>
+      <c r="IG3" s="26"/>
+      <c r="IH3" s="26"/>
+      <c r="II3" s="26"/>
+      <c r="IJ3" s="26"/>
+      <c r="IK3" s="26"/>
+      <c r="IL3" s="26"/>
+      <c r="IM3" s="26"/>
+      <c r="IN3" s="26"/>
+      <c r="IO3" s="26"/>
+      <c r="IP3" s="26"/>
+    </row>
+    <row r="4" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="17"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="17"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="17"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="17"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="17"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="17"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="17"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="17"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="17"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="17"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="17"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="17"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="17"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="17"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="17"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="17"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="17"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="17"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="17"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="17"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="17"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="17"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+    </row>
+    <row r="48" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="17"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+    </row>
+    <row r="49" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="17"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+    </row>
+    <row r="50" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="17"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+    </row>
+    <row r="51" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="17"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+    </row>
+    <row r="52" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="17"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+    </row>
+    <row r="53" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="17"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+    </row>
+    <row r="54" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="17"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+    </row>
+    <row r="55" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="17"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+    </row>
+    <row r="56" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="17"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="G6:K6"/>
-  </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -2167,24 +2306,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV29"/>
+  <dimension ref="A1:IP52"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="23" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="24" style="23" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="23" customWidth="1"/>
-    <col min="7" max="256" width="16.33203125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="81.83203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="42.83203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="46.83203125" style="18" customWidth="1"/>
+    <col min="6" max="250" width="16.33203125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:250" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -2192,422 +2328,381 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+    </row>
+    <row r="2" spans="1:250" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>8</v>
+      <c r="E2" s="21" t="s">
+        <v>14</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
-    </row>
-    <row r="3" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
-    </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-    </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-    </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-    </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-    </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-    </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-    </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-    </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-    </row>
-    <row r="13" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-    </row>
-    <row r="15" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-    </row>
-    <row r="16" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-    </row>
-    <row r="17" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-    </row>
-    <row r="18" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-    </row>
-    <row r="19" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-    </row>
-    <row r="20" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-    </row>
-    <row r="21" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-    </row>
-    <row r="22" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-    </row>
-    <row r="23" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="22"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-    </row>
-    <row r="24" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-    </row>
-    <row r="25" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-    </row>
-    <row r="26" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-    </row>
-    <row r="27" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-    </row>
-    <row r="28" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="22"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-    </row>
-    <row r="29" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="22"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
+      <c r="IK2"/>
+      <c r="IL2"/>
+      <c r="IM2"/>
+      <c r="IN2"/>
+      <c r="IO2"/>
+      <c r="IP2"/>
+    </row>
+    <row r="3" spans="1:250" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="17"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="17"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="17"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="17"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="17"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="17"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="17"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="17"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="17"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="17"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="17"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="17"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="17"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="17"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="17"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="17"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="17"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="17"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="17"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="17"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="17"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="17"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="17"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+    </row>
+    <row r="48" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="17"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+    </row>
+    <row r="49" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="17"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+    </row>
+    <row r="50" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="17"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+    </row>
+    <row r="51" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="17"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+    </row>
+    <row r="52" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="17"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-  </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>

--- a/cmip6/citations/cmip6_ipsl_citations.xlsx
+++ b/cmip6/citations/cmip6_ipsl_citations.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipsl/Engineering/esdoc/bash/cmip6/citations/templates/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3B9249-E2A6-2448-9F22-74A155B1A05C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="330" windowWidth="29040" windowHeight="15240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="112">
   <si>
     <t>ES-DOC CMIP6 Model Citations</t>
   </si>
@@ -81,12 +75,464 @@
   <si>
     <t>Long name for internal use (unarchived)</t>
   </si>
+  <si>
+    <t>Rousset2015</t>
+  </si>
+  <si>
+    <t>Vancoppenolle2009</t>
+  </si>
+  <si>
+    <t>10.5194/gmd-8-2991-2015</t>
+  </si>
+  <si>
+    <t>10.1016/j.ocemod.2008.10.005</t>
+  </si>
+  <si>
+    <t>https://hal.archives-ouvertes.fr/hal-01234098/document</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1463500308001613</t>
+  </si>
+  <si>
+    <t>The Louvain-la-Neuve sea ice model LIM3.6: global and regional capabilities</t>
+  </si>
+  <si>
+    <t>Simulating the mass balance and salinity of Arctic and Antarctic sea ice. 1. Model description and validation</t>
+  </si>
+  <si>
+    <t>Aumont2006</t>
+  </si>
+  <si>
+    <t>10.1029/2005GB002591</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/full/10.1029/2005GB002591</t>
+  </si>
+  <si>
+    <t>Globalizing results from ocean in situ iron fertilization studies</t>
+  </si>
+  <si>
+    <t>"@misc{
+  title={The Louvain-La-Neuve sea ice model LIM3. 6: global and regional capabilities, Geosci. Model Dev., 8, 2991--3005},
+  author={Rousset, C and Vancoppenolle, M and Madec, G and Fichefet, T and Flavoni, S and Barth{\'e}lemy, A and Benshila, R and Chanut, J and Levy, C and Masson, S and others},
+  year={2015}
+}"</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={Simulating the mass balance and salinity of Arctic and Antarctic sea ice. 1. Model description and validation},
+  author={Vancoppenolle, Martin and Fichefet, Thierry and Goosse, Hugues and Bouillon, Sylvain and Madec, Gurvan and Maqueda, Miguel Angel Morales},
+  journal={Ocean Modelling},
+  volume={27},
+  number={1-2},
+  pages={33--53},
+  year={2009},
+  publisher={Elsevier}
+}"</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={Globalizing results from ocean in situ iron fertilization studies},
+  author={Aumont, Oliver and Bopp, Laurent},
+  journal={Global Biogeochemical Cycles},
+  volume={20},
+  number={2},
+  year={2006},
+  publisher={Wiley Online Library}
+}"</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={Relationship between wind speed and gas exchange over the ocean revisited},
+  author={Wanninkhof, Rik},
+  journal={Limnology and Oceanography: Methods},
+  volume={12},
+  number={6},
+  pages={351--362},
+  year={2014},
+  publisher={Wiley Online Library}
+}"</t>
+  </si>
+  <si>
+    <t>Wanninkhof2014</t>
+  </si>
+  <si>
+    <t>10.4319/lom.2014.12.351</t>
+  </si>
+  <si>
+    <t>https://aslopubs.onlinelibrary.wiley.com/doi/abs/10.4319/lom.2014.12.351</t>
+  </si>
+  <si>
+    <t>Relationship between wind speed and gas exchange over the ocean revisited</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s00382-006-0200-2</t>
+  </si>
+  <si>
+    <t>Lengaigne2007</t>
+  </si>
+  <si>
+    <t>10.1007/s00382-006-0200-2</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={Influence of the oceanic biology on the tropical Pacific climate in a coupled general circulation model},
+  author={Lengaigne, Matthieu and Menkes, Christophe and Aumont, Olivier and Gorgues, Thomas and Bopp, Laurent and Andr{\'e}, Jean-Michel and Madec, Gurvan},
+  journal={Climate Dynamics},
+  volume={28},
+  number={5},
+  pages={503--516},
+  year={2007},
+  publisher={Springer}
+}"</t>
+  </si>
+  <si>
+    <t>Influence of the oceanic biology on the tropical Pacific climate in a coupled general circulation model</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={River discharges of carbon to the world's oceans: determining local inputs of alkalinity and of dissolved and particulate organic carbon},
+  author={Ludwig, Wolfgang and Amiotte Suchet, Philippe and Probst, Jean-Luc},
+  journal={Sciences de la terre et des plan{\`e}tes (Comptes rendus de l'Acad{\'e}mie des sciences)},
+  volume={323},
+  pages={1007--1014},
+  year={1996},
+  publisher={Gauthier-Villars}
+}"</t>
+  </si>
+  <si>
+    <t>Ludwig1996</t>
+  </si>
+  <si>
+    <t>http://oatao.univ-toulouse.fr/3498/</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Aumont2008</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={What does temporal variability in aeolian dust deposition contribute to sea-surface iron and chlorophyll distributions?},
+  author={Aumont, Olivier and Bopp, Laurent and Schulz, M},
+  journal={Geophysical Research Letters},
+  volume={35},
+  number={7},
+  year={2008},
+  publisher={Wiley Online Library}
+}"</t>
+  </si>
+  <si>
+    <t>10.1029/2007GL031131</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/full/10.1029/2007GL031131</t>
+  </si>
+  <si>
+    <t>What does temporal variability in aeolian dust deposition contribute to sea-surface iron and chlorophyll distributions?</t>
+  </si>
+  <si>
+    <t>River discharges of carbon to the world's oceans: determining local inputs of alkalinity and of dissolved and particulate organic carbon</t>
+  </si>
+  <si>
+    <t>Coon1974</t>
+  </si>
+  <si>
+    <t>Lipscomb2001</t>
+  </si>
+  <si>
+    <t>Hibler1979</t>
+  </si>
+  <si>
+    <t>Bouillon2013</t>
+  </si>
+  <si>
+    <t>Modeling the pack ice as an elastic-plastic material</t>
+  </si>
+  <si>
+    <t>"@article{_x000D_
+  title={Modeling the pack ice as an elastic-plastic material},_x000D_
+  author={Coon, MD and Maykut, GA and Pritchard, RS and Rothrock, DA and Thordnike, AS},_x000D_
+  year={1974},_x000D_
+  journal={AIDJEX Bull.},_x000D_
+  volume={24},_x000D_
+  pages={1--106}_x000D_
+}"</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={Remapping the thickness distribution in sea ice models},
+  author={Lipscomb, William H},
+  journal={Journal of Geophysical Research: Oceans},
+  volume={106},
+  number={C7},
+  pages={13989--14000},
+  year={2001},
+  publisher={Wiley Online Library}
+}"</t>
+  </si>
+  <si>
+    <t>10.1029/2000JC000518</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2000JC000518</t>
+  </si>
+  <si>
+    <t>Remapping the thickness distribution in sea ice models</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={A dynamic thermodynamic sea ice model},
+  author={Hibler III, WD},
+  journal={Journal of physical oceanography},
+  volume={9},
+  number={4},
+  pages={815--846},
+  year={1979}
+}"</t>
+  </si>
+  <si>
+    <t>10.1175/1520-0485(1979)009&lt;0815:ADTSIM&gt;2.0.CO;2</t>
+  </si>
+  <si>
+    <t>https://journals.ametsoc.org/doi/abs/10.1175/1520-0485(1979)009%3C0815:ADTSIM%3E2.0.CO;2</t>
+  </si>
+  <si>
+    <t>A Dynamic Thermodynamic Sea Ice Model</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={The elastic--viscous--plastic method revisited},
+  author={Bouillon, Sylvain and Fichefet, Thierry and Legat, Vincent and Madec, Gurvan},
+  journal={Ocean Modelling},
+  volume={71},
+  pages={2--12},
+  year={2013},
+  publisher={Elsevier}
+}"</t>
+  </si>
+  <si>
+    <t>10.1016/j.ocemod.2013.05.013</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S146350031300098X</t>
+  </si>
+  <si>
+    <t>The elastic–viscous–plastic method revisited</t>
+  </si>
+  <si>
+    <t>Prather1986</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={Numerical advection by conservation of second-order moments},
+  author={Prather, Michael J},
+  journal={Journal of Geophysical Research: Atmospheres},
+  volume={91},
+  number={D6},
+  pages={6671--6681},
+  year={1986},
+  publisher={Wiley Online Library}
+}"</t>
+  </si>
+  <si>
+    <t>10.1029/JD091iD06p06671</t>
+  </si>
+  <si>
+    <t>Numerical advection by conservation of second‐order moments</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/JD091iD06p06671</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={Thermal conductivity of landfast Antarctic and Arctic sea ice},
+  author={Pringle, DJ and Eicken, H and Trodahl, HJ and Backstrom, LGE},
+  journal={Journal of Geophysical Research: Oceans},
+  volume={112},
+  number={C4},
+  year={2007},
+  publisher={Wiley Online Library}
+}"</t>
+  </si>
+  <si>
+    <t>Pringle2007</t>
+  </si>
+  <si>
+    <t>10.1029/2006JC003641</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/full/10.1029/2006JC003641</t>
+  </si>
+  <si>
+    <t>Thermal conductivity of landfast Antarctic and Arctic sea ice</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={An energy-conserving thermodynamic model of sea ice},
+  author={Bitz, Cecilia M and Lipscomb, William H},
+  journal={Journal of Geophysical Research: Oceans},
+  volume={104},
+  number={C7},
+  pages={15669--15677},
+  year={1999},
+  publisher={Wiley Online Library}
+}"</t>
+  </si>
+  <si>
+    <t>BitzLipscomb1999</t>
+  </si>
+  <si>
+    <t>An energy‐conserving thermodynamic model of sea ice</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/pdf/10.1029/1999JC900100</t>
+  </si>
+  <si>
+    <t>10.1029/1999JC900100</t>
+  </si>
+  <si>
+    <t>"@techreport{
+  title={Sea ice. Part 1. Bulk salinity versus ice floe thickness},
+  author={Kovacs, Austin},
+  year={1996},
+  institution={COLD REGIONS RESEARCH AND ENGINEERING LAB HANOVER NH}
+}"</t>
+  </si>
+  <si>
+    <t>Kovacs1996</t>
+  </si>
+  <si>
+    <t>https://apps.dtic.mil/dtic/tr/fulltext/u2/a312027.pdf</t>
+  </si>
+  <si>
+    <t>Sea Ice. Part 1. Bulk Salinity Versus Ice Floe Thickness,</t>
+  </si>
+  <si>
+    <t>MaykutUntersteiner1971</t>
+  </si>
+  <si>
+    <t>10.1029/JC076i006p01550</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/JC076i006p01550</t>
+  </si>
+  <si>
+    <t>Some results from a time‐dependent thermodynamic model of sea ice</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={Some results from a time-dependent thermodynamic model of sea ice},
+  author={Maykut, Gary A and Untersteiner, Norbert},
+  journal={Journal of Geophysical Research},
+  volume={76},
+  number={6},
+  pages={1550--1575},
+  year={1971},
+  publisher={Wiley Online Library}
+}"</t>
+  </si>
+  <si>
+    <t>ShineHendersonSellers1985</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={The sensitivity of a thermodynamic sea ice model to changes in surface albedo parameterization},
+  author={Shine, KP and Henderson-Sellers, A},
+  journal={Journal of Geophysical Research: Atmospheres},
+  volume={90},
+  number={D1},
+  pages={2243--2250},
+  year={1985},
+  publisher={Wiley Online Library}
+}"</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/pdf/10.1029/JD090iD01p02243</t>
+  </si>
+  <si>
+    <t>10.1029/JD090iD01p02243</t>
+  </si>
+  <si>
+    <t>The sensitivity of a thermodynamic sea ice model to changes in surface albedo parameterization</t>
+  </si>
+  <si>
+    <t>GrenfellPerovich2004</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={Seasonal and spatial evolution of albedo in a snow-ice-land-ocean environment},
+  author={Grenfell, Thomas C and Perovich, Donald K},
+  journal={Journal of Geophysical Research: Oceans},
+  volume={109},
+  number={C1},
+  year={2004},
+  publisher={Wiley Online Library}
+}"</t>
+  </si>
+  <si>
+    <t>10.1029/2003JC001866</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/full/10.1029/2003JC001866</t>
+  </si>
+  <si>
+    <t>Seasonal and spatial evolution of albedo in a snow‐ice‐land‐ocean environment</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={Surface albedo of the Antarctic sea ice zone},
+  author={Brandt, Richard E and Warren, Stephen G and Worby, Anthony P and Grenfell, Thomas C},
+  journal={Journal of Climate},
+  volume={18},
+  number={17},
+  pages={3606--3622},
+  year={2005}
+}"</t>
+  </si>
+  <si>
+    <t>Brandt2005</t>
+  </si>
+  <si>
+    <t>10.1175/JCLI3489.1</t>
+  </si>
+  <si>
+    <t>https://journals.ametsoc.org/doi/full/10.1175/JCLI3489.1</t>
+  </si>
+  <si>
+    <t>Surface Albedo of the Antarctic Sea Ice Zone</t>
+  </si>
+  <si>
+    <t>Wang2016</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={The improvement of soil thermodynamics and its effects on land surface meteorology in the IPSL climate model},
+  author={Wang, Fuxing and Cheruy, Fr{\'e}d{\'e}rique and Dufresne, J-L},
+  journal={Geoscientific Model Development},
+  volume={9},
+  number={1},
+  pages={363--381},
+  year={2016},
+  publisher={Copernicus GmbH}
+}"</t>
+  </si>
+  <si>
+    <t>10.5194/gmd-9-363-2016</t>
+  </si>
+  <si>
+    <t>The improvement of soil thermodynamics and its effects on land surface meteorology in the IPSL climate model</t>
+  </si>
+  <si>
+    <t>https://www.geosci-model-dev.net/9/363/2016/gmd-9-363-2016.html</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -155,7 +601,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +618,24 @@
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -293,7 +757,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -349,12 +813,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -374,6 +832,51 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1532,20 +2035,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.6640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9.1640625" style="1" customWidth="1"/>
-    <col min="6" max="256" width="8.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="34.35" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1554,14 +2057,14 @@
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="25.5" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1572,14 +2075,14 @@
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="25.5" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1590,14 +2093,14 @@
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="408.95" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="408.95" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1606,7 +2109,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1617,7 +2120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1625,17 +2128,17 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="34.83203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="81.83203125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="42.83203125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="46.83203125" style="18" customWidth="1"/>
-    <col min="6" max="250" width="16.33203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="81.85546875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="46.85546875" style="18" customWidth="1"/>
+    <col min="6" max="250" width="16.28515625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:250" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:250" ht="30.95" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -1644,653 +2147,653 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:250" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:250" ht="20.85" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:250" s="27" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:250" s="25" customFormat="1" ht="129" customHeight="1">
+      <c r="A3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="26"/>
-      <c r="AR3" s="26"/>
-      <c r="AS3" s="26"/>
-      <c r="AT3" s="26"/>
-      <c r="AU3" s="26"/>
-      <c r="AV3" s="26"/>
-      <c r="AW3" s="26"/>
-      <c r="AX3" s="26"/>
-      <c r="AY3" s="26"/>
-      <c r="AZ3" s="26"/>
-      <c r="BA3" s="26"/>
-      <c r="BB3" s="26"/>
-      <c r="BC3" s="26"/>
-      <c r="BD3" s="26"/>
-      <c r="BE3" s="26"/>
-      <c r="BF3" s="26"/>
-      <c r="BG3" s="26"/>
-      <c r="BH3" s="26"/>
-      <c r="BI3" s="26"/>
-      <c r="BJ3" s="26"/>
-      <c r="BK3" s="26"/>
-      <c r="BL3" s="26"/>
-      <c r="BM3" s="26"/>
-      <c r="BN3" s="26"/>
-      <c r="BO3" s="26"/>
-      <c r="BP3" s="26"/>
-      <c r="BQ3" s="26"/>
-      <c r="BR3" s="26"/>
-      <c r="BS3" s="26"/>
-      <c r="BT3" s="26"/>
-      <c r="BU3" s="26"/>
-      <c r="BV3" s="26"/>
-      <c r="BW3" s="26"/>
-      <c r="BX3" s="26"/>
-      <c r="BY3" s="26"/>
-      <c r="BZ3" s="26"/>
-      <c r="CA3" s="26"/>
-      <c r="CB3" s="26"/>
-      <c r="CC3" s="26"/>
-      <c r="CD3" s="26"/>
-      <c r="CE3" s="26"/>
-      <c r="CF3" s="26"/>
-      <c r="CG3" s="26"/>
-      <c r="CH3" s="26"/>
-      <c r="CI3" s="26"/>
-      <c r="CJ3" s="26"/>
-      <c r="CK3" s="26"/>
-      <c r="CL3" s="26"/>
-      <c r="CM3" s="26"/>
-      <c r="CN3" s="26"/>
-      <c r="CO3" s="26"/>
-      <c r="CP3" s="26"/>
-      <c r="CQ3" s="26"/>
-      <c r="CR3" s="26"/>
-      <c r="CS3" s="26"/>
-      <c r="CT3" s="26"/>
-      <c r="CU3" s="26"/>
-      <c r="CV3" s="26"/>
-      <c r="CW3" s="26"/>
-      <c r="CX3" s="26"/>
-      <c r="CY3" s="26"/>
-      <c r="CZ3" s="26"/>
-      <c r="DA3" s="26"/>
-      <c r="DB3" s="26"/>
-      <c r="DC3" s="26"/>
-      <c r="DD3" s="26"/>
-      <c r="DE3" s="26"/>
-      <c r="DF3" s="26"/>
-      <c r="DG3" s="26"/>
-      <c r="DH3" s="26"/>
-      <c r="DI3" s="26"/>
-      <c r="DJ3" s="26"/>
-      <c r="DK3" s="26"/>
-      <c r="DL3" s="26"/>
-      <c r="DM3" s="26"/>
-      <c r="DN3" s="26"/>
-      <c r="DO3" s="26"/>
-      <c r="DP3" s="26"/>
-      <c r="DQ3" s="26"/>
-      <c r="DR3" s="26"/>
-      <c r="DS3" s="26"/>
-      <c r="DT3" s="26"/>
-      <c r="DU3" s="26"/>
-      <c r="DV3" s="26"/>
-      <c r="DW3" s="26"/>
-      <c r="DX3" s="26"/>
-      <c r="DY3" s="26"/>
-      <c r="DZ3" s="26"/>
-      <c r="EA3" s="26"/>
-      <c r="EB3" s="26"/>
-      <c r="EC3" s="26"/>
-      <c r="ED3" s="26"/>
-      <c r="EE3" s="26"/>
-      <c r="EF3" s="26"/>
-      <c r="EG3" s="26"/>
-      <c r="EH3" s="26"/>
-      <c r="EI3" s="26"/>
-      <c r="EJ3" s="26"/>
-      <c r="EK3" s="26"/>
-      <c r="EL3" s="26"/>
-      <c r="EM3" s="26"/>
-      <c r="EN3" s="26"/>
-      <c r="EO3" s="26"/>
-      <c r="EP3" s="26"/>
-      <c r="EQ3" s="26"/>
-      <c r="ER3" s="26"/>
-      <c r="ES3" s="26"/>
-      <c r="ET3" s="26"/>
-      <c r="EU3" s="26"/>
-      <c r="EV3" s="26"/>
-      <c r="EW3" s="26"/>
-      <c r="EX3" s="26"/>
-      <c r="EY3" s="26"/>
-      <c r="EZ3" s="26"/>
-      <c r="FA3" s="26"/>
-      <c r="FB3" s="26"/>
-      <c r="FC3" s="26"/>
-      <c r="FD3" s="26"/>
-      <c r="FE3" s="26"/>
-      <c r="FF3" s="26"/>
-      <c r="FG3" s="26"/>
-      <c r="FH3" s="26"/>
-      <c r="FI3" s="26"/>
-      <c r="FJ3" s="26"/>
-      <c r="FK3" s="26"/>
-      <c r="FL3" s="26"/>
-      <c r="FM3" s="26"/>
-      <c r="FN3" s="26"/>
-      <c r="FO3" s="26"/>
-      <c r="FP3" s="26"/>
-      <c r="FQ3" s="26"/>
-      <c r="FR3" s="26"/>
-      <c r="FS3" s="26"/>
-      <c r="FT3" s="26"/>
-      <c r="FU3" s="26"/>
-      <c r="FV3" s="26"/>
-      <c r="FW3" s="26"/>
-      <c r="FX3" s="26"/>
-      <c r="FY3" s="26"/>
-      <c r="FZ3" s="26"/>
-      <c r="GA3" s="26"/>
-      <c r="GB3" s="26"/>
-      <c r="GC3" s="26"/>
-      <c r="GD3" s="26"/>
-      <c r="GE3" s="26"/>
-      <c r="GF3" s="26"/>
-      <c r="GG3" s="26"/>
-      <c r="GH3" s="26"/>
-      <c r="GI3" s="26"/>
-      <c r="GJ3" s="26"/>
-      <c r="GK3" s="26"/>
-      <c r="GL3" s="26"/>
-      <c r="GM3" s="26"/>
-      <c r="GN3" s="26"/>
-      <c r="GO3" s="26"/>
-      <c r="GP3" s="26"/>
-      <c r="GQ3" s="26"/>
-      <c r="GR3" s="26"/>
-      <c r="GS3" s="26"/>
-      <c r="GT3" s="26"/>
-      <c r="GU3" s="26"/>
-      <c r="GV3" s="26"/>
-      <c r="GW3" s="26"/>
-      <c r="GX3" s="26"/>
-      <c r="GY3" s="26"/>
-      <c r="GZ3" s="26"/>
-      <c r="HA3" s="26"/>
-      <c r="HB3" s="26"/>
-      <c r="HC3" s="26"/>
-      <c r="HD3" s="26"/>
-      <c r="HE3" s="26"/>
-      <c r="HF3" s="26"/>
-      <c r="HG3" s="26"/>
-      <c r="HH3" s="26"/>
-      <c r="HI3" s="26"/>
-      <c r="HJ3" s="26"/>
-      <c r="HK3" s="26"/>
-      <c r="HL3" s="26"/>
-      <c r="HM3" s="26"/>
-      <c r="HN3" s="26"/>
-      <c r="HO3" s="26"/>
-      <c r="HP3" s="26"/>
-      <c r="HQ3" s="26"/>
-      <c r="HR3" s="26"/>
-      <c r="HS3" s="26"/>
-      <c r="HT3" s="26"/>
-      <c r="HU3" s="26"/>
-      <c r="HV3" s="26"/>
-      <c r="HW3" s="26"/>
-      <c r="HX3" s="26"/>
-      <c r="HY3" s="26"/>
-      <c r="HZ3" s="26"/>
-      <c r="IA3" s="26"/>
-      <c r="IB3" s="26"/>
-      <c r="IC3" s="26"/>
-      <c r="ID3" s="26"/>
-      <c r="IE3" s="26"/>
-      <c r="IF3" s="26"/>
-      <c r="IG3" s="26"/>
-      <c r="IH3" s="26"/>
-      <c r="II3" s="26"/>
-      <c r="IJ3" s="26"/>
-      <c r="IK3" s="26"/>
-      <c r="IL3" s="26"/>
-      <c r="IM3" s="26"/>
-      <c r="IN3" s="26"/>
-      <c r="IO3" s="26"/>
-      <c r="IP3" s="26"/>
-    </row>
-    <row r="4" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="24"/>
+      <c r="AT3" s="24"/>
+      <c r="AU3" s="24"/>
+      <c r="AV3" s="24"/>
+      <c r="AW3" s="24"/>
+      <c r="AX3" s="24"/>
+      <c r="AY3" s="24"/>
+      <c r="AZ3" s="24"/>
+      <c r="BA3" s="24"/>
+      <c r="BB3" s="24"/>
+      <c r="BC3" s="24"/>
+      <c r="BD3" s="24"/>
+      <c r="BE3" s="24"/>
+      <c r="BF3" s="24"/>
+      <c r="BG3" s="24"/>
+      <c r="BH3" s="24"/>
+      <c r="BI3" s="24"/>
+      <c r="BJ3" s="24"/>
+      <c r="BK3" s="24"/>
+      <c r="BL3" s="24"/>
+      <c r="BM3" s="24"/>
+      <c r="BN3" s="24"/>
+      <c r="BO3" s="24"/>
+      <c r="BP3" s="24"/>
+      <c r="BQ3" s="24"/>
+      <c r="BR3" s="24"/>
+      <c r="BS3" s="24"/>
+      <c r="BT3" s="24"/>
+      <c r="BU3" s="24"/>
+      <c r="BV3" s="24"/>
+      <c r="BW3" s="24"/>
+      <c r="BX3" s="24"/>
+      <c r="BY3" s="24"/>
+      <c r="BZ3" s="24"/>
+      <c r="CA3" s="24"/>
+      <c r="CB3" s="24"/>
+      <c r="CC3" s="24"/>
+      <c r="CD3" s="24"/>
+      <c r="CE3" s="24"/>
+      <c r="CF3" s="24"/>
+      <c r="CG3" s="24"/>
+      <c r="CH3" s="24"/>
+      <c r="CI3" s="24"/>
+      <c r="CJ3" s="24"/>
+      <c r="CK3" s="24"/>
+      <c r="CL3" s="24"/>
+      <c r="CM3" s="24"/>
+      <c r="CN3" s="24"/>
+      <c r="CO3" s="24"/>
+      <c r="CP3" s="24"/>
+      <c r="CQ3" s="24"/>
+      <c r="CR3" s="24"/>
+      <c r="CS3" s="24"/>
+      <c r="CT3" s="24"/>
+      <c r="CU3" s="24"/>
+      <c r="CV3" s="24"/>
+      <c r="CW3" s="24"/>
+      <c r="CX3" s="24"/>
+      <c r="CY3" s="24"/>
+      <c r="CZ3" s="24"/>
+      <c r="DA3" s="24"/>
+      <c r="DB3" s="24"/>
+      <c r="DC3" s="24"/>
+      <c r="DD3" s="24"/>
+      <c r="DE3" s="24"/>
+      <c r="DF3" s="24"/>
+      <c r="DG3" s="24"/>
+      <c r="DH3" s="24"/>
+      <c r="DI3" s="24"/>
+      <c r="DJ3" s="24"/>
+      <c r="DK3" s="24"/>
+      <c r="DL3" s="24"/>
+      <c r="DM3" s="24"/>
+      <c r="DN3" s="24"/>
+      <c r="DO3" s="24"/>
+      <c r="DP3" s="24"/>
+      <c r="DQ3" s="24"/>
+      <c r="DR3" s="24"/>
+      <c r="DS3" s="24"/>
+      <c r="DT3" s="24"/>
+      <c r="DU3" s="24"/>
+      <c r="DV3" s="24"/>
+      <c r="DW3" s="24"/>
+      <c r="DX3" s="24"/>
+      <c r="DY3" s="24"/>
+      <c r="DZ3" s="24"/>
+      <c r="EA3" s="24"/>
+      <c r="EB3" s="24"/>
+      <c r="EC3" s="24"/>
+      <c r="ED3" s="24"/>
+      <c r="EE3" s="24"/>
+      <c r="EF3" s="24"/>
+      <c r="EG3" s="24"/>
+      <c r="EH3" s="24"/>
+      <c r="EI3" s="24"/>
+      <c r="EJ3" s="24"/>
+      <c r="EK3" s="24"/>
+      <c r="EL3" s="24"/>
+      <c r="EM3" s="24"/>
+      <c r="EN3" s="24"/>
+      <c r="EO3" s="24"/>
+      <c r="EP3" s="24"/>
+      <c r="EQ3" s="24"/>
+      <c r="ER3" s="24"/>
+      <c r="ES3" s="24"/>
+      <c r="ET3" s="24"/>
+      <c r="EU3" s="24"/>
+      <c r="EV3" s="24"/>
+      <c r="EW3" s="24"/>
+      <c r="EX3" s="24"/>
+      <c r="EY3" s="24"/>
+      <c r="EZ3" s="24"/>
+      <c r="FA3" s="24"/>
+      <c r="FB3" s="24"/>
+      <c r="FC3" s="24"/>
+      <c r="FD3" s="24"/>
+      <c r="FE3" s="24"/>
+      <c r="FF3" s="24"/>
+      <c r="FG3" s="24"/>
+      <c r="FH3" s="24"/>
+      <c r="FI3" s="24"/>
+      <c r="FJ3" s="24"/>
+      <c r="FK3" s="24"/>
+      <c r="FL3" s="24"/>
+      <c r="FM3" s="24"/>
+      <c r="FN3" s="24"/>
+      <c r="FO3" s="24"/>
+      <c r="FP3" s="24"/>
+      <c r="FQ3" s="24"/>
+      <c r="FR3" s="24"/>
+      <c r="FS3" s="24"/>
+      <c r="FT3" s="24"/>
+      <c r="FU3" s="24"/>
+      <c r="FV3" s="24"/>
+      <c r="FW3" s="24"/>
+      <c r="FX3" s="24"/>
+      <c r="FY3" s="24"/>
+      <c r="FZ3" s="24"/>
+      <c r="GA3" s="24"/>
+      <c r="GB3" s="24"/>
+      <c r="GC3" s="24"/>
+      <c r="GD3" s="24"/>
+      <c r="GE3" s="24"/>
+      <c r="GF3" s="24"/>
+      <c r="GG3" s="24"/>
+      <c r="GH3" s="24"/>
+      <c r="GI3" s="24"/>
+      <c r="GJ3" s="24"/>
+      <c r="GK3" s="24"/>
+      <c r="GL3" s="24"/>
+      <c r="GM3" s="24"/>
+      <c r="GN3" s="24"/>
+      <c r="GO3" s="24"/>
+      <c r="GP3" s="24"/>
+      <c r="GQ3" s="24"/>
+      <c r="GR3" s="24"/>
+      <c r="GS3" s="24"/>
+      <c r="GT3" s="24"/>
+      <c r="GU3" s="24"/>
+      <c r="GV3" s="24"/>
+      <c r="GW3" s="24"/>
+      <c r="GX3" s="24"/>
+      <c r="GY3" s="24"/>
+      <c r="GZ3" s="24"/>
+      <c r="HA3" s="24"/>
+      <c r="HB3" s="24"/>
+      <c r="HC3" s="24"/>
+      <c r="HD3" s="24"/>
+      <c r="HE3" s="24"/>
+      <c r="HF3" s="24"/>
+      <c r="HG3" s="24"/>
+      <c r="HH3" s="24"/>
+      <c r="HI3" s="24"/>
+      <c r="HJ3" s="24"/>
+      <c r="HK3" s="24"/>
+      <c r="HL3" s="24"/>
+      <c r="HM3" s="24"/>
+      <c r="HN3" s="24"/>
+      <c r="HO3" s="24"/>
+      <c r="HP3" s="24"/>
+      <c r="HQ3" s="24"/>
+      <c r="HR3" s="24"/>
+      <c r="HS3" s="24"/>
+      <c r="HT3" s="24"/>
+      <c r="HU3" s="24"/>
+      <c r="HV3" s="24"/>
+      <c r="HW3" s="24"/>
+      <c r="HX3" s="24"/>
+      <c r="HY3" s="24"/>
+      <c r="HZ3" s="24"/>
+      <c r="IA3" s="24"/>
+      <c r="IB3" s="24"/>
+      <c r="IC3" s="24"/>
+      <c r="ID3" s="24"/>
+      <c r="IE3" s="24"/>
+      <c r="IF3" s="24"/>
+      <c r="IG3" s="24"/>
+      <c r="IH3" s="24"/>
+      <c r="II3" s="24"/>
+      <c r="IJ3" s="24"/>
+      <c r="IK3" s="24"/>
+      <c r="IL3" s="24"/>
+      <c r="IM3" s="24"/>
+      <c r="IN3" s="24"/>
+      <c r="IO3" s="24"/>
+      <c r="IP3" s="24"/>
+    </row>
+    <row r="4" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-    </row>
-    <row r="5" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-    </row>
-    <row r="6" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="8" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-    </row>
-    <row r="10" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-    </row>
-    <row r="11" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-    </row>
-    <row r="12" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-    </row>
-    <row r="13" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-    </row>
-    <row r="14" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-    </row>
-    <row r="16" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-    </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-    </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-    </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+    </row>
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-    </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+    </row>
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-    </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-    </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-    </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-    </row>
-    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+    </row>
+    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="17"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-    </row>
-    <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="17"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-    </row>
-    <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="17"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-    </row>
-    <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="17"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-    </row>
-    <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="17"/>
       <c r="B28" s="14"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-    </row>
-    <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="17"/>
       <c r="B29" s="14"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-    </row>
-    <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="17"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-    </row>
-    <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-    </row>
-    <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="17"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-    </row>
-    <row r="33" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="17"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-    </row>
-    <row r="34" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="17"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-    </row>
-    <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="17"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-    </row>
-    <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="17"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-    </row>
-    <row r="37" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="17"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-    </row>
-    <row r="38" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="17"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-    </row>
-    <row r="39" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="17"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-    </row>
-    <row r="40" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="17"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-    </row>
-    <row r="41" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="17"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-    </row>
-    <row r="42" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="17"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-    </row>
-    <row r="43" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+    </row>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="17"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-    </row>
-    <row r="44" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="17"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-    </row>
-    <row r="45" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="17"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-    </row>
-    <row r="46" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="17"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-    </row>
-    <row r="47" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="17"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-    </row>
-    <row r="48" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="17"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-    </row>
-    <row r="49" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="17"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-    </row>
-    <row r="50" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="17"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-    </row>
-    <row r="51" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="17"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-    </row>
-    <row r="52" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="17"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-    </row>
-    <row r="53" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="17"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-    </row>
-    <row r="54" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="17"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-    </row>
-    <row r="55" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="17"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-    </row>
-    <row r="56" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="17"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
@@ -2302,25 +2805,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IP52"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="34.83203125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="81.83203125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="42.83203125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="46.83203125" style="18" customWidth="1"/>
-    <col min="6" max="250" width="16.33203125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="81.85546875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="46.85546875" style="18" customWidth="1"/>
+    <col min="6" max="250" width="16.28515625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:250" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:250" ht="30.95" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -2329,20 +2834,20 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:250" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:250" ht="20.85" customHeight="1">
+      <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="19" t="s">
         <v>14</v>
       </c>
       <c r="IK2"/>
@@ -2352,359 +2857,5456 @@
       <c r="IO2"/>
       <c r="IP2"/>
     </row>
-    <row r="3" spans="1:250" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-    </row>
-    <row r="4" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="17"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:250" s="29" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A3" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="28"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="28"/>
+      <c r="AR3" s="28"/>
+      <c r="AS3" s="28"/>
+      <c r="AT3" s="28"/>
+      <c r="AU3" s="28"/>
+      <c r="AV3" s="28"/>
+      <c r="AW3" s="28"/>
+      <c r="AX3" s="28"/>
+      <c r="AY3" s="28"/>
+      <c r="AZ3" s="28"/>
+      <c r="BA3" s="28"/>
+      <c r="BB3" s="28"/>
+      <c r="BC3" s="28"/>
+      <c r="BD3" s="28"/>
+      <c r="BE3" s="28"/>
+      <c r="BF3" s="28"/>
+      <c r="BG3" s="28"/>
+      <c r="BH3" s="28"/>
+      <c r="BI3" s="28"/>
+      <c r="BJ3" s="28"/>
+      <c r="BK3" s="28"/>
+      <c r="BL3" s="28"/>
+      <c r="BM3" s="28"/>
+      <c r="BN3" s="28"/>
+      <c r="BO3" s="28"/>
+      <c r="BP3" s="28"/>
+      <c r="BQ3" s="28"/>
+      <c r="BR3" s="28"/>
+      <c r="BS3" s="28"/>
+      <c r="BT3" s="28"/>
+      <c r="BU3" s="28"/>
+      <c r="BV3" s="28"/>
+      <c r="BW3" s="28"/>
+      <c r="BX3" s="28"/>
+      <c r="BY3" s="28"/>
+      <c r="BZ3" s="28"/>
+      <c r="CA3" s="28"/>
+      <c r="CB3" s="28"/>
+      <c r="CC3" s="28"/>
+      <c r="CD3" s="28"/>
+      <c r="CE3" s="28"/>
+      <c r="CF3" s="28"/>
+      <c r="CG3" s="28"/>
+      <c r="CH3" s="28"/>
+      <c r="CI3" s="28"/>
+      <c r="CJ3" s="28"/>
+      <c r="CK3" s="28"/>
+      <c r="CL3" s="28"/>
+      <c r="CM3" s="28"/>
+      <c r="CN3" s="28"/>
+      <c r="CO3" s="28"/>
+      <c r="CP3" s="28"/>
+      <c r="CQ3" s="28"/>
+      <c r="CR3" s="28"/>
+      <c r="CS3" s="28"/>
+      <c r="CT3" s="28"/>
+      <c r="CU3" s="28"/>
+      <c r="CV3" s="28"/>
+      <c r="CW3" s="28"/>
+      <c r="CX3" s="28"/>
+      <c r="CY3" s="28"/>
+      <c r="CZ3" s="28"/>
+      <c r="DA3" s="28"/>
+      <c r="DB3" s="28"/>
+      <c r="DC3" s="28"/>
+      <c r="DD3" s="28"/>
+      <c r="DE3" s="28"/>
+      <c r="DF3" s="28"/>
+      <c r="DG3" s="28"/>
+      <c r="DH3" s="28"/>
+      <c r="DI3" s="28"/>
+      <c r="DJ3" s="28"/>
+      <c r="DK3" s="28"/>
+      <c r="DL3" s="28"/>
+      <c r="DM3" s="28"/>
+      <c r="DN3" s="28"/>
+      <c r="DO3" s="28"/>
+      <c r="DP3" s="28"/>
+      <c r="DQ3" s="28"/>
+      <c r="DR3" s="28"/>
+      <c r="DS3" s="28"/>
+      <c r="DT3" s="28"/>
+      <c r="DU3" s="28"/>
+      <c r="DV3" s="28"/>
+      <c r="DW3" s="28"/>
+      <c r="DX3" s="28"/>
+      <c r="DY3" s="28"/>
+      <c r="DZ3" s="28"/>
+      <c r="EA3" s="28"/>
+      <c r="EB3" s="28"/>
+      <c r="EC3" s="28"/>
+      <c r="ED3" s="28"/>
+      <c r="EE3" s="28"/>
+      <c r="EF3" s="28"/>
+      <c r="EG3" s="28"/>
+      <c r="EH3" s="28"/>
+      <c r="EI3" s="28"/>
+      <c r="EJ3" s="28"/>
+      <c r="EK3" s="28"/>
+      <c r="EL3" s="28"/>
+      <c r="EM3" s="28"/>
+      <c r="EN3" s="28"/>
+      <c r="EO3" s="28"/>
+      <c r="EP3" s="28"/>
+      <c r="EQ3" s="28"/>
+      <c r="ER3" s="28"/>
+      <c r="ES3" s="28"/>
+      <c r="ET3" s="28"/>
+      <c r="EU3" s="28"/>
+      <c r="EV3" s="28"/>
+      <c r="EW3" s="28"/>
+      <c r="EX3" s="28"/>
+      <c r="EY3" s="28"/>
+      <c r="EZ3" s="28"/>
+      <c r="FA3" s="28"/>
+      <c r="FB3" s="28"/>
+      <c r="FC3" s="28"/>
+      <c r="FD3" s="28"/>
+      <c r="FE3" s="28"/>
+      <c r="FF3" s="28"/>
+      <c r="FG3" s="28"/>
+      <c r="FH3" s="28"/>
+      <c r="FI3" s="28"/>
+      <c r="FJ3" s="28"/>
+      <c r="FK3" s="28"/>
+      <c r="FL3" s="28"/>
+      <c r="FM3" s="28"/>
+      <c r="FN3" s="28"/>
+      <c r="FO3" s="28"/>
+      <c r="FP3" s="28"/>
+      <c r="FQ3" s="28"/>
+      <c r="FR3" s="28"/>
+      <c r="FS3" s="28"/>
+      <c r="FT3" s="28"/>
+      <c r="FU3" s="28"/>
+      <c r="FV3" s="28"/>
+      <c r="FW3" s="28"/>
+      <c r="FX3" s="28"/>
+      <c r="FY3" s="28"/>
+      <c r="FZ3" s="28"/>
+      <c r="GA3" s="28"/>
+      <c r="GB3" s="28"/>
+      <c r="GC3" s="28"/>
+      <c r="GD3" s="28"/>
+      <c r="GE3" s="28"/>
+      <c r="GF3" s="28"/>
+      <c r="GG3" s="28"/>
+      <c r="GH3" s="28"/>
+      <c r="GI3" s="28"/>
+      <c r="GJ3" s="28"/>
+      <c r="GK3" s="28"/>
+      <c r="GL3" s="28"/>
+      <c r="GM3" s="28"/>
+      <c r="GN3" s="28"/>
+      <c r="GO3" s="28"/>
+      <c r="GP3" s="28"/>
+      <c r="GQ3" s="28"/>
+      <c r="GR3" s="28"/>
+      <c r="GS3" s="28"/>
+      <c r="GT3" s="28"/>
+      <c r="GU3" s="28"/>
+      <c r="GV3" s="28"/>
+      <c r="GW3" s="28"/>
+      <c r="GX3" s="28"/>
+      <c r="GY3" s="28"/>
+      <c r="GZ3" s="28"/>
+      <c r="HA3" s="28"/>
+      <c r="HB3" s="28"/>
+      <c r="HC3" s="28"/>
+      <c r="HD3" s="28"/>
+      <c r="HE3" s="28"/>
+      <c r="HF3" s="28"/>
+      <c r="HG3" s="28"/>
+      <c r="HH3" s="28"/>
+      <c r="HI3" s="28"/>
+      <c r="HJ3" s="28"/>
+      <c r="HK3" s="28"/>
+      <c r="HL3" s="28"/>
+      <c r="HM3" s="28"/>
+      <c r="HN3" s="28"/>
+      <c r="HO3" s="28"/>
+      <c r="HP3" s="28"/>
+      <c r="HQ3" s="28"/>
+      <c r="HR3" s="28"/>
+      <c r="HS3" s="28"/>
+      <c r="HT3" s="28"/>
+      <c r="HU3" s="28"/>
+      <c r="HV3" s="28"/>
+      <c r="HW3" s="28"/>
+      <c r="HX3" s="28"/>
+      <c r="HY3" s="28"/>
+      <c r="HZ3" s="28"/>
+      <c r="IA3" s="28"/>
+      <c r="IB3" s="28"/>
+      <c r="IC3" s="28"/>
+      <c r="ID3" s="28"/>
+      <c r="IE3" s="28"/>
+      <c r="IF3" s="28"/>
+      <c r="IG3" s="28"/>
+      <c r="IH3" s="28"/>
+      <c r="II3" s="28"/>
+      <c r="IJ3" s="28"/>
+      <c r="IK3" s="28"/>
+      <c r="IL3" s="28"/>
+      <c r="IM3" s="28"/>
+      <c r="IN3" s="28"/>
+      <c r="IO3" s="28"/>
+      <c r="IP3" s="28"/>
+    </row>
+    <row r="4" spans="1:250" s="29" customFormat="1" ht="157.5" customHeight="1">
+      <c r="A4" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="28"/>
+      <c r="AO4" s="28"/>
+      <c r="AP4" s="28"/>
+      <c r="AQ4" s="28"/>
+      <c r="AR4" s="28"/>
+      <c r="AS4" s="28"/>
+      <c r="AT4" s="28"/>
+      <c r="AU4" s="28"/>
+      <c r="AV4" s="28"/>
+      <c r="AW4" s="28"/>
+      <c r="AX4" s="28"/>
+      <c r="AY4" s="28"/>
+      <c r="AZ4" s="28"/>
+      <c r="BA4" s="28"/>
+      <c r="BB4" s="28"/>
+      <c r="BC4" s="28"/>
+      <c r="BD4" s="28"/>
+      <c r="BE4" s="28"/>
+      <c r="BF4" s="28"/>
+      <c r="BG4" s="28"/>
+      <c r="BH4" s="28"/>
+      <c r="BI4" s="28"/>
+      <c r="BJ4" s="28"/>
+      <c r="BK4" s="28"/>
+      <c r="BL4" s="28"/>
+      <c r="BM4" s="28"/>
+      <c r="BN4" s="28"/>
+      <c r="BO4" s="28"/>
+      <c r="BP4" s="28"/>
+      <c r="BQ4" s="28"/>
+      <c r="BR4" s="28"/>
+      <c r="BS4" s="28"/>
+      <c r="BT4" s="28"/>
+      <c r="BU4" s="28"/>
+      <c r="BV4" s="28"/>
+      <c r="BW4" s="28"/>
+      <c r="BX4" s="28"/>
+      <c r="BY4" s="28"/>
+      <c r="BZ4" s="28"/>
+      <c r="CA4" s="28"/>
+      <c r="CB4" s="28"/>
+      <c r="CC4" s="28"/>
+      <c r="CD4" s="28"/>
+      <c r="CE4" s="28"/>
+      <c r="CF4" s="28"/>
+      <c r="CG4" s="28"/>
+      <c r="CH4" s="28"/>
+      <c r="CI4" s="28"/>
+      <c r="CJ4" s="28"/>
+      <c r="CK4" s="28"/>
+      <c r="CL4" s="28"/>
+      <c r="CM4" s="28"/>
+      <c r="CN4" s="28"/>
+      <c r="CO4" s="28"/>
+      <c r="CP4" s="28"/>
+      <c r="CQ4" s="28"/>
+      <c r="CR4" s="28"/>
+      <c r="CS4" s="28"/>
+      <c r="CT4" s="28"/>
+      <c r="CU4" s="28"/>
+      <c r="CV4" s="28"/>
+      <c r="CW4" s="28"/>
+      <c r="CX4" s="28"/>
+      <c r="CY4" s="28"/>
+      <c r="CZ4" s="28"/>
+      <c r="DA4" s="28"/>
+      <c r="DB4" s="28"/>
+      <c r="DC4" s="28"/>
+      <c r="DD4" s="28"/>
+      <c r="DE4" s="28"/>
+      <c r="DF4" s="28"/>
+      <c r="DG4" s="28"/>
+      <c r="DH4" s="28"/>
+      <c r="DI4" s="28"/>
+      <c r="DJ4" s="28"/>
+      <c r="DK4" s="28"/>
+      <c r="DL4" s="28"/>
+      <c r="DM4" s="28"/>
+      <c r="DN4" s="28"/>
+      <c r="DO4" s="28"/>
+      <c r="DP4" s="28"/>
+      <c r="DQ4" s="28"/>
+      <c r="DR4" s="28"/>
+      <c r="DS4" s="28"/>
+      <c r="DT4" s="28"/>
+      <c r="DU4" s="28"/>
+      <c r="DV4" s="28"/>
+      <c r="DW4" s="28"/>
+      <c r="DX4" s="28"/>
+      <c r="DY4" s="28"/>
+      <c r="DZ4" s="28"/>
+      <c r="EA4" s="28"/>
+      <c r="EB4" s="28"/>
+      <c r="EC4" s="28"/>
+      <c r="ED4" s="28"/>
+      <c r="EE4" s="28"/>
+      <c r="EF4" s="28"/>
+      <c r="EG4" s="28"/>
+      <c r="EH4" s="28"/>
+      <c r="EI4" s="28"/>
+      <c r="EJ4" s="28"/>
+      <c r="EK4" s="28"/>
+      <c r="EL4" s="28"/>
+      <c r="EM4" s="28"/>
+      <c r="EN4" s="28"/>
+      <c r="EO4" s="28"/>
+      <c r="EP4" s="28"/>
+      <c r="EQ4" s="28"/>
+      <c r="ER4" s="28"/>
+      <c r="ES4" s="28"/>
+      <c r="ET4" s="28"/>
+      <c r="EU4" s="28"/>
+      <c r="EV4" s="28"/>
+      <c r="EW4" s="28"/>
+      <c r="EX4" s="28"/>
+      <c r="EY4" s="28"/>
+      <c r="EZ4" s="28"/>
+      <c r="FA4" s="28"/>
+      <c r="FB4" s="28"/>
+      <c r="FC4" s="28"/>
+      <c r="FD4" s="28"/>
+      <c r="FE4" s="28"/>
+      <c r="FF4" s="28"/>
+      <c r="FG4" s="28"/>
+      <c r="FH4" s="28"/>
+      <c r="FI4" s="28"/>
+      <c r="FJ4" s="28"/>
+      <c r="FK4" s="28"/>
+      <c r="FL4" s="28"/>
+      <c r="FM4" s="28"/>
+      <c r="FN4" s="28"/>
+      <c r="FO4" s="28"/>
+      <c r="FP4" s="28"/>
+      <c r="FQ4" s="28"/>
+      <c r="FR4" s="28"/>
+      <c r="FS4" s="28"/>
+      <c r="FT4" s="28"/>
+      <c r="FU4" s="28"/>
+      <c r="FV4" s="28"/>
+      <c r="FW4" s="28"/>
+      <c r="FX4" s="28"/>
+      <c r="FY4" s="28"/>
+      <c r="FZ4" s="28"/>
+      <c r="GA4" s="28"/>
+      <c r="GB4" s="28"/>
+      <c r="GC4" s="28"/>
+      <c r="GD4" s="28"/>
+      <c r="GE4" s="28"/>
+      <c r="GF4" s="28"/>
+      <c r="GG4" s="28"/>
+      <c r="GH4" s="28"/>
+      <c r="GI4" s="28"/>
+      <c r="GJ4" s="28"/>
+      <c r="GK4" s="28"/>
+      <c r="GL4" s="28"/>
+      <c r="GM4" s="28"/>
+      <c r="GN4" s="28"/>
+      <c r="GO4" s="28"/>
+      <c r="GP4" s="28"/>
+      <c r="GQ4" s="28"/>
+      <c r="GR4" s="28"/>
+      <c r="GS4" s="28"/>
+      <c r="GT4" s="28"/>
+      <c r="GU4" s="28"/>
+      <c r="GV4" s="28"/>
+      <c r="GW4" s="28"/>
+      <c r="GX4" s="28"/>
+      <c r="GY4" s="28"/>
+      <c r="GZ4" s="28"/>
+      <c r="HA4" s="28"/>
+      <c r="HB4" s="28"/>
+      <c r="HC4" s="28"/>
+      <c r="HD4" s="28"/>
+      <c r="HE4" s="28"/>
+      <c r="HF4" s="28"/>
+      <c r="HG4" s="28"/>
+      <c r="HH4" s="28"/>
+      <c r="HI4" s="28"/>
+      <c r="HJ4" s="28"/>
+      <c r="HK4" s="28"/>
+      <c r="HL4" s="28"/>
+      <c r="HM4" s="28"/>
+      <c r="HN4" s="28"/>
+      <c r="HO4" s="28"/>
+      <c r="HP4" s="28"/>
+      <c r="HQ4" s="28"/>
+      <c r="HR4" s="28"/>
+      <c r="HS4" s="28"/>
+      <c r="HT4" s="28"/>
+      <c r="HU4" s="28"/>
+      <c r="HV4" s="28"/>
+      <c r="HW4" s="28"/>
+      <c r="HX4" s="28"/>
+      <c r="HY4" s="28"/>
+      <c r="HZ4" s="28"/>
+      <c r="IA4" s="28"/>
+      <c r="IB4" s="28"/>
+      <c r="IC4" s="28"/>
+      <c r="ID4" s="28"/>
+      <c r="IE4" s="28"/>
+      <c r="IF4" s="28"/>
+      <c r="IG4" s="28"/>
+      <c r="IH4" s="28"/>
+      <c r="II4" s="28"/>
+      <c r="IJ4" s="28"/>
+      <c r="IK4" s="28"/>
+      <c r="IL4" s="28"/>
+      <c r="IM4" s="28"/>
+      <c r="IN4" s="28"/>
+      <c r="IO4" s="28"/>
+      <c r="IP4" s="28"/>
+    </row>
+    <row r="5" spans="1:250" s="35" customFormat="1" ht="119.25" customHeight="1">
+      <c r="A5" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="34"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="34"/>
+      <c r="AM5" s="34"/>
+      <c r="AN5" s="34"/>
+      <c r="AO5" s="34"/>
+      <c r="AP5" s="34"/>
+      <c r="AQ5" s="34"/>
+      <c r="AR5" s="34"/>
+      <c r="AS5" s="34"/>
+      <c r="AT5" s="34"/>
+      <c r="AU5" s="34"/>
+      <c r="AV5" s="34"/>
+      <c r="AW5" s="34"/>
+      <c r="AX5" s="34"/>
+      <c r="AY5" s="34"/>
+      <c r="AZ5" s="34"/>
+      <c r="BA5" s="34"/>
+      <c r="BB5" s="34"/>
+      <c r="BC5" s="34"/>
+      <c r="BD5" s="34"/>
+      <c r="BE5" s="34"/>
+      <c r="BF5" s="34"/>
+      <c r="BG5" s="34"/>
+      <c r="BH5" s="34"/>
+      <c r="BI5" s="34"/>
+      <c r="BJ5" s="34"/>
+      <c r="BK5" s="34"/>
+      <c r="BL5" s="34"/>
+      <c r="BM5" s="34"/>
+      <c r="BN5" s="34"/>
+      <c r="BO5" s="34"/>
+      <c r="BP5" s="34"/>
+      <c r="BQ5" s="34"/>
+      <c r="BR5" s="34"/>
+      <c r="BS5" s="34"/>
+      <c r="BT5" s="34"/>
+      <c r="BU5" s="34"/>
+      <c r="BV5" s="34"/>
+      <c r="BW5" s="34"/>
+      <c r="BX5" s="34"/>
+      <c r="BY5" s="34"/>
+      <c r="BZ5" s="34"/>
+      <c r="CA5" s="34"/>
+      <c r="CB5" s="34"/>
+      <c r="CC5" s="34"/>
+      <c r="CD5" s="34"/>
+      <c r="CE5" s="34"/>
+      <c r="CF5" s="34"/>
+      <c r="CG5" s="34"/>
+      <c r="CH5" s="34"/>
+      <c r="CI5" s="34"/>
+      <c r="CJ5" s="34"/>
+      <c r="CK5" s="34"/>
+      <c r="CL5" s="34"/>
+      <c r="CM5" s="34"/>
+      <c r="CN5" s="34"/>
+      <c r="CO5" s="34"/>
+      <c r="CP5" s="34"/>
+      <c r="CQ5" s="34"/>
+      <c r="CR5" s="34"/>
+      <c r="CS5" s="34"/>
+      <c r="CT5" s="34"/>
+      <c r="CU5" s="34"/>
+      <c r="CV5" s="34"/>
+      <c r="CW5" s="34"/>
+      <c r="CX5" s="34"/>
+      <c r="CY5" s="34"/>
+      <c r="CZ5" s="34"/>
+      <c r="DA5" s="34"/>
+      <c r="DB5" s="34"/>
+      <c r="DC5" s="34"/>
+      <c r="DD5" s="34"/>
+      <c r="DE5" s="34"/>
+      <c r="DF5" s="34"/>
+      <c r="DG5" s="34"/>
+      <c r="DH5" s="34"/>
+      <c r="DI5" s="34"/>
+      <c r="DJ5" s="34"/>
+      <c r="DK5" s="34"/>
+      <c r="DL5" s="34"/>
+      <c r="DM5" s="34"/>
+      <c r="DN5" s="34"/>
+      <c r="DO5" s="34"/>
+      <c r="DP5" s="34"/>
+      <c r="DQ5" s="34"/>
+      <c r="DR5" s="34"/>
+      <c r="DS5" s="34"/>
+      <c r="DT5" s="34"/>
+      <c r="DU5" s="34"/>
+      <c r="DV5" s="34"/>
+      <c r="DW5" s="34"/>
+      <c r="DX5" s="34"/>
+      <c r="DY5" s="34"/>
+      <c r="DZ5" s="34"/>
+      <c r="EA5" s="34"/>
+      <c r="EB5" s="34"/>
+      <c r="EC5" s="34"/>
+      <c r="ED5" s="34"/>
+      <c r="EE5" s="34"/>
+      <c r="EF5" s="34"/>
+      <c r="EG5" s="34"/>
+      <c r="EH5" s="34"/>
+      <c r="EI5" s="34"/>
+      <c r="EJ5" s="34"/>
+      <c r="EK5" s="34"/>
+      <c r="EL5" s="34"/>
+      <c r="EM5" s="34"/>
+      <c r="EN5" s="34"/>
+      <c r="EO5" s="34"/>
+      <c r="EP5" s="34"/>
+      <c r="EQ5" s="34"/>
+      <c r="ER5" s="34"/>
+      <c r="ES5" s="34"/>
+      <c r="ET5" s="34"/>
+      <c r="EU5" s="34"/>
+      <c r="EV5" s="34"/>
+      <c r="EW5" s="34"/>
+      <c r="EX5" s="34"/>
+      <c r="EY5" s="34"/>
+      <c r="EZ5" s="34"/>
+      <c r="FA5" s="34"/>
+      <c r="FB5" s="34"/>
+      <c r="FC5" s="34"/>
+      <c r="FD5" s="34"/>
+      <c r="FE5" s="34"/>
+      <c r="FF5" s="34"/>
+      <c r="FG5" s="34"/>
+      <c r="FH5" s="34"/>
+      <c r="FI5" s="34"/>
+      <c r="FJ5" s="34"/>
+      <c r="FK5" s="34"/>
+      <c r="FL5" s="34"/>
+      <c r="FM5" s="34"/>
+      <c r="FN5" s="34"/>
+      <c r="FO5" s="34"/>
+      <c r="FP5" s="34"/>
+      <c r="FQ5" s="34"/>
+      <c r="FR5" s="34"/>
+      <c r="FS5" s="34"/>
+      <c r="FT5" s="34"/>
+      <c r="FU5" s="34"/>
+      <c r="FV5" s="34"/>
+      <c r="FW5" s="34"/>
+      <c r="FX5" s="34"/>
+      <c r="FY5" s="34"/>
+      <c r="FZ5" s="34"/>
+      <c r="GA5" s="34"/>
+      <c r="GB5" s="34"/>
+      <c r="GC5" s="34"/>
+      <c r="GD5" s="34"/>
+      <c r="GE5" s="34"/>
+      <c r="GF5" s="34"/>
+      <c r="GG5" s="34"/>
+      <c r="GH5" s="34"/>
+      <c r="GI5" s="34"/>
+      <c r="GJ5" s="34"/>
+      <c r="GK5" s="34"/>
+      <c r="GL5" s="34"/>
+      <c r="GM5" s="34"/>
+      <c r="GN5" s="34"/>
+      <c r="GO5" s="34"/>
+      <c r="GP5" s="34"/>
+      <c r="GQ5" s="34"/>
+      <c r="GR5" s="34"/>
+      <c r="GS5" s="34"/>
+      <c r="GT5" s="34"/>
+      <c r="GU5" s="34"/>
+      <c r="GV5" s="34"/>
+      <c r="GW5" s="34"/>
+      <c r="GX5" s="34"/>
+      <c r="GY5" s="34"/>
+      <c r="GZ5" s="34"/>
+      <c r="HA5" s="34"/>
+      <c r="HB5" s="34"/>
+      <c r="HC5" s="34"/>
+      <c r="HD5" s="34"/>
+      <c r="HE5" s="34"/>
+      <c r="HF5" s="34"/>
+      <c r="HG5" s="34"/>
+      <c r="HH5" s="34"/>
+      <c r="HI5" s="34"/>
+      <c r="HJ5" s="34"/>
+      <c r="HK5" s="34"/>
+      <c r="HL5" s="34"/>
+      <c r="HM5" s="34"/>
+      <c r="HN5" s="34"/>
+      <c r="HO5" s="34"/>
+      <c r="HP5" s="34"/>
+      <c r="HQ5" s="34"/>
+      <c r="HR5" s="34"/>
+      <c r="HS5" s="34"/>
+      <c r="HT5" s="34"/>
+      <c r="HU5" s="34"/>
+      <c r="HV5" s="34"/>
+      <c r="HW5" s="34"/>
+      <c r="HX5" s="34"/>
+      <c r="HY5" s="34"/>
+      <c r="HZ5" s="34"/>
+      <c r="IA5" s="34"/>
+      <c r="IB5" s="34"/>
+      <c r="IC5" s="34"/>
+      <c r="ID5" s="34"/>
+      <c r="IE5" s="34"/>
+      <c r="IF5" s="34"/>
+      <c r="IG5" s="34"/>
+      <c r="IH5" s="34"/>
+      <c r="II5" s="34"/>
+      <c r="IJ5" s="34"/>
+      <c r="IK5" s="34"/>
+      <c r="IL5" s="34"/>
+      <c r="IM5" s="34"/>
+      <c r="IN5" s="34"/>
+      <c r="IO5" s="34"/>
+      <c r="IP5" s="34"/>
+    </row>
+    <row r="6" spans="1:250" s="35" customFormat="1" ht="134.25" customHeight="1">
+      <c r="A6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="34"/>
+      <c r="AL6" s="34"/>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="34"/>
+      <c r="AO6" s="34"/>
+      <c r="AP6" s="34"/>
+      <c r="AQ6" s="34"/>
+      <c r="AR6" s="34"/>
+      <c r="AS6" s="34"/>
+      <c r="AT6" s="34"/>
+      <c r="AU6" s="34"/>
+      <c r="AV6" s="34"/>
+      <c r="AW6" s="34"/>
+      <c r="AX6" s="34"/>
+      <c r="AY6" s="34"/>
+      <c r="AZ6" s="34"/>
+      <c r="BA6" s="34"/>
+      <c r="BB6" s="34"/>
+      <c r="BC6" s="34"/>
+      <c r="BD6" s="34"/>
+      <c r="BE6" s="34"/>
+      <c r="BF6" s="34"/>
+      <c r="BG6" s="34"/>
+      <c r="BH6" s="34"/>
+      <c r="BI6" s="34"/>
+      <c r="BJ6" s="34"/>
+      <c r="BK6" s="34"/>
+      <c r="BL6" s="34"/>
+      <c r="BM6" s="34"/>
+      <c r="BN6" s="34"/>
+      <c r="BO6" s="34"/>
+      <c r="BP6" s="34"/>
+      <c r="BQ6" s="34"/>
+      <c r="BR6" s="34"/>
+      <c r="BS6" s="34"/>
+      <c r="BT6" s="34"/>
+      <c r="BU6" s="34"/>
+      <c r="BV6" s="34"/>
+      <c r="BW6" s="34"/>
+      <c r="BX6" s="34"/>
+      <c r="BY6" s="34"/>
+      <c r="BZ6" s="34"/>
+      <c r="CA6" s="34"/>
+      <c r="CB6" s="34"/>
+      <c r="CC6" s="34"/>
+      <c r="CD6" s="34"/>
+      <c r="CE6" s="34"/>
+      <c r="CF6" s="34"/>
+      <c r="CG6" s="34"/>
+      <c r="CH6" s="34"/>
+      <c r="CI6" s="34"/>
+      <c r="CJ6" s="34"/>
+      <c r="CK6" s="34"/>
+      <c r="CL6" s="34"/>
+      <c r="CM6" s="34"/>
+      <c r="CN6" s="34"/>
+      <c r="CO6" s="34"/>
+      <c r="CP6" s="34"/>
+      <c r="CQ6" s="34"/>
+      <c r="CR6" s="34"/>
+      <c r="CS6" s="34"/>
+      <c r="CT6" s="34"/>
+      <c r="CU6" s="34"/>
+      <c r="CV6" s="34"/>
+      <c r="CW6" s="34"/>
+      <c r="CX6" s="34"/>
+      <c r="CY6" s="34"/>
+      <c r="CZ6" s="34"/>
+      <c r="DA6" s="34"/>
+      <c r="DB6" s="34"/>
+      <c r="DC6" s="34"/>
+      <c r="DD6" s="34"/>
+      <c r="DE6" s="34"/>
+      <c r="DF6" s="34"/>
+      <c r="DG6" s="34"/>
+      <c r="DH6" s="34"/>
+      <c r="DI6" s="34"/>
+      <c r="DJ6" s="34"/>
+      <c r="DK6" s="34"/>
+      <c r="DL6" s="34"/>
+      <c r="DM6" s="34"/>
+      <c r="DN6" s="34"/>
+      <c r="DO6" s="34"/>
+      <c r="DP6" s="34"/>
+      <c r="DQ6" s="34"/>
+      <c r="DR6" s="34"/>
+      <c r="DS6" s="34"/>
+      <c r="DT6" s="34"/>
+      <c r="DU6" s="34"/>
+      <c r="DV6" s="34"/>
+      <c r="DW6" s="34"/>
+      <c r="DX6" s="34"/>
+      <c r="DY6" s="34"/>
+      <c r="DZ6" s="34"/>
+      <c r="EA6" s="34"/>
+      <c r="EB6" s="34"/>
+      <c r="EC6" s="34"/>
+      <c r="ED6" s="34"/>
+      <c r="EE6" s="34"/>
+      <c r="EF6" s="34"/>
+      <c r="EG6" s="34"/>
+      <c r="EH6" s="34"/>
+      <c r="EI6" s="34"/>
+      <c r="EJ6" s="34"/>
+      <c r="EK6" s="34"/>
+      <c r="EL6" s="34"/>
+      <c r="EM6" s="34"/>
+      <c r="EN6" s="34"/>
+      <c r="EO6" s="34"/>
+      <c r="EP6" s="34"/>
+      <c r="EQ6" s="34"/>
+      <c r="ER6" s="34"/>
+      <c r="ES6" s="34"/>
+      <c r="ET6" s="34"/>
+      <c r="EU6" s="34"/>
+      <c r="EV6" s="34"/>
+      <c r="EW6" s="34"/>
+      <c r="EX6" s="34"/>
+      <c r="EY6" s="34"/>
+      <c r="EZ6" s="34"/>
+      <c r="FA6" s="34"/>
+      <c r="FB6" s="34"/>
+      <c r="FC6" s="34"/>
+      <c r="FD6" s="34"/>
+      <c r="FE6" s="34"/>
+      <c r="FF6" s="34"/>
+      <c r="FG6" s="34"/>
+      <c r="FH6" s="34"/>
+      <c r="FI6" s="34"/>
+      <c r="FJ6" s="34"/>
+      <c r="FK6" s="34"/>
+      <c r="FL6" s="34"/>
+      <c r="FM6" s="34"/>
+      <c r="FN6" s="34"/>
+      <c r="FO6" s="34"/>
+      <c r="FP6" s="34"/>
+      <c r="FQ6" s="34"/>
+      <c r="FR6" s="34"/>
+      <c r="FS6" s="34"/>
+      <c r="FT6" s="34"/>
+      <c r="FU6" s="34"/>
+      <c r="FV6" s="34"/>
+      <c r="FW6" s="34"/>
+      <c r="FX6" s="34"/>
+      <c r="FY6" s="34"/>
+      <c r="FZ6" s="34"/>
+      <c r="GA6" s="34"/>
+      <c r="GB6" s="34"/>
+      <c r="GC6" s="34"/>
+      <c r="GD6" s="34"/>
+      <c r="GE6" s="34"/>
+      <c r="GF6" s="34"/>
+      <c r="GG6" s="34"/>
+      <c r="GH6" s="34"/>
+      <c r="GI6" s="34"/>
+      <c r="GJ6" s="34"/>
+      <c r="GK6" s="34"/>
+      <c r="GL6" s="34"/>
+      <c r="GM6" s="34"/>
+      <c r="GN6" s="34"/>
+      <c r="GO6" s="34"/>
+      <c r="GP6" s="34"/>
+      <c r="GQ6" s="34"/>
+      <c r="GR6" s="34"/>
+      <c r="GS6" s="34"/>
+      <c r="GT6" s="34"/>
+      <c r="GU6" s="34"/>
+      <c r="GV6" s="34"/>
+      <c r="GW6" s="34"/>
+      <c r="GX6" s="34"/>
+      <c r="GY6" s="34"/>
+      <c r="GZ6" s="34"/>
+      <c r="HA6" s="34"/>
+      <c r="HB6" s="34"/>
+      <c r="HC6" s="34"/>
+      <c r="HD6" s="34"/>
+      <c r="HE6" s="34"/>
+      <c r="HF6" s="34"/>
+      <c r="HG6" s="34"/>
+      <c r="HH6" s="34"/>
+      <c r="HI6" s="34"/>
+      <c r="HJ6" s="34"/>
+      <c r="HK6" s="34"/>
+      <c r="HL6" s="34"/>
+      <c r="HM6" s="34"/>
+      <c r="HN6" s="34"/>
+      <c r="HO6" s="34"/>
+      <c r="HP6" s="34"/>
+      <c r="HQ6" s="34"/>
+      <c r="HR6" s="34"/>
+      <c r="HS6" s="34"/>
+      <c r="HT6" s="34"/>
+      <c r="HU6" s="34"/>
+      <c r="HV6" s="34"/>
+      <c r="HW6" s="34"/>
+      <c r="HX6" s="34"/>
+      <c r="HY6" s="34"/>
+      <c r="HZ6" s="34"/>
+      <c r="IA6" s="34"/>
+      <c r="IB6" s="34"/>
+      <c r="IC6" s="34"/>
+      <c r="ID6" s="34"/>
+      <c r="IE6" s="34"/>
+      <c r="IF6" s="34"/>
+      <c r="IG6" s="34"/>
+      <c r="IH6" s="34"/>
+      <c r="II6" s="34"/>
+      <c r="IJ6" s="34"/>
+      <c r="IK6" s="34"/>
+      <c r="IL6" s="34"/>
+      <c r="IM6" s="34"/>
+      <c r="IN6" s="34"/>
+      <c r="IO6" s="34"/>
+      <c r="IP6" s="34"/>
+    </row>
+    <row r="7" spans="1:250" s="35" customFormat="1" ht="157.5" customHeight="1">
+      <c r="A7" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="34"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="34"/>
+      <c r="AO7" s="34"/>
+      <c r="AP7" s="34"/>
+      <c r="AQ7" s="34"/>
+      <c r="AR7" s="34"/>
+      <c r="AS7" s="34"/>
+      <c r="AT7" s="34"/>
+      <c r="AU7" s="34"/>
+      <c r="AV7" s="34"/>
+      <c r="AW7" s="34"/>
+      <c r="AX7" s="34"/>
+      <c r="AY7" s="34"/>
+      <c r="AZ7" s="34"/>
+      <c r="BA7" s="34"/>
+      <c r="BB7" s="34"/>
+      <c r="BC7" s="34"/>
+      <c r="BD7" s="34"/>
+      <c r="BE7" s="34"/>
+      <c r="BF7" s="34"/>
+      <c r="BG7" s="34"/>
+      <c r="BH7" s="34"/>
+      <c r="BI7" s="34"/>
+      <c r="BJ7" s="34"/>
+      <c r="BK7" s="34"/>
+      <c r="BL7" s="34"/>
+      <c r="BM7" s="34"/>
+      <c r="BN7" s="34"/>
+      <c r="BO7" s="34"/>
+      <c r="BP7" s="34"/>
+      <c r="BQ7" s="34"/>
+      <c r="BR7" s="34"/>
+      <c r="BS7" s="34"/>
+      <c r="BT7" s="34"/>
+      <c r="BU7" s="34"/>
+      <c r="BV7" s="34"/>
+      <c r="BW7" s="34"/>
+      <c r="BX7" s="34"/>
+      <c r="BY7" s="34"/>
+      <c r="BZ7" s="34"/>
+      <c r="CA7" s="34"/>
+      <c r="CB7" s="34"/>
+      <c r="CC7" s="34"/>
+      <c r="CD7" s="34"/>
+      <c r="CE7" s="34"/>
+      <c r="CF7" s="34"/>
+      <c r="CG7" s="34"/>
+      <c r="CH7" s="34"/>
+      <c r="CI7" s="34"/>
+      <c r="CJ7" s="34"/>
+      <c r="CK7" s="34"/>
+      <c r="CL7" s="34"/>
+      <c r="CM7" s="34"/>
+      <c r="CN7" s="34"/>
+      <c r="CO7" s="34"/>
+      <c r="CP7" s="34"/>
+      <c r="CQ7" s="34"/>
+      <c r="CR7" s="34"/>
+      <c r="CS7" s="34"/>
+      <c r="CT7" s="34"/>
+      <c r="CU7" s="34"/>
+      <c r="CV7" s="34"/>
+      <c r="CW7" s="34"/>
+      <c r="CX7" s="34"/>
+      <c r="CY7" s="34"/>
+      <c r="CZ7" s="34"/>
+      <c r="DA7" s="34"/>
+      <c r="DB7" s="34"/>
+      <c r="DC7" s="34"/>
+      <c r="DD7" s="34"/>
+      <c r="DE7" s="34"/>
+      <c r="DF7" s="34"/>
+      <c r="DG7" s="34"/>
+      <c r="DH7" s="34"/>
+      <c r="DI7" s="34"/>
+      <c r="DJ7" s="34"/>
+      <c r="DK7" s="34"/>
+      <c r="DL7" s="34"/>
+      <c r="DM7" s="34"/>
+      <c r="DN7" s="34"/>
+      <c r="DO7" s="34"/>
+      <c r="DP7" s="34"/>
+      <c r="DQ7" s="34"/>
+      <c r="DR7" s="34"/>
+      <c r="DS7" s="34"/>
+      <c r="DT7" s="34"/>
+      <c r="DU7" s="34"/>
+      <c r="DV7" s="34"/>
+      <c r="DW7" s="34"/>
+      <c r="DX7" s="34"/>
+      <c r="DY7" s="34"/>
+      <c r="DZ7" s="34"/>
+      <c r="EA7" s="34"/>
+      <c r="EB7" s="34"/>
+      <c r="EC7" s="34"/>
+      <c r="ED7" s="34"/>
+      <c r="EE7" s="34"/>
+      <c r="EF7" s="34"/>
+      <c r="EG7" s="34"/>
+      <c r="EH7" s="34"/>
+      <c r="EI7" s="34"/>
+      <c r="EJ7" s="34"/>
+      <c r="EK7" s="34"/>
+      <c r="EL7" s="34"/>
+      <c r="EM7" s="34"/>
+      <c r="EN7" s="34"/>
+      <c r="EO7" s="34"/>
+      <c r="EP7" s="34"/>
+      <c r="EQ7" s="34"/>
+      <c r="ER7" s="34"/>
+      <c r="ES7" s="34"/>
+      <c r="ET7" s="34"/>
+      <c r="EU7" s="34"/>
+      <c r="EV7" s="34"/>
+      <c r="EW7" s="34"/>
+      <c r="EX7" s="34"/>
+      <c r="EY7" s="34"/>
+      <c r="EZ7" s="34"/>
+      <c r="FA7" s="34"/>
+      <c r="FB7" s="34"/>
+      <c r="FC7" s="34"/>
+      <c r="FD7" s="34"/>
+      <c r="FE7" s="34"/>
+      <c r="FF7" s="34"/>
+      <c r="FG7" s="34"/>
+      <c r="FH7" s="34"/>
+      <c r="FI7" s="34"/>
+      <c r="FJ7" s="34"/>
+      <c r="FK7" s="34"/>
+      <c r="FL7" s="34"/>
+      <c r="FM7" s="34"/>
+      <c r="FN7" s="34"/>
+      <c r="FO7" s="34"/>
+      <c r="FP7" s="34"/>
+      <c r="FQ7" s="34"/>
+      <c r="FR7" s="34"/>
+      <c r="FS7" s="34"/>
+      <c r="FT7" s="34"/>
+      <c r="FU7" s="34"/>
+      <c r="FV7" s="34"/>
+      <c r="FW7" s="34"/>
+      <c r="FX7" s="34"/>
+      <c r="FY7" s="34"/>
+      <c r="FZ7" s="34"/>
+      <c r="GA7" s="34"/>
+      <c r="GB7" s="34"/>
+      <c r="GC7" s="34"/>
+      <c r="GD7" s="34"/>
+      <c r="GE7" s="34"/>
+      <c r="GF7" s="34"/>
+      <c r="GG7" s="34"/>
+      <c r="GH7" s="34"/>
+      <c r="GI7" s="34"/>
+      <c r="GJ7" s="34"/>
+      <c r="GK7" s="34"/>
+      <c r="GL7" s="34"/>
+      <c r="GM7" s="34"/>
+      <c r="GN7" s="34"/>
+      <c r="GO7" s="34"/>
+      <c r="GP7" s="34"/>
+      <c r="GQ7" s="34"/>
+      <c r="GR7" s="34"/>
+      <c r="GS7" s="34"/>
+      <c r="GT7" s="34"/>
+      <c r="GU7" s="34"/>
+      <c r="GV7" s="34"/>
+      <c r="GW7" s="34"/>
+      <c r="GX7" s="34"/>
+      <c r="GY7" s="34"/>
+      <c r="GZ7" s="34"/>
+      <c r="HA7" s="34"/>
+      <c r="HB7" s="34"/>
+      <c r="HC7" s="34"/>
+      <c r="HD7" s="34"/>
+      <c r="HE7" s="34"/>
+      <c r="HF7" s="34"/>
+      <c r="HG7" s="34"/>
+      <c r="HH7" s="34"/>
+      <c r="HI7" s="34"/>
+      <c r="HJ7" s="34"/>
+      <c r="HK7" s="34"/>
+      <c r="HL7" s="34"/>
+      <c r="HM7" s="34"/>
+      <c r="HN7" s="34"/>
+      <c r="HO7" s="34"/>
+      <c r="HP7" s="34"/>
+      <c r="HQ7" s="34"/>
+      <c r="HR7" s="34"/>
+      <c r="HS7" s="34"/>
+      <c r="HT7" s="34"/>
+      <c r="HU7" s="34"/>
+      <c r="HV7" s="34"/>
+      <c r="HW7" s="34"/>
+      <c r="HX7" s="34"/>
+      <c r="HY7" s="34"/>
+      <c r="HZ7" s="34"/>
+      <c r="IA7" s="34"/>
+      <c r="IB7" s="34"/>
+      <c r="IC7" s="34"/>
+      <c r="ID7" s="34"/>
+      <c r="IE7" s="34"/>
+      <c r="IF7" s="34"/>
+      <c r="IG7" s="34"/>
+      <c r="IH7" s="34"/>
+      <c r="II7" s="34"/>
+      <c r="IJ7" s="34"/>
+      <c r="IK7" s="34"/>
+      <c r="IL7" s="34"/>
+      <c r="IM7" s="34"/>
+      <c r="IN7" s="34"/>
+      <c r="IO7" s="34"/>
+      <c r="IP7" s="34"/>
+    </row>
+    <row r="8" spans="1:250" s="35" customFormat="1" ht="145.5" customHeight="1">
+      <c r="A8" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="34"/>
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="34"/>
+      <c r="AO8" s="34"/>
+      <c r="AP8" s="34"/>
+      <c r="AQ8" s="34"/>
+      <c r="AR8" s="34"/>
+      <c r="AS8" s="34"/>
+      <c r="AT8" s="34"/>
+      <c r="AU8" s="34"/>
+      <c r="AV8" s="34"/>
+      <c r="AW8" s="34"/>
+      <c r="AX8" s="34"/>
+      <c r="AY8" s="34"/>
+      <c r="AZ8" s="34"/>
+      <c r="BA8" s="34"/>
+      <c r="BB8" s="34"/>
+      <c r="BC8" s="34"/>
+      <c r="BD8" s="34"/>
+      <c r="BE8" s="34"/>
+      <c r="BF8" s="34"/>
+      <c r="BG8" s="34"/>
+      <c r="BH8" s="34"/>
+      <c r="BI8" s="34"/>
+      <c r="BJ8" s="34"/>
+      <c r="BK8" s="34"/>
+      <c r="BL8" s="34"/>
+      <c r="BM8" s="34"/>
+      <c r="BN8" s="34"/>
+      <c r="BO8" s="34"/>
+      <c r="BP8" s="34"/>
+      <c r="BQ8" s="34"/>
+      <c r="BR8" s="34"/>
+      <c r="BS8" s="34"/>
+      <c r="BT8" s="34"/>
+      <c r="BU8" s="34"/>
+      <c r="BV8" s="34"/>
+      <c r="BW8" s="34"/>
+      <c r="BX8" s="34"/>
+      <c r="BY8" s="34"/>
+      <c r="BZ8" s="34"/>
+      <c r="CA8" s="34"/>
+      <c r="CB8" s="34"/>
+      <c r="CC8" s="34"/>
+      <c r="CD8" s="34"/>
+      <c r="CE8" s="34"/>
+      <c r="CF8" s="34"/>
+      <c r="CG8" s="34"/>
+      <c r="CH8" s="34"/>
+      <c r="CI8" s="34"/>
+      <c r="CJ8" s="34"/>
+      <c r="CK8" s="34"/>
+      <c r="CL8" s="34"/>
+      <c r="CM8" s="34"/>
+      <c r="CN8" s="34"/>
+      <c r="CO8" s="34"/>
+      <c r="CP8" s="34"/>
+      <c r="CQ8" s="34"/>
+      <c r="CR8" s="34"/>
+      <c r="CS8" s="34"/>
+      <c r="CT8" s="34"/>
+      <c r="CU8" s="34"/>
+      <c r="CV8" s="34"/>
+      <c r="CW8" s="34"/>
+      <c r="CX8" s="34"/>
+      <c r="CY8" s="34"/>
+      <c r="CZ8" s="34"/>
+      <c r="DA8" s="34"/>
+      <c r="DB8" s="34"/>
+      <c r="DC8" s="34"/>
+      <c r="DD8" s="34"/>
+      <c r="DE8" s="34"/>
+      <c r="DF8" s="34"/>
+      <c r="DG8" s="34"/>
+      <c r="DH8" s="34"/>
+      <c r="DI8" s="34"/>
+      <c r="DJ8" s="34"/>
+      <c r="DK8" s="34"/>
+      <c r="DL8" s="34"/>
+      <c r="DM8" s="34"/>
+      <c r="DN8" s="34"/>
+      <c r="DO8" s="34"/>
+      <c r="DP8" s="34"/>
+      <c r="DQ8" s="34"/>
+      <c r="DR8" s="34"/>
+      <c r="DS8" s="34"/>
+      <c r="DT8" s="34"/>
+      <c r="DU8" s="34"/>
+      <c r="DV8" s="34"/>
+      <c r="DW8" s="34"/>
+      <c r="DX8" s="34"/>
+      <c r="DY8" s="34"/>
+      <c r="DZ8" s="34"/>
+      <c r="EA8" s="34"/>
+      <c r="EB8" s="34"/>
+      <c r="EC8" s="34"/>
+      <c r="ED8" s="34"/>
+      <c r="EE8" s="34"/>
+      <c r="EF8" s="34"/>
+      <c r="EG8" s="34"/>
+      <c r="EH8" s="34"/>
+      <c r="EI8" s="34"/>
+      <c r="EJ8" s="34"/>
+      <c r="EK8" s="34"/>
+      <c r="EL8" s="34"/>
+      <c r="EM8" s="34"/>
+      <c r="EN8" s="34"/>
+      <c r="EO8" s="34"/>
+      <c r="EP8" s="34"/>
+      <c r="EQ8" s="34"/>
+      <c r="ER8" s="34"/>
+      <c r="ES8" s="34"/>
+      <c r="ET8" s="34"/>
+      <c r="EU8" s="34"/>
+      <c r="EV8" s="34"/>
+      <c r="EW8" s="34"/>
+      <c r="EX8" s="34"/>
+      <c r="EY8" s="34"/>
+      <c r="EZ8" s="34"/>
+      <c r="FA8" s="34"/>
+      <c r="FB8" s="34"/>
+      <c r="FC8" s="34"/>
+      <c r="FD8" s="34"/>
+      <c r="FE8" s="34"/>
+      <c r="FF8" s="34"/>
+      <c r="FG8" s="34"/>
+      <c r="FH8" s="34"/>
+      <c r="FI8" s="34"/>
+      <c r="FJ8" s="34"/>
+      <c r="FK8" s="34"/>
+      <c r="FL8" s="34"/>
+      <c r="FM8" s="34"/>
+      <c r="FN8" s="34"/>
+      <c r="FO8" s="34"/>
+      <c r="FP8" s="34"/>
+      <c r="FQ8" s="34"/>
+      <c r="FR8" s="34"/>
+      <c r="FS8" s="34"/>
+      <c r="FT8" s="34"/>
+      <c r="FU8" s="34"/>
+      <c r="FV8" s="34"/>
+      <c r="FW8" s="34"/>
+      <c r="FX8" s="34"/>
+      <c r="FY8" s="34"/>
+      <c r="FZ8" s="34"/>
+      <c r="GA8" s="34"/>
+      <c r="GB8" s="34"/>
+      <c r="GC8" s="34"/>
+      <c r="GD8" s="34"/>
+      <c r="GE8" s="34"/>
+      <c r="GF8" s="34"/>
+      <c r="GG8" s="34"/>
+      <c r="GH8" s="34"/>
+      <c r="GI8" s="34"/>
+      <c r="GJ8" s="34"/>
+      <c r="GK8" s="34"/>
+      <c r="GL8" s="34"/>
+      <c r="GM8" s="34"/>
+      <c r="GN8" s="34"/>
+      <c r="GO8" s="34"/>
+      <c r="GP8" s="34"/>
+      <c r="GQ8" s="34"/>
+      <c r="GR8" s="34"/>
+      <c r="GS8" s="34"/>
+      <c r="GT8" s="34"/>
+      <c r="GU8" s="34"/>
+      <c r="GV8" s="34"/>
+      <c r="GW8" s="34"/>
+      <c r="GX8" s="34"/>
+      <c r="GY8" s="34"/>
+      <c r="GZ8" s="34"/>
+      <c r="HA8" s="34"/>
+      <c r="HB8" s="34"/>
+      <c r="HC8" s="34"/>
+      <c r="HD8" s="34"/>
+      <c r="HE8" s="34"/>
+      <c r="HF8" s="34"/>
+      <c r="HG8" s="34"/>
+      <c r="HH8" s="34"/>
+      <c r="HI8" s="34"/>
+      <c r="HJ8" s="34"/>
+      <c r="HK8" s="34"/>
+      <c r="HL8" s="34"/>
+      <c r="HM8" s="34"/>
+      <c r="HN8" s="34"/>
+      <c r="HO8" s="34"/>
+      <c r="HP8" s="34"/>
+      <c r="HQ8" s="34"/>
+      <c r="HR8" s="34"/>
+      <c r="HS8" s="34"/>
+      <c r="HT8" s="34"/>
+      <c r="HU8" s="34"/>
+      <c r="HV8" s="34"/>
+      <c r="HW8" s="34"/>
+      <c r="HX8" s="34"/>
+      <c r="HY8" s="34"/>
+      <c r="HZ8" s="34"/>
+      <c r="IA8" s="34"/>
+      <c r="IB8" s="34"/>
+      <c r="IC8" s="34"/>
+      <c r="ID8" s="34"/>
+      <c r="IE8" s="34"/>
+      <c r="IF8" s="34"/>
+      <c r="IG8" s="34"/>
+      <c r="IH8" s="34"/>
+      <c r="II8" s="34"/>
+      <c r="IJ8" s="34"/>
+      <c r="IK8" s="34"/>
+      <c r="IL8" s="34"/>
+      <c r="IM8" s="34"/>
+      <c r="IN8" s="34"/>
+      <c r="IO8" s="34"/>
+      <c r="IP8" s="34"/>
+    </row>
+    <row r="9" spans="1:250" s="35" customFormat="1" ht="134.25" customHeight="1">
+      <c r="A9" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="34"/>
+      <c r="AO9" s="34"/>
+      <c r="AP9" s="34"/>
+      <c r="AQ9" s="34"/>
+      <c r="AR9" s="34"/>
+      <c r="AS9" s="34"/>
+      <c r="AT9" s="34"/>
+      <c r="AU9" s="34"/>
+      <c r="AV9" s="34"/>
+      <c r="AW9" s="34"/>
+      <c r="AX9" s="34"/>
+      <c r="AY9" s="34"/>
+      <c r="AZ9" s="34"/>
+      <c r="BA9" s="34"/>
+      <c r="BB9" s="34"/>
+      <c r="BC9" s="34"/>
+      <c r="BD9" s="34"/>
+      <c r="BE9" s="34"/>
+      <c r="BF9" s="34"/>
+      <c r="BG9" s="34"/>
+      <c r="BH9" s="34"/>
+      <c r="BI9" s="34"/>
+      <c r="BJ9" s="34"/>
+      <c r="BK9" s="34"/>
+      <c r="BL9" s="34"/>
+      <c r="BM9" s="34"/>
+      <c r="BN9" s="34"/>
+      <c r="BO9" s="34"/>
+      <c r="BP9" s="34"/>
+      <c r="BQ9" s="34"/>
+      <c r="BR9" s="34"/>
+      <c r="BS9" s="34"/>
+      <c r="BT9" s="34"/>
+      <c r="BU9" s="34"/>
+      <c r="BV9" s="34"/>
+      <c r="BW9" s="34"/>
+      <c r="BX9" s="34"/>
+      <c r="BY9" s="34"/>
+      <c r="BZ9" s="34"/>
+      <c r="CA9" s="34"/>
+      <c r="CB9" s="34"/>
+      <c r="CC9" s="34"/>
+      <c r="CD9" s="34"/>
+      <c r="CE9" s="34"/>
+      <c r="CF9" s="34"/>
+      <c r="CG9" s="34"/>
+      <c r="CH9" s="34"/>
+      <c r="CI9" s="34"/>
+      <c r="CJ9" s="34"/>
+      <c r="CK9" s="34"/>
+      <c r="CL9" s="34"/>
+      <c r="CM9" s="34"/>
+      <c r="CN9" s="34"/>
+      <c r="CO9" s="34"/>
+      <c r="CP9" s="34"/>
+      <c r="CQ9" s="34"/>
+      <c r="CR9" s="34"/>
+      <c r="CS9" s="34"/>
+      <c r="CT9" s="34"/>
+      <c r="CU9" s="34"/>
+      <c r="CV9" s="34"/>
+      <c r="CW9" s="34"/>
+      <c r="CX9" s="34"/>
+      <c r="CY9" s="34"/>
+      <c r="CZ9" s="34"/>
+      <c r="DA9" s="34"/>
+      <c r="DB9" s="34"/>
+      <c r="DC9" s="34"/>
+      <c r="DD9" s="34"/>
+      <c r="DE9" s="34"/>
+      <c r="DF9" s="34"/>
+      <c r="DG9" s="34"/>
+      <c r="DH9" s="34"/>
+      <c r="DI9" s="34"/>
+      <c r="DJ9" s="34"/>
+      <c r="DK9" s="34"/>
+      <c r="DL9" s="34"/>
+      <c r="DM9" s="34"/>
+      <c r="DN9" s="34"/>
+      <c r="DO9" s="34"/>
+      <c r="DP9" s="34"/>
+      <c r="DQ9" s="34"/>
+      <c r="DR9" s="34"/>
+      <c r="DS9" s="34"/>
+      <c r="DT9" s="34"/>
+      <c r="DU9" s="34"/>
+      <c r="DV9" s="34"/>
+      <c r="DW9" s="34"/>
+      <c r="DX9" s="34"/>
+      <c r="DY9" s="34"/>
+      <c r="DZ9" s="34"/>
+      <c r="EA9" s="34"/>
+      <c r="EB9" s="34"/>
+      <c r="EC9" s="34"/>
+      <c r="ED9" s="34"/>
+      <c r="EE9" s="34"/>
+      <c r="EF9" s="34"/>
+      <c r="EG9" s="34"/>
+      <c r="EH9" s="34"/>
+      <c r="EI9" s="34"/>
+      <c r="EJ9" s="34"/>
+      <c r="EK9" s="34"/>
+      <c r="EL9" s="34"/>
+      <c r="EM9" s="34"/>
+      <c r="EN9" s="34"/>
+      <c r="EO9" s="34"/>
+      <c r="EP9" s="34"/>
+      <c r="EQ9" s="34"/>
+      <c r="ER9" s="34"/>
+      <c r="ES9" s="34"/>
+      <c r="ET9" s="34"/>
+      <c r="EU9" s="34"/>
+      <c r="EV9" s="34"/>
+      <c r="EW9" s="34"/>
+      <c r="EX9" s="34"/>
+      <c r="EY9" s="34"/>
+      <c r="EZ9" s="34"/>
+      <c r="FA9" s="34"/>
+      <c r="FB9" s="34"/>
+      <c r="FC9" s="34"/>
+      <c r="FD9" s="34"/>
+      <c r="FE9" s="34"/>
+      <c r="FF9" s="34"/>
+      <c r="FG9" s="34"/>
+      <c r="FH9" s="34"/>
+      <c r="FI9" s="34"/>
+      <c r="FJ9" s="34"/>
+      <c r="FK9" s="34"/>
+      <c r="FL9" s="34"/>
+      <c r="FM9" s="34"/>
+      <c r="FN9" s="34"/>
+      <c r="FO9" s="34"/>
+      <c r="FP9" s="34"/>
+      <c r="FQ9" s="34"/>
+      <c r="FR9" s="34"/>
+      <c r="FS9" s="34"/>
+      <c r="FT9" s="34"/>
+      <c r="FU9" s="34"/>
+      <c r="FV9" s="34"/>
+      <c r="FW9" s="34"/>
+      <c r="FX9" s="34"/>
+      <c r="FY9" s="34"/>
+      <c r="FZ9" s="34"/>
+      <c r="GA9" s="34"/>
+      <c r="GB9" s="34"/>
+      <c r="GC9" s="34"/>
+      <c r="GD9" s="34"/>
+      <c r="GE9" s="34"/>
+      <c r="GF9" s="34"/>
+      <c r="GG9" s="34"/>
+      <c r="GH9" s="34"/>
+      <c r="GI9" s="34"/>
+      <c r="GJ9" s="34"/>
+      <c r="GK9" s="34"/>
+      <c r="GL9" s="34"/>
+      <c r="GM9" s="34"/>
+      <c r="GN9" s="34"/>
+      <c r="GO9" s="34"/>
+      <c r="GP9" s="34"/>
+      <c r="GQ9" s="34"/>
+      <c r="GR9" s="34"/>
+      <c r="GS9" s="34"/>
+      <c r="GT9" s="34"/>
+      <c r="GU9" s="34"/>
+      <c r="GV9" s="34"/>
+      <c r="GW9" s="34"/>
+      <c r="GX9" s="34"/>
+      <c r="GY9" s="34"/>
+      <c r="GZ9" s="34"/>
+      <c r="HA9" s="34"/>
+      <c r="HB9" s="34"/>
+      <c r="HC9" s="34"/>
+      <c r="HD9" s="34"/>
+      <c r="HE9" s="34"/>
+      <c r="HF9" s="34"/>
+      <c r="HG9" s="34"/>
+      <c r="HH9" s="34"/>
+      <c r="HI9" s="34"/>
+      <c r="HJ9" s="34"/>
+      <c r="HK9" s="34"/>
+      <c r="HL9" s="34"/>
+      <c r="HM9" s="34"/>
+      <c r="HN9" s="34"/>
+      <c r="HO9" s="34"/>
+      <c r="HP9" s="34"/>
+      <c r="HQ9" s="34"/>
+      <c r="HR9" s="34"/>
+      <c r="HS9" s="34"/>
+      <c r="HT9" s="34"/>
+      <c r="HU9" s="34"/>
+      <c r="HV9" s="34"/>
+      <c r="HW9" s="34"/>
+      <c r="HX9" s="34"/>
+      <c r="HY9" s="34"/>
+      <c r="HZ9" s="34"/>
+      <c r="IA9" s="34"/>
+      <c r="IB9" s="34"/>
+      <c r="IC9" s="34"/>
+      <c r="ID9" s="34"/>
+      <c r="IE9" s="34"/>
+      <c r="IF9" s="34"/>
+      <c r="IG9" s="34"/>
+      <c r="IH9" s="34"/>
+      <c r="II9" s="34"/>
+      <c r="IJ9" s="34"/>
+      <c r="IK9" s="34"/>
+      <c r="IL9" s="34"/>
+      <c r="IM9" s="34"/>
+      <c r="IN9" s="34"/>
+      <c r="IO9" s="34"/>
+      <c r="IP9" s="34"/>
+    </row>
+    <row r="10" spans="1:250" s="29" customFormat="1" ht="103.5" customHeight="1">
+      <c r="A10" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="28"/>
+      <c r="AK10" s="28"/>
+      <c r="AL10" s="28"/>
+      <c r="AM10" s="28"/>
+      <c r="AN10" s="28"/>
+      <c r="AO10" s="28"/>
+      <c r="AP10" s="28"/>
+      <c r="AQ10" s="28"/>
+      <c r="AR10" s="28"/>
+      <c r="AS10" s="28"/>
+      <c r="AT10" s="28"/>
+      <c r="AU10" s="28"/>
+      <c r="AV10" s="28"/>
+      <c r="AW10" s="28"/>
+      <c r="AX10" s="28"/>
+      <c r="AY10" s="28"/>
+      <c r="AZ10" s="28"/>
+      <c r="BA10" s="28"/>
+      <c r="BB10" s="28"/>
+      <c r="BC10" s="28"/>
+      <c r="BD10" s="28"/>
+      <c r="BE10" s="28"/>
+      <c r="BF10" s="28"/>
+      <c r="BG10" s="28"/>
+      <c r="BH10" s="28"/>
+      <c r="BI10" s="28"/>
+      <c r="BJ10" s="28"/>
+      <c r="BK10" s="28"/>
+      <c r="BL10" s="28"/>
+      <c r="BM10" s="28"/>
+      <c r="BN10" s="28"/>
+      <c r="BO10" s="28"/>
+      <c r="BP10" s="28"/>
+      <c r="BQ10" s="28"/>
+      <c r="BR10" s="28"/>
+      <c r="BS10" s="28"/>
+      <c r="BT10" s="28"/>
+      <c r="BU10" s="28"/>
+      <c r="BV10" s="28"/>
+      <c r="BW10" s="28"/>
+      <c r="BX10" s="28"/>
+      <c r="BY10" s="28"/>
+      <c r="BZ10" s="28"/>
+      <c r="CA10" s="28"/>
+      <c r="CB10" s="28"/>
+      <c r="CC10" s="28"/>
+      <c r="CD10" s="28"/>
+      <c r="CE10" s="28"/>
+      <c r="CF10" s="28"/>
+      <c r="CG10" s="28"/>
+      <c r="CH10" s="28"/>
+      <c r="CI10" s="28"/>
+      <c r="CJ10" s="28"/>
+      <c r="CK10" s="28"/>
+      <c r="CL10" s="28"/>
+      <c r="CM10" s="28"/>
+      <c r="CN10" s="28"/>
+      <c r="CO10" s="28"/>
+      <c r="CP10" s="28"/>
+      <c r="CQ10" s="28"/>
+      <c r="CR10" s="28"/>
+      <c r="CS10" s="28"/>
+      <c r="CT10" s="28"/>
+      <c r="CU10" s="28"/>
+      <c r="CV10" s="28"/>
+      <c r="CW10" s="28"/>
+      <c r="CX10" s="28"/>
+      <c r="CY10" s="28"/>
+      <c r="CZ10" s="28"/>
+      <c r="DA10" s="28"/>
+      <c r="DB10" s="28"/>
+      <c r="DC10" s="28"/>
+      <c r="DD10" s="28"/>
+      <c r="DE10" s="28"/>
+      <c r="DF10" s="28"/>
+      <c r="DG10" s="28"/>
+      <c r="DH10" s="28"/>
+      <c r="DI10" s="28"/>
+      <c r="DJ10" s="28"/>
+      <c r="DK10" s="28"/>
+      <c r="DL10" s="28"/>
+      <c r="DM10" s="28"/>
+      <c r="DN10" s="28"/>
+      <c r="DO10" s="28"/>
+      <c r="DP10" s="28"/>
+      <c r="DQ10" s="28"/>
+      <c r="DR10" s="28"/>
+      <c r="DS10" s="28"/>
+      <c r="DT10" s="28"/>
+      <c r="DU10" s="28"/>
+      <c r="DV10" s="28"/>
+      <c r="DW10" s="28"/>
+      <c r="DX10" s="28"/>
+      <c r="DY10" s="28"/>
+      <c r="DZ10" s="28"/>
+      <c r="EA10" s="28"/>
+      <c r="EB10" s="28"/>
+      <c r="EC10" s="28"/>
+      <c r="ED10" s="28"/>
+      <c r="EE10" s="28"/>
+      <c r="EF10" s="28"/>
+      <c r="EG10" s="28"/>
+      <c r="EH10" s="28"/>
+      <c r="EI10" s="28"/>
+      <c r="EJ10" s="28"/>
+      <c r="EK10" s="28"/>
+      <c r="EL10" s="28"/>
+      <c r="EM10" s="28"/>
+      <c r="EN10" s="28"/>
+      <c r="EO10" s="28"/>
+      <c r="EP10" s="28"/>
+      <c r="EQ10" s="28"/>
+      <c r="ER10" s="28"/>
+      <c r="ES10" s="28"/>
+      <c r="ET10" s="28"/>
+      <c r="EU10" s="28"/>
+      <c r="EV10" s="28"/>
+      <c r="EW10" s="28"/>
+      <c r="EX10" s="28"/>
+      <c r="EY10" s="28"/>
+      <c r="EZ10" s="28"/>
+      <c r="FA10" s="28"/>
+      <c r="FB10" s="28"/>
+      <c r="FC10" s="28"/>
+      <c r="FD10" s="28"/>
+      <c r="FE10" s="28"/>
+      <c r="FF10" s="28"/>
+      <c r="FG10" s="28"/>
+      <c r="FH10" s="28"/>
+      <c r="FI10" s="28"/>
+      <c r="FJ10" s="28"/>
+      <c r="FK10" s="28"/>
+      <c r="FL10" s="28"/>
+      <c r="FM10" s="28"/>
+      <c r="FN10" s="28"/>
+      <c r="FO10" s="28"/>
+      <c r="FP10" s="28"/>
+      <c r="FQ10" s="28"/>
+      <c r="FR10" s="28"/>
+      <c r="FS10" s="28"/>
+      <c r="FT10" s="28"/>
+      <c r="FU10" s="28"/>
+      <c r="FV10" s="28"/>
+      <c r="FW10" s="28"/>
+      <c r="FX10" s="28"/>
+      <c r="FY10" s="28"/>
+      <c r="FZ10" s="28"/>
+      <c r="GA10" s="28"/>
+      <c r="GB10" s="28"/>
+      <c r="GC10" s="28"/>
+      <c r="GD10" s="28"/>
+      <c r="GE10" s="28"/>
+      <c r="GF10" s="28"/>
+      <c r="GG10" s="28"/>
+      <c r="GH10" s="28"/>
+      <c r="GI10" s="28"/>
+      <c r="GJ10" s="28"/>
+      <c r="GK10" s="28"/>
+      <c r="GL10" s="28"/>
+      <c r="GM10" s="28"/>
+      <c r="GN10" s="28"/>
+      <c r="GO10" s="28"/>
+      <c r="GP10" s="28"/>
+      <c r="GQ10" s="28"/>
+      <c r="GR10" s="28"/>
+      <c r="GS10" s="28"/>
+      <c r="GT10" s="28"/>
+      <c r="GU10" s="28"/>
+      <c r="GV10" s="28"/>
+      <c r="GW10" s="28"/>
+      <c r="GX10" s="28"/>
+      <c r="GY10" s="28"/>
+      <c r="GZ10" s="28"/>
+      <c r="HA10" s="28"/>
+      <c r="HB10" s="28"/>
+      <c r="HC10" s="28"/>
+      <c r="HD10" s="28"/>
+      <c r="HE10" s="28"/>
+      <c r="HF10" s="28"/>
+      <c r="HG10" s="28"/>
+      <c r="HH10" s="28"/>
+      <c r="HI10" s="28"/>
+      <c r="HJ10" s="28"/>
+      <c r="HK10" s="28"/>
+      <c r="HL10" s="28"/>
+      <c r="HM10" s="28"/>
+      <c r="HN10" s="28"/>
+      <c r="HO10" s="28"/>
+      <c r="HP10" s="28"/>
+      <c r="HQ10" s="28"/>
+      <c r="HR10" s="28"/>
+      <c r="HS10" s="28"/>
+      <c r="HT10" s="28"/>
+      <c r="HU10" s="28"/>
+      <c r="HV10" s="28"/>
+      <c r="HW10" s="28"/>
+      <c r="HX10" s="28"/>
+      <c r="HY10" s="28"/>
+      <c r="HZ10" s="28"/>
+      <c r="IA10" s="28"/>
+      <c r="IB10" s="28"/>
+      <c r="IC10" s="28"/>
+      <c r="ID10" s="28"/>
+      <c r="IE10" s="28"/>
+      <c r="IF10" s="28"/>
+      <c r="IG10" s="28"/>
+      <c r="IH10" s="28"/>
+      <c r="II10" s="28"/>
+      <c r="IJ10" s="28"/>
+      <c r="IK10" s="28"/>
+      <c r="IL10" s="28"/>
+      <c r="IM10" s="28"/>
+      <c r="IN10" s="28"/>
+      <c r="IO10" s="28"/>
+      <c r="IP10" s="28"/>
+    </row>
+    <row r="11" spans="1:250" s="29" customFormat="1" ht="129" customHeight="1">
+      <c r="A11" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="28"/>
+      <c r="AK11" s="28"/>
+      <c r="AL11" s="28"/>
+      <c r="AM11" s="28"/>
+      <c r="AN11" s="28"/>
+      <c r="AO11" s="28"/>
+      <c r="AP11" s="28"/>
+      <c r="AQ11" s="28"/>
+      <c r="AR11" s="28"/>
+      <c r="AS11" s="28"/>
+      <c r="AT11" s="28"/>
+      <c r="AU11" s="28"/>
+      <c r="AV11" s="28"/>
+      <c r="AW11" s="28"/>
+      <c r="AX11" s="28"/>
+      <c r="AY11" s="28"/>
+      <c r="AZ11" s="28"/>
+      <c r="BA11" s="28"/>
+      <c r="BB11" s="28"/>
+      <c r="BC11" s="28"/>
+      <c r="BD11" s="28"/>
+      <c r="BE11" s="28"/>
+      <c r="BF11" s="28"/>
+      <c r="BG11" s="28"/>
+      <c r="BH11" s="28"/>
+      <c r="BI11" s="28"/>
+      <c r="BJ11" s="28"/>
+      <c r="BK11" s="28"/>
+      <c r="BL11" s="28"/>
+      <c r="BM11" s="28"/>
+      <c r="BN11" s="28"/>
+      <c r="BO11" s="28"/>
+      <c r="BP11" s="28"/>
+      <c r="BQ11" s="28"/>
+      <c r="BR11" s="28"/>
+      <c r="BS11" s="28"/>
+      <c r="BT11" s="28"/>
+      <c r="BU11" s="28"/>
+      <c r="BV11" s="28"/>
+      <c r="BW11" s="28"/>
+      <c r="BX11" s="28"/>
+      <c r="BY11" s="28"/>
+      <c r="BZ11" s="28"/>
+      <c r="CA11" s="28"/>
+      <c r="CB11" s="28"/>
+      <c r="CC11" s="28"/>
+      <c r="CD11" s="28"/>
+      <c r="CE11" s="28"/>
+      <c r="CF11" s="28"/>
+      <c r="CG11" s="28"/>
+      <c r="CH11" s="28"/>
+      <c r="CI11" s="28"/>
+      <c r="CJ11" s="28"/>
+      <c r="CK11" s="28"/>
+      <c r="CL11" s="28"/>
+      <c r="CM11" s="28"/>
+      <c r="CN11" s="28"/>
+      <c r="CO11" s="28"/>
+      <c r="CP11" s="28"/>
+      <c r="CQ11" s="28"/>
+      <c r="CR11" s="28"/>
+      <c r="CS11" s="28"/>
+      <c r="CT11" s="28"/>
+      <c r="CU11" s="28"/>
+      <c r="CV11" s="28"/>
+      <c r="CW11" s="28"/>
+      <c r="CX11" s="28"/>
+      <c r="CY11" s="28"/>
+      <c r="CZ11" s="28"/>
+      <c r="DA11" s="28"/>
+      <c r="DB11" s="28"/>
+      <c r="DC11" s="28"/>
+      <c r="DD11" s="28"/>
+      <c r="DE11" s="28"/>
+      <c r="DF11" s="28"/>
+      <c r="DG11" s="28"/>
+      <c r="DH11" s="28"/>
+      <c r="DI11" s="28"/>
+      <c r="DJ11" s="28"/>
+      <c r="DK11" s="28"/>
+      <c r="DL11" s="28"/>
+      <c r="DM11" s="28"/>
+      <c r="DN11" s="28"/>
+      <c r="DO11" s="28"/>
+      <c r="DP11" s="28"/>
+      <c r="DQ11" s="28"/>
+      <c r="DR11" s="28"/>
+      <c r="DS11" s="28"/>
+      <c r="DT11" s="28"/>
+      <c r="DU11" s="28"/>
+      <c r="DV11" s="28"/>
+      <c r="DW11" s="28"/>
+      <c r="DX11" s="28"/>
+      <c r="DY11" s="28"/>
+      <c r="DZ11" s="28"/>
+      <c r="EA11" s="28"/>
+      <c r="EB11" s="28"/>
+      <c r="EC11" s="28"/>
+      <c r="ED11" s="28"/>
+      <c r="EE11" s="28"/>
+      <c r="EF11" s="28"/>
+      <c r="EG11" s="28"/>
+      <c r="EH11" s="28"/>
+      <c r="EI11" s="28"/>
+      <c r="EJ11" s="28"/>
+      <c r="EK11" s="28"/>
+      <c r="EL11" s="28"/>
+      <c r="EM11" s="28"/>
+      <c r="EN11" s="28"/>
+      <c r="EO11" s="28"/>
+      <c r="EP11" s="28"/>
+      <c r="EQ11" s="28"/>
+      <c r="ER11" s="28"/>
+      <c r="ES11" s="28"/>
+      <c r="ET11" s="28"/>
+      <c r="EU11" s="28"/>
+      <c r="EV11" s="28"/>
+      <c r="EW11" s="28"/>
+      <c r="EX11" s="28"/>
+      <c r="EY11" s="28"/>
+      <c r="EZ11" s="28"/>
+      <c r="FA11" s="28"/>
+      <c r="FB11" s="28"/>
+      <c r="FC11" s="28"/>
+      <c r="FD11" s="28"/>
+      <c r="FE11" s="28"/>
+      <c r="FF11" s="28"/>
+      <c r="FG11" s="28"/>
+      <c r="FH11" s="28"/>
+      <c r="FI11" s="28"/>
+      <c r="FJ11" s="28"/>
+      <c r="FK11" s="28"/>
+      <c r="FL11" s="28"/>
+      <c r="FM11" s="28"/>
+      <c r="FN11" s="28"/>
+      <c r="FO11" s="28"/>
+      <c r="FP11" s="28"/>
+      <c r="FQ11" s="28"/>
+      <c r="FR11" s="28"/>
+      <c r="FS11" s="28"/>
+      <c r="FT11" s="28"/>
+      <c r="FU11" s="28"/>
+      <c r="FV11" s="28"/>
+      <c r="FW11" s="28"/>
+      <c r="FX11" s="28"/>
+      <c r="FY11" s="28"/>
+      <c r="FZ11" s="28"/>
+      <c r="GA11" s="28"/>
+      <c r="GB11" s="28"/>
+      <c r="GC11" s="28"/>
+      <c r="GD11" s="28"/>
+      <c r="GE11" s="28"/>
+      <c r="GF11" s="28"/>
+      <c r="GG11" s="28"/>
+      <c r="GH11" s="28"/>
+      <c r="GI11" s="28"/>
+      <c r="GJ11" s="28"/>
+      <c r="GK11" s="28"/>
+      <c r="GL11" s="28"/>
+      <c r="GM11" s="28"/>
+      <c r="GN11" s="28"/>
+      <c r="GO11" s="28"/>
+      <c r="GP11" s="28"/>
+      <c r="GQ11" s="28"/>
+      <c r="GR11" s="28"/>
+      <c r="GS11" s="28"/>
+      <c r="GT11" s="28"/>
+      <c r="GU11" s="28"/>
+      <c r="GV11" s="28"/>
+      <c r="GW11" s="28"/>
+      <c r="GX11" s="28"/>
+      <c r="GY11" s="28"/>
+      <c r="GZ11" s="28"/>
+      <c r="HA11" s="28"/>
+      <c r="HB11" s="28"/>
+      <c r="HC11" s="28"/>
+      <c r="HD11" s="28"/>
+      <c r="HE11" s="28"/>
+      <c r="HF11" s="28"/>
+      <c r="HG11" s="28"/>
+      <c r="HH11" s="28"/>
+      <c r="HI11" s="28"/>
+      <c r="HJ11" s="28"/>
+      <c r="HK11" s="28"/>
+      <c r="HL11" s="28"/>
+      <c r="HM11" s="28"/>
+      <c r="HN11" s="28"/>
+      <c r="HO11" s="28"/>
+      <c r="HP11" s="28"/>
+      <c r="HQ11" s="28"/>
+      <c r="HR11" s="28"/>
+      <c r="HS11" s="28"/>
+      <c r="HT11" s="28"/>
+      <c r="HU11" s="28"/>
+      <c r="HV11" s="28"/>
+      <c r="HW11" s="28"/>
+      <c r="HX11" s="28"/>
+      <c r="HY11" s="28"/>
+      <c r="HZ11" s="28"/>
+      <c r="IA11" s="28"/>
+      <c r="IB11" s="28"/>
+      <c r="IC11" s="28"/>
+      <c r="ID11" s="28"/>
+      <c r="IE11" s="28"/>
+      <c r="IF11" s="28"/>
+      <c r="IG11" s="28"/>
+      <c r="IH11" s="28"/>
+      <c r="II11" s="28"/>
+      <c r="IJ11" s="28"/>
+      <c r="IK11" s="28"/>
+      <c r="IL11" s="28"/>
+      <c r="IM11" s="28"/>
+      <c r="IN11" s="28"/>
+      <c r="IO11" s="28"/>
+      <c r="IP11" s="28"/>
+    </row>
+    <row r="12" spans="1:250" s="29" customFormat="1" ht="115.5" customHeight="1">
+      <c r="A12" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="28"/>
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="28"/>
+      <c r="AK12" s="28"/>
+      <c r="AL12" s="28"/>
+      <c r="AM12" s="28"/>
+      <c r="AN12" s="28"/>
+      <c r="AO12" s="28"/>
+      <c r="AP12" s="28"/>
+      <c r="AQ12" s="28"/>
+      <c r="AR12" s="28"/>
+      <c r="AS12" s="28"/>
+      <c r="AT12" s="28"/>
+      <c r="AU12" s="28"/>
+      <c r="AV12" s="28"/>
+      <c r="AW12" s="28"/>
+      <c r="AX12" s="28"/>
+      <c r="AY12" s="28"/>
+      <c r="AZ12" s="28"/>
+      <c r="BA12" s="28"/>
+      <c r="BB12" s="28"/>
+      <c r="BC12" s="28"/>
+      <c r="BD12" s="28"/>
+      <c r="BE12" s="28"/>
+      <c r="BF12" s="28"/>
+      <c r="BG12" s="28"/>
+      <c r="BH12" s="28"/>
+      <c r="BI12" s="28"/>
+      <c r="BJ12" s="28"/>
+      <c r="BK12" s="28"/>
+      <c r="BL12" s="28"/>
+      <c r="BM12" s="28"/>
+      <c r="BN12" s="28"/>
+      <c r="BO12" s="28"/>
+      <c r="BP12" s="28"/>
+      <c r="BQ12" s="28"/>
+      <c r="BR12" s="28"/>
+      <c r="BS12" s="28"/>
+      <c r="BT12" s="28"/>
+      <c r="BU12" s="28"/>
+      <c r="BV12" s="28"/>
+      <c r="BW12" s="28"/>
+      <c r="BX12" s="28"/>
+      <c r="BY12" s="28"/>
+      <c r="BZ12" s="28"/>
+      <c r="CA12" s="28"/>
+      <c r="CB12" s="28"/>
+      <c r="CC12" s="28"/>
+      <c r="CD12" s="28"/>
+      <c r="CE12" s="28"/>
+      <c r="CF12" s="28"/>
+      <c r="CG12" s="28"/>
+      <c r="CH12" s="28"/>
+      <c r="CI12" s="28"/>
+      <c r="CJ12" s="28"/>
+      <c r="CK12" s="28"/>
+      <c r="CL12" s="28"/>
+      <c r="CM12" s="28"/>
+      <c r="CN12" s="28"/>
+      <c r="CO12" s="28"/>
+      <c r="CP12" s="28"/>
+      <c r="CQ12" s="28"/>
+      <c r="CR12" s="28"/>
+      <c r="CS12" s="28"/>
+      <c r="CT12" s="28"/>
+      <c r="CU12" s="28"/>
+      <c r="CV12" s="28"/>
+      <c r="CW12" s="28"/>
+      <c r="CX12" s="28"/>
+      <c r="CY12" s="28"/>
+      <c r="CZ12" s="28"/>
+      <c r="DA12" s="28"/>
+      <c r="DB12" s="28"/>
+      <c r="DC12" s="28"/>
+      <c r="DD12" s="28"/>
+      <c r="DE12" s="28"/>
+      <c r="DF12" s="28"/>
+      <c r="DG12" s="28"/>
+      <c r="DH12" s="28"/>
+      <c r="DI12" s="28"/>
+      <c r="DJ12" s="28"/>
+      <c r="DK12" s="28"/>
+      <c r="DL12" s="28"/>
+      <c r="DM12" s="28"/>
+      <c r="DN12" s="28"/>
+      <c r="DO12" s="28"/>
+      <c r="DP12" s="28"/>
+      <c r="DQ12" s="28"/>
+      <c r="DR12" s="28"/>
+      <c r="DS12" s="28"/>
+      <c r="DT12" s="28"/>
+      <c r="DU12" s="28"/>
+      <c r="DV12" s="28"/>
+      <c r="DW12" s="28"/>
+      <c r="DX12" s="28"/>
+      <c r="DY12" s="28"/>
+      <c r="DZ12" s="28"/>
+      <c r="EA12" s="28"/>
+      <c r="EB12" s="28"/>
+      <c r="EC12" s="28"/>
+      <c r="ED12" s="28"/>
+      <c r="EE12" s="28"/>
+      <c r="EF12" s="28"/>
+      <c r="EG12" s="28"/>
+      <c r="EH12" s="28"/>
+      <c r="EI12" s="28"/>
+      <c r="EJ12" s="28"/>
+      <c r="EK12" s="28"/>
+      <c r="EL12" s="28"/>
+      <c r="EM12" s="28"/>
+      <c r="EN12" s="28"/>
+      <c r="EO12" s="28"/>
+      <c r="EP12" s="28"/>
+      <c r="EQ12" s="28"/>
+      <c r="ER12" s="28"/>
+      <c r="ES12" s="28"/>
+      <c r="ET12" s="28"/>
+      <c r="EU12" s="28"/>
+      <c r="EV12" s="28"/>
+      <c r="EW12" s="28"/>
+      <c r="EX12" s="28"/>
+      <c r="EY12" s="28"/>
+      <c r="EZ12" s="28"/>
+      <c r="FA12" s="28"/>
+      <c r="FB12" s="28"/>
+      <c r="FC12" s="28"/>
+      <c r="FD12" s="28"/>
+      <c r="FE12" s="28"/>
+      <c r="FF12" s="28"/>
+      <c r="FG12" s="28"/>
+      <c r="FH12" s="28"/>
+      <c r="FI12" s="28"/>
+      <c r="FJ12" s="28"/>
+      <c r="FK12" s="28"/>
+      <c r="FL12" s="28"/>
+      <c r="FM12" s="28"/>
+      <c r="FN12" s="28"/>
+      <c r="FO12" s="28"/>
+      <c r="FP12" s="28"/>
+      <c r="FQ12" s="28"/>
+      <c r="FR12" s="28"/>
+      <c r="FS12" s="28"/>
+      <c r="FT12" s="28"/>
+      <c r="FU12" s="28"/>
+      <c r="FV12" s="28"/>
+      <c r="FW12" s="28"/>
+      <c r="FX12" s="28"/>
+      <c r="FY12" s="28"/>
+      <c r="FZ12" s="28"/>
+      <c r="GA12" s="28"/>
+      <c r="GB12" s="28"/>
+      <c r="GC12" s="28"/>
+      <c r="GD12" s="28"/>
+      <c r="GE12" s="28"/>
+      <c r="GF12" s="28"/>
+      <c r="GG12" s="28"/>
+      <c r="GH12" s="28"/>
+      <c r="GI12" s="28"/>
+      <c r="GJ12" s="28"/>
+      <c r="GK12" s="28"/>
+      <c r="GL12" s="28"/>
+      <c r="GM12" s="28"/>
+      <c r="GN12" s="28"/>
+      <c r="GO12" s="28"/>
+      <c r="GP12" s="28"/>
+      <c r="GQ12" s="28"/>
+      <c r="GR12" s="28"/>
+      <c r="GS12" s="28"/>
+      <c r="GT12" s="28"/>
+      <c r="GU12" s="28"/>
+      <c r="GV12" s="28"/>
+      <c r="GW12" s="28"/>
+      <c r="GX12" s="28"/>
+      <c r="GY12" s="28"/>
+      <c r="GZ12" s="28"/>
+      <c r="HA12" s="28"/>
+      <c r="HB12" s="28"/>
+      <c r="HC12" s="28"/>
+      <c r="HD12" s="28"/>
+      <c r="HE12" s="28"/>
+      <c r="HF12" s="28"/>
+      <c r="HG12" s="28"/>
+      <c r="HH12" s="28"/>
+      <c r="HI12" s="28"/>
+      <c r="HJ12" s="28"/>
+      <c r="HK12" s="28"/>
+      <c r="HL12" s="28"/>
+      <c r="HM12" s="28"/>
+      <c r="HN12" s="28"/>
+      <c r="HO12" s="28"/>
+      <c r="HP12" s="28"/>
+      <c r="HQ12" s="28"/>
+      <c r="HR12" s="28"/>
+      <c r="HS12" s="28"/>
+      <c r="HT12" s="28"/>
+      <c r="HU12" s="28"/>
+      <c r="HV12" s="28"/>
+      <c r="HW12" s="28"/>
+      <c r="HX12" s="28"/>
+      <c r="HY12" s="28"/>
+      <c r="HZ12" s="28"/>
+      <c r="IA12" s="28"/>
+      <c r="IB12" s="28"/>
+      <c r="IC12" s="28"/>
+      <c r="ID12" s="28"/>
+      <c r="IE12" s="28"/>
+      <c r="IF12" s="28"/>
+      <c r="IG12" s="28"/>
+      <c r="IH12" s="28"/>
+      <c r="II12" s="28"/>
+      <c r="IJ12" s="28"/>
+      <c r="IK12" s="28"/>
+      <c r="IL12" s="28"/>
+      <c r="IM12" s="28"/>
+      <c r="IN12" s="28"/>
+      <c r="IO12" s="28"/>
+      <c r="IP12" s="28"/>
+    </row>
+    <row r="13" spans="1:250" s="29" customFormat="1" ht="117" customHeight="1">
+      <c r="A13" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="28"/>
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="28"/>
+      <c r="AK13" s="28"/>
+      <c r="AL13" s="28"/>
+      <c r="AM13" s="28"/>
+      <c r="AN13" s="28"/>
+      <c r="AO13" s="28"/>
+      <c r="AP13" s="28"/>
+      <c r="AQ13" s="28"/>
+      <c r="AR13" s="28"/>
+      <c r="AS13" s="28"/>
+      <c r="AT13" s="28"/>
+      <c r="AU13" s="28"/>
+      <c r="AV13" s="28"/>
+      <c r="AW13" s="28"/>
+      <c r="AX13" s="28"/>
+      <c r="AY13" s="28"/>
+      <c r="AZ13" s="28"/>
+      <c r="BA13" s="28"/>
+      <c r="BB13" s="28"/>
+      <c r="BC13" s="28"/>
+      <c r="BD13" s="28"/>
+      <c r="BE13" s="28"/>
+      <c r="BF13" s="28"/>
+      <c r="BG13" s="28"/>
+      <c r="BH13" s="28"/>
+      <c r="BI13" s="28"/>
+      <c r="BJ13" s="28"/>
+      <c r="BK13" s="28"/>
+      <c r="BL13" s="28"/>
+      <c r="BM13" s="28"/>
+      <c r="BN13" s="28"/>
+      <c r="BO13" s="28"/>
+      <c r="BP13" s="28"/>
+      <c r="BQ13" s="28"/>
+      <c r="BR13" s="28"/>
+      <c r="BS13" s="28"/>
+      <c r="BT13" s="28"/>
+      <c r="BU13" s="28"/>
+      <c r="BV13" s="28"/>
+      <c r="BW13" s="28"/>
+      <c r="BX13" s="28"/>
+      <c r="BY13" s="28"/>
+      <c r="BZ13" s="28"/>
+      <c r="CA13" s="28"/>
+      <c r="CB13" s="28"/>
+      <c r="CC13" s="28"/>
+      <c r="CD13" s="28"/>
+      <c r="CE13" s="28"/>
+      <c r="CF13" s="28"/>
+      <c r="CG13" s="28"/>
+      <c r="CH13" s="28"/>
+      <c r="CI13" s="28"/>
+      <c r="CJ13" s="28"/>
+      <c r="CK13" s="28"/>
+      <c r="CL13" s="28"/>
+      <c r="CM13" s="28"/>
+      <c r="CN13" s="28"/>
+      <c r="CO13" s="28"/>
+      <c r="CP13" s="28"/>
+      <c r="CQ13" s="28"/>
+      <c r="CR13" s="28"/>
+      <c r="CS13" s="28"/>
+      <c r="CT13" s="28"/>
+      <c r="CU13" s="28"/>
+      <c r="CV13" s="28"/>
+      <c r="CW13" s="28"/>
+      <c r="CX13" s="28"/>
+      <c r="CY13" s="28"/>
+      <c r="CZ13" s="28"/>
+      <c r="DA13" s="28"/>
+      <c r="DB13" s="28"/>
+      <c r="DC13" s="28"/>
+      <c r="DD13" s="28"/>
+      <c r="DE13" s="28"/>
+      <c r="DF13" s="28"/>
+      <c r="DG13" s="28"/>
+      <c r="DH13" s="28"/>
+      <c r="DI13" s="28"/>
+      <c r="DJ13" s="28"/>
+      <c r="DK13" s="28"/>
+      <c r="DL13" s="28"/>
+      <c r="DM13" s="28"/>
+      <c r="DN13" s="28"/>
+      <c r="DO13" s="28"/>
+      <c r="DP13" s="28"/>
+      <c r="DQ13" s="28"/>
+      <c r="DR13" s="28"/>
+      <c r="DS13" s="28"/>
+      <c r="DT13" s="28"/>
+      <c r="DU13" s="28"/>
+      <c r="DV13" s="28"/>
+      <c r="DW13" s="28"/>
+      <c r="DX13" s="28"/>
+      <c r="DY13" s="28"/>
+      <c r="DZ13" s="28"/>
+      <c r="EA13" s="28"/>
+      <c r="EB13" s="28"/>
+      <c r="EC13" s="28"/>
+      <c r="ED13" s="28"/>
+      <c r="EE13" s="28"/>
+      <c r="EF13" s="28"/>
+      <c r="EG13" s="28"/>
+      <c r="EH13" s="28"/>
+      <c r="EI13" s="28"/>
+      <c r="EJ13" s="28"/>
+      <c r="EK13" s="28"/>
+      <c r="EL13" s="28"/>
+      <c r="EM13" s="28"/>
+      <c r="EN13" s="28"/>
+      <c r="EO13" s="28"/>
+      <c r="EP13" s="28"/>
+      <c r="EQ13" s="28"/>
+      <c r="ER13" s="28"/>
+      <c r="ES13" s="28"/>
+      <c r="ET13" s="28"/>
+      <c r="EU13" s="28"/>
+      <c r="EV13" s="28"/>
+      <c r="EW13" s="28"/>
+      <c r="EX13" s="28"/>
+      <c r="EY13" s="28"/>
+      <c r="EZ13" s="28"/>
+      <c r="FA13" s="28"/>
+      <c r="FB13" s="28"/>
+      <c r="FC13" s="28"/>
+      <c r="FD13" s="28"/>
+      <c r="FE13" s="28"/>
+      <c r="FF13" s="28"/>
+      <c r="FG13" s="28"/>
+      <c r="FH13" s="28"/>
+      <c r="FI13" s="28"/>
+      <c r="FJ13" s="28"/>
+      <c r="FK13" s="28"/>
+      <c r="FL13" s="28"/>
+      <c r="FM13" s="28"/>
+      <c r="FN13" s="28"/>
+      <c r="FO13" s="28"/>
+      <c r="FP13" s="28"/>
+      <c r="FQ13" s="28"/>
+      <c r="FR13" s="28"/>
+      <c r="FS13" s="28"/>
+      <c r="FT13" s="28"/>
+      <c r="FU13" s="28"/>
+      <c r="FV13" s="28"/>
+      <c r="FW13" s="28"/>
+      <c r="FX13" s="28"/>
+      <c r="FY13" s="28"/>
+      <c r="FZ13" s="28"/>
+      <c r="GA13" s="28"/>
+      <c r="GB13" s="28"/>
+      <c r="GC13" s="28"/>
+      <c r="GD13" s="28"/>
+      <c r="GE13" s="28"/>
+      <c r="GF13" s="28"/>
+      <c r="GG13" s="28"/>
+      <c r="GH13" s="28"/>
+      <c r="GI13" s="28"/>
+      <c r="GJ13" s="28"/>
+      <c r="GK13" s="28"/>
+      <c r="GL13" s="28"/>
+      <c r="GM13" s="28"/>
+      <c r="GN13" s="28"/>
+      <c r="GO13" s="28"/>
+      <c r="GP13" s="28"/>
+      <c r="GQ13" s="28"/>
+      <c r="GR13" s="28"/>
+      <c r="GS13" s="28"/>
+      <c r="GT13" s="28"/>
+      <c r="GU13" s="28"/>
+      <c r="GV13" s="28"/>
+      <c r="GW13" s="28"/>
+      <c r="GX13" s="28"/>
+      <c r="GY13" s="28"/>
+      <c r="GZ13" s="28"/>
+      <c r="HA13" s="28"/>
+      <c r="HB13" s="28"/>
+      <c r="HC13" s="28"/>
+      <c r="HD13" s="28"/>
+      <c r="HE13" s="28"/>
+      <c r="HF13" s="28"/>
+      <c r="HG13" s="28"/>
+      <c r="HH13" s="28"/>
+      <c r="HI13" s="28"/>
+      <c r="HJ13" s="28"/>
+      <c r="HK13" s="28"/>
+      <c r="HL13" s="28"/>
+      <c r="HM13" s="28"/>
+      <c r="HN13" s="28"/>
+      <c r="HO13" s="28"/>
+      <c r="HP13" s="28"/>
+      <c r="HQ13" s="28"/>
+      <c r="HR13" s="28"/>
+      <c r="HS13" s="28"/>
+      <c r="HT13" s="28"/>
+      <c r="HU13" s="28"/>
+      <c r="HV13" s="28"/>
+      <c r="HW13" s="28"/>
+      <c r="HX13" s="28"/>
+      <c r="HY13" s="28"/>
+      <c r="HZ13" s="28"/>
+      <c r="IA13" s="28"/>
+      <c r="IB13" s="28"/>
+      <c r="IC13" s="28"/>
+      <c r="ID13" s="28"/>
+      <c r="IE13" s="28"/>
+      <c r="IF13" s="28"/>
+      <c r="IG13" s="28"/>
+      <c r="IH13" s="28"/>
+      <c r="II13" s="28"/>
+      <c r="IJ13" s="28"/>
+      <c r="IK13" s="28"/>
+      <c r="IL13" s="28"/>
+      <c r="IM13" s="28"/>
+      <c r="IN13" s="28"/>
+      <c r="IO13" s="28"/>
+      <c r="IP13" s="28"/>
+    </row>
+    <row r="14" spans="1:250" s="29" customFormat="1" ht="130.5" customHeight="1">
+      <c r="A14" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="28"/>
+      <c r="AL14" s="28"/>
+      <c r="AM14" s="28"/>
+      <c r="AN14" s="28"/>
+      <c r="AO14" s="28"/>
+      <c r="AP14" s="28"/>
+      <c r="AQ14" s="28"/>
+      <c r="AR14" s="28"/>
+      <c r="AS14" s="28"/>
+      <c r="AT14" s="28"/>
+      <c r="AU14" s="28"/>
+      <c r="AV14" s="28"/>
+      <c r="AW14" s="28"/>
+      <c r="AX14" s="28"/>
+      <c r="AY14" s="28"/>
+      <c r="AZ14" s="28"/>
+      <c r="BA14" s="28"/>
+      <c r="BB14" s="28"/>
+      <c r="BC14" s="28"/>
+      <c r="BD14" s="28"/>
+      <c r="BE14" s="28"/>
+      <c r="BF14" s="28"/>
+      <c r="BG14" s="28"/>
+      <c r="BH14" s="28"/>
+      <c r="BI14" s="28"/>
+      <c r="BJ14" s="28"/>
+      <c r="BK14" s="28"/>
+      <c r="BL14" s="28"/>
+      <c r="BM14" s="28"/>
+      <c r="BN14" s="28"/>
+      <c r="BO14" s="28"/>
+      <c r="BP14" s="28"/>
+      <c r="BQ14" s="28"/>
+      <c r="BR14" s="28"/>
+      <c r="BS14" s="28"/>
+      <c r="BT14" s="28"/>
+      <c r="BU14" s="28"/>
+      <c r="BV14" s="28"/>
+      <c r="BW14" s="28"/>
+      <c r="BX14" s="28"/>
+      <c r="BY14" s="28"/>
+      <c r="BZ14" s="28"/>
+      <c r="CA14" s="28"/>
+      <c r="CB14" s="28"/>
+      <c r="CC14" s="28"/>
+      <c r="CD14" s="28"/>
+      <c r="CE14" s="28"/>
+      <c r="CF14" s="28"/>
+      <c r="CG14" s="28"/>
+      <c r="CH14" s="28"/>
+      <c r="CI14" s="28"/>
+      <c r="CJ14" s="28"/>
+      <c r="CK14" s="28"/>
+      <c r="CL14" s="28"/>
+      <c r="CM14" s="28"/>
+      <c r="CN14" s="28"/>
+      <c r="CO14" s="28"/>
+      <c r="CP14" s="28"/>
+      <c r="CQ14" s="28"/>
+      <c r="CR14" s="28"/>
+      <c r="CS14" s="28"/>
+      <c r="CT14" s="28"/>
+      <c r="CU14" s="28"/>
+      <c r="CV14" s="28"/>
+      <c r="CW14" s="28"/>
+      <c r="CX14" s="28"/>
+      <c r="CY14" s="28"/>
+      <c r="CZ14" s="28"/>
+      <c r="DA14" s="28"/>
+      <c r="DB14" s="28"/>
+      <c r="DC14" s="28"/>
+      <c r="DD14" s="28"/>
+      <c r="DE14" s="28"/>
+      <c r="DF14" s="28"/>
+      <c r="DG14" s="28"/>
+      <c r="DH14" s="28"/>
+      <c r="DI14" s="28"/>
+      <c r="DJ14" s="28"/>
+      <c r="DK14" s="28"/>
+      <c r="DL14" s="28"/>
+      <c r="DM14" s="28"/>
+      <c r="DN14" s="28"/>
+      <c r="DO14" s="28"/>
+      <c r="DP14" s="28"/>
+      <c r="DQ14" s="28"/>
+      <c r="DR14" s="28"/>
+      <c r="DS14" s="28"/>
+      <c r="DT14" s="28"/>
+      <c r="DU14" s="28"/>
+      <c r="DV14" s="28"/>
+      <c r="DW14" s="28"/>
+      <c r="DX14" s="28"/>
+      <c r="DY14" s="28"/>
+      <c r="DZ14" s="28"/>
+      <c r="EA14" s="28"/>
+      <c r="EB14" s="28"/>
+      <c r="EC14" s="28"/>
+      <c r="ED14" s="28"/>
+      <c r="EE14" s="28"/>
+      <c r="EF14" s="28"/>
+      <c r="EG14" s="28"/>
+      <c r="EH14" s="28"/>
+      <c r="EI14" s="28"/>
+      <c r="EJ14" s="28"/>
+      <c r="EK14" s="28"/>
+      <c r="EL14" s="28"/>
+      <c r="EM14" s="28"/>
+      <c r="EN14" s="28"/>
+      <c r="EO14" s="28"/>
+      <c r="EP14" s="28"/>
+      <c r="EQ14" s="28"/>
+      <c r="ER14" s="28"/>
+      <c r="ES14" s="28"/>
+      <c r="ET14" s="28"/>
+      <c r="EU14" s="28"/>
+      <c r="EV14" s="28"/>
+      <c r="EW14" s="28"/>
+      <c r="EX14" s="28"/>
+      <c r="EY14" s="28"/>
+      <c r="EZ14" s="28"/>
+      <c r="FA14" s="28"/>
+      <c r="FB14" s="28"/>
+      <c r="FC14" s="28"/>
+      <c r="FD14" s="28"/>
+      <c r="FE14" s="28"/>
+      <c r="FF14" s="28"/>
+      <c r="FG14" s="28"/>
+      <c r="FH14" s="28"/>
+      <c r="FI14" s="28"/>
+      <c r="FJ14" s="28"/>
+      <c r="FK14" s="28"/>
+      <c r="FL14" s="28"/>
+      <c r="FM14" s="28"/>
+      <c r="FN14" s="28"/>
+      <c r="FO14" s="28"/>
+      <c r="FP14" s="28"/>
+      <c r="FQ14" s="28"/>
+      <c r="FR14" s="28"/>
+      <c r="FS14" s="28"/>
+      <c r="FT14" s="28"/>
+      <c r="FU14" s="28"/>
+      <c r="FV14" s="28"/>
+      <c r="FW14" s="28"/>
+      <c r="FX14" s="28"/>
+      <c r="FY14" s="28"/>
+      <c r="FZ14" s="28"/>
+      <c r="GA14" s="28"/>
+      <c r="GB14" s="28"/>
+      <c r="GC14" s="28"/>
+      <c r="GD14" s="28"/>
+      <c r="GE14" s="28"/>
+      <c r="GF14" s="28"/>
+      <c r="GG14" s="28"/>
+      <c r="GH14" s="28"/>
+      <c r="GI14" s="28"/>
+      <c r="GJ14" s="28"/>
+      <c r="GK14" s="28"/>
+      <c r="GL14" s="28"/>
+      <c r="GM14" s="28"/>
+      <c r="GN14" s="28"/>
+      <c r="GO14" s="28"/>
+      <c r="GP14" s="28"/>
+      <c r="GQ14" s="28"/>
+      <c r="GR14" s="28"/>
+      <c r="GS14" s="28"/>
+      <c r="GT14" s="28"/>
+      <c r="GU14" s="28"/>
+      <c r="GV14" s="28"/>
+      <c r="GW14" s="28"/>
+      <c r="GX14" s="28"/>
+      <c r="GY14" s="28"/>
+      <c r="GZ14" s="28"/>
+      <c r="HA14" s="28"/>
+      <c r="HB14" s="28"/>
+      <c r="HC14" s="28"/>
+      <c r="HD14" s="28"/>
+      <c r="HE14" s="28"/>
+      <c r="HF14" s="28"/>
+      <c r="HG14" s="28"/>
+      <c r="HH14" s="28"/>
+      <c r="HI14" s="28"/>
+      <c r="HJ14" s="28"/>
+      <c r="HK14" s="28"/>
+      <c r="HL14" s="28"/>
+      <c r="HM14" s="28"/>
+      <c r="HN14" s="28"/>
+      <c r="HO14" s="28"/>
+      <c r="HP14" s="28"/>
+      <c r="HQ14" s="28"/>
+      <c r="HR14" s="28"/>
+      <c r="HS14" s="28"/>
+      <c r="HT14" s="28"/>
+      <c r="HU14" s="28"/>
+      <c r="HV14" s="28"/>
+      <c r="HW14" s="28"/>
+      <c r="HX14" s="28"/>
+      <c r="HY14" s="28"/>
+      <c r="HZ14" s="28"/>
+      <c r="IA14" s="28"/>
+      <c r="IB14" s="28"/>
+      <c r="IC14" s="28"/>
+      <c r="ID14" s="28"/>
+      <c r="IE14" s="28"/>
+      <c r="IF14" s="28"/>
+      <c r="IG14" s="28"/>
+      <c r="IH14" s="28"/>
+      <c r="II14" s="28"/>
+      <c r="IJ14" s="28"/>
+      <c r="IK14" s="28"/>
+      <c r="IL14" s="28"/>
+      <c r="IM14" s="28"/>
+      <c r="IN14" s="28"/>
+      <c r="IO14" s="28"/>
+      <c r="IP14" s="28"/>
+    </row>
+    <row r="15" spans="1:250" s="29" customFormat="1" ht="118.5" customHeight="1">
+      <c r="A15" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="28"/>
+      <c r="AL15" s="28"/>
+      <c r="AM15" s="28"/>
+      <c r="AN15" s="28"/>
+      <c r="AO15" s="28"/>
+      <c r="AP15" s="28"/>
+      <c r="AQ15" s="28"/>
+      <c r="AR15" s="28"/>
+      <c r="AS15" s="28"/>
+      <c r="AT15" s="28"/>
+      <c r="AU15" s="28"/>
+      <c r="AV15" s="28"/>
+      <c r="AW15" s="28"/>
+      <c r="AX15" s="28"/>
+      <c r="AY15" s="28"/>
+      <c r="AZ15" s="28"/>
+      <c r="BA15" s="28"/>
+      <c r="BB15" s="28"/>
+      <c r="BC15" s="28"/>
+      <c r="BD15" s="28"/>
+      <c r="BE15" s="28"/>
+      <c r="BF15" s="28"/>
+      <c r="BG15" s="28"/>
+      <c r="BH15" s="28"/>
+      <c r="BI15" s="28"/>
+      <c r="BJ15" s="28"/>
+      <c r="BK15" s="28"/>
+      <c r="BL15" s="28"/>
+      <c r="BM15" s="28"/>
+      <c r="BN15" s="28"/>
+      <c r="BO15" s="28"/>
+      <c r="BP15" s="28"/>
+      <c r="BQ15" s="28"/>
+      <c r="BR15" s="28"/>
+      <c r="BS15" s="28"/>
+      <c r="BT15" s="28"/>
+      <c r="BU15" s="28"/>
+      <c r="BV15" s="28"/>
+      <c r="BW15" s="28"/>
+      <c r="BX15" s="28"/>
+      <c r="BY15" s="28"/>
+      <c r="BZ15" s="28"/>
+      <c r="CA15" s="28"/>
+      <c r="CB15" s="28"/>
+      <c r="CC15" s="28"/>
+      <c r="CD15" s="28"/>
+      <c r="CE15" s="28"/>
+      <c r="CF15" s="28"/>
+      <c r="CG15" s="28"/>
+      <c r="CH15" s="28"/>
+      <c r="CI15" s="28"/>
+      <c r="CJ15" s="28"/>
+      <c r="CK15" s="28"/>
+      <c r="CL15" s="28"/>
+      <c r="CM15" s="28"/>
+      <c r="CN15" s="28"/>
+      <c r="CO15" s="28"/>
+      <c r="CP15" s="28"/>
+      <c r="CQ15" s="28"/>
+      <c r="CR15" s="28"/>
+      <c r="CS15" s="28"/>
+      <c r="CT15" s="28"/>
+      <c r="CU15" s="28"/>
+      <c r="CV15" s="28"/>
+      <c r="CW15" s="28"/>
+      <c r="CX15" s="28"/>
+      <c r="CY15" s="28"/>
+      <c r="CZ15" s="28"/>
+      <c r="DA15" s="28"/>
+      <c r="DB15" s="28"/>
+      <c r="DC15" s="28"/>
+      <c r="DD15" s="28"/>
+      <c r="DE15" s="28"/>
+      <c r="DF15" s="28"/>
+      <c r="DG15" s="28"/>
+      <c r="DH15" s="28"/>
+      <c r="DI15" s="28"/>
+      <c r="DJ15" s="28"/>
+      <c r="DK15" s="28"/>
+      <c r="DL15" s="28"/>
+      <c r="DM15" s="28"/>
+      <c r="DN15" s="28"/>
+      <c r="DO15" s="28"/>
+      <c r="DP15" s="28"/>
+      <c r="DQ15" s="28"/>
+      <c r="DR15" s="28"/>
+      <c r="DS15" s="28"/>
+      <c r="DT15" s="28"/>
+      <c r="DU15" s="28"/>
+      <c r="DV15" s="28"/>
+      <c r="DW15" s="28"/>
+      <c r="DX15" s="28"/>
+      <c r="DY15" s="28"/>
+      <c r="DZ15" s="28"/>
+      <c r="EA15" s="28"/>
+      <c r="EB15" s="28"/>
+      <c r="EC15" s="28"/>
+      <c r="ED15" s="28"/>
+      <c r="EE15" s="28"/>
+      <c r="EF15" s="28"/>
+      <c r="EG15" s="28"/>
+      <c r="EH15" s="28"/>
+      <c r="EI15" s="28"/>
+      <c r="EJ15" s="28"/>
+      <c r="EK15" s="28"/>
+      <c r="EL15" s="28"/>
+      <c r="EM15" s="28"/>
+      <c r="EN15" s="28"/>
+      <c r="EO15" s="28"/>
+      <c r="EP15" s="28"/>
+      <c r="EQ15" s="28"/>
+      <c r="ER15" s="28"/>
+      <c r="ES15" s="28"/>
+      <c r="ET15" s="28"/>
+      <c r="EU15" s="28"/>
+      <c r="EV15" s="28"/>
+      <c r="EW15" s="28"/>
+      <c r="EX15" s="28"/>
+      <c r="EY15" s="28"/>
+      <c r="EZ15" s="28"/>
+      <c r="FA15" s="28"/>
+      <c r="FB15" s="28"/>
+      <c r="FC15" s="28"/>
+      <c r="FD15" s="28"/>
+      <c r="FE15" s="28"/>
+      <c r="FF15" s="28"/>
+      <c r="FG15" s="28"/>
+      <c r="FH15" s="28"/>
+      <c r="FI15" s="28"/>
+      <c r="FJ15" s="28"/>
+      <c r="FK15" s="28"/>
+      <c r="FL15" s="28"/>
+      <c r="FM15" s="28"/>
+      <c r="FN15" s="28"/>
+      <c r="FO15" s="28"/>
+      <c r="FP15" s="28"/>
+      <c r="FQ15" s="28"/>
+      <c r="FR15" s="28"/>
+      <c r="FS15" s="28"/>
+      <c r="FT15" s="28"/>
+      <c r="FU15" s="28"/>
+      <c r="FV15" s="28"/>
+      <c r="FW15" s="28"/>
+      <c r="FX15" s="28"/>
+      <c r="FY15" s="28"/>
+      <c r="FZ15" s="28"/>
+      <c r="GA15" s="28"/>
+      <c r="GB15" s="28"/>
+      <c r="GC15" s="28"/>
+      <c r="GD15" s="28"/>
+      <c r="GE15" s="28"/>
+      <c r="GF15" s="28"/>
+      <c r="GG15" s="28"/>
+      <c r="GH15" s="28"/>
+      <c r="GI15" s="28"/>
+      <c r="GJ15" s="28"/>
+      <c r="GK15" s="28"/>
+      <c r="GL15" s="28"/>
+      <c r="GM15" s="28"/>
+      <c r="GN15" s="28"/>
+      <c r="GO15" s="28"/>
+      <c r="GP15" s="28"/>
+      <c r="GQ15" s="28"/>
+      <c r="GR15" s="28"/>
+      <c r="GS15" s="28"/>
+      <c r="GT15" s="28"/>
+      <c r="GU15" s="28"/>
+      <c r="GV15" s="28"/>
+      <c r="GW15" s="28"/>
+      <c r="GX15" s="28"/>
+      <c r="GY15" s="28"/>
+      <c r="GZ15" s="28"/>
+      <c r="HA15" s="28"/>
+      <c r="HB15" s="28"/>
+      <c r="HC15" s="28"/>
+      <c r="HD15" s="28"/>
+      <c r="HE15" s="28"/>
+      <c r="HF15" s="28"/>
+      <c r="HG15" s="28"/>
+      <c r="HH15" s="28"/>
+      <c r="HI15" s="28"/>
+      <c r="HJ15" s="28"/>
+      <c r="HK15" s="28"/>
+      <c r="HL15" s="28"/>
+      <c r="HM15" s="28"/>
+      <c r="HN15" s="28"/>
+      <c r="HO15" s="28"/>
+      <c r="HP15" s="28"/>
+      <c r="HQ15" s="28"/>
+      <c r="HR15" s="28"/>
+      <c r="HS15" s="28"/>
+      <c r="HT15" s="28"/>
+      <c r="HU15" s="28"/>
+      <c r="HV15" s="28"/>
+      <c r="HW15" s="28"/>
+      <c r="HX15" s="28"/>
+      <c r="HY15" s="28"/>
+      <c r="HZ15" s="28"/>
+      <c r="IA15" s="28"/>
+      <c r="IB15" s="28"/>
+      <c r="IC15" s="28"/>
+      <c r="ID15" s="28"/>
+      <c r="IE15" s="28"/>
+      <c r="IF15" s="28"/>
+      <c r="IG15" s="28"/>
+      <c r="IH15" s="28"/>
+      <c r="II15" s="28"/>
+      <c r="IJ15" s="28"/>
+      <c r="IK15" s="28"/>
+      <c r="IL15" s="28"/>
+      <c r="IM15" s="28"/>
+      <c r="IN15" s="28"/>
+      <c r="IO15" s="28"/>
+      <c r="IP15" s="28"/>
+    </row>
+    <row r="16" spans="1:250" s="29" customFormat="1" ht="131.25" customHeight="1">
+      <c r="A16" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="28"/>
+      <c r="AL16" s="28"/>
+      <c r="AM16" s="28"/>
+      <c r="AN16" s="28"/>
+      <c r="AO16" s="28"/>
+      <c r="AP16" s="28"/>
+      <c r="AQ16" s="28"/>
+      <c r="AR16" s="28"/>
+      <c r="AS16" s="28"/>
+      <c r="AT16" s="28"/>
+      <c r="AU16" s="28"/>
+      <c r="AV16" s="28"/>
+      <c r="AW16" s="28"/>
+      <c r="AX16" s="28"/>
+      <c r="AY16" s="28"/>
+      <c r="AZ16" s="28"/>
+      <c r="BA16" s="28"/>
+      <c r="BB16" s="28"/>
+      <c r="BC16" s="28"/>
+      <c r="BD16" s="28"/>
+      <c r="BE16" s="28"/>
+      <c r="BF16" s="28"/>
+      <c r="BG16" s="28"/>
+      <c r="BH16" s="28"/>
+      <c r="BI16" s="28"/>
+      <c r="BJ16" s="28"/>
+      <c r="BK16" s="28"/>
+      <c r="BL16" s="28"/>
+      <c r="BM16" s="28"/>
+      <c r="BN16" s="28"/>
+      <c r="BO16" s="28"/>
+      <c r="BP16" s="28"/>
+      <c r="BQ16" s="28"/>
+      <c r="BR16" s="28"/>
+      <c r="BS16" s="28"/>
+      <c r="BT16" s="28"/>
+      <c r="BU16" s="28"/>
+      <c r="BV16" s="28"/>
+      <c r="BW16" s="28"/>
+      <c r="BX16" s="28"/>
+      <c r="BY16" s="28"/>
+      <c r="BZ16" s="28"/>
+      <c r="CA16" s="28"/>
+      <c r="CB16" s="28"/>
+      <c r="CC16" s="28"/>
+      <c r="CD16" s="28"/>
+      <c r="CE16" s="28"/>
+      <c r="CF16" s="28"/>
+      <c r="CG16" s="28"/>
+      <c r="CH16" s="28"/>
+      <c r="CI16" s="28"/>
+      <c r="CJ16" s="28"/>
+      <c r="CK16" s="28"/>
+      <c r="CL16" s="28"/>
+      <c r="CM16" s="28"/>
+      <c r="CN16" s="28"/>
+      <c r="CO16" s="28"/>
+      <c r="CP16" s="28"/>
+      <c r="CQ16" s="28"/>
+      <c r="CR16" s="28"/>
+      <c r="CS16" s="28"/>
+      <c r="CT16" s="28"/>
+      <c r="CU16" s="28"/>
+      <c r="CV16" s="28"/>
+      <c r="CW16" s="28"/>
+      <c r="CX16" s="28"/>
+      <c r="CY16" s="28"/>
+      <c r="CZ16" s="28"/>
+      <c r="DA16" s="28"/>
+      <c r="DB16" s="28"/>
+      <c r="DC16" s="28"/>
+      <c r="DD16" s="28"/>
+      <c r="DE16" s="28"/>
+      <c r="DF16" s="28"/>
+      <c r="DG16" s="28"/>
+      <c r="DH16" s="28"/>
+      <c r="DI16" s="28"/>
+      <c r="DJ16" s="28"/>
+      <c r="DK16" s="28"/>
+      <c r="DL16" s="28"/>
+      <c r="DM16" s="28"/>
+      <c r="DN16" s="28"/>
+      <c r="DO16" s="28"/>
+      <c r="DP16" s="28"/>
+      <c r="DQ16" s="28"/>
+      <c r="DR16" s="28"/>
+      <c r="DS16" s="28"/>
+      <c r="DT16" s="28"/>
+      <c r="DU16" s="28"/>
+      <c r="DV16" s="28"/>
+      <c r="DW16" s="28"/>
+      <c r="DX16" s="28"/>
+      <c r="DY16" s="28"/>
+      <c r="DZ16" s="28"/>
+      <c r="EA16" s="28"/>
+      <c r="EB16" s="28"/>
+      <c r="EC16" s="28"/>
+      <c r="ED16" s="28"/>
+      <c r="EE16" s="28"/>
+      <c r="EF16" s="28"/>
+      <c r="EG16" s="28"/>
+      <c r="EH16" s="28"/>
+      <c r="EI16" s="28"/>
+      <c r="EJ16" s="28"/>
+      <c r="EK16" s="28"/>
+      <c r="EL16" s="28"/>
+      <c r="EM16" s="28"/>
+      <c r="EN16" s="28"/>
+      <c r="EO16" s="28"/>
+      <c r="EP16" s="28"/>
+      <c r="EQ16" s="28"/>
+      <c r="ER16" s="28"/>
+      <c r="ES16" s="28"/>
+      <c r="ET16" s="28"/>
+      <c r="EU16" s="28"/>
+      <c r="EV16" s="28"/>
+      <c r="EW16" s="28"/>
+      <c r="EX16" s="28"/>
+      <c r="EY16" s="28"/>
+      <c r="EZ16" s="28"/>
+      <c r="FA16" s="28"/>
+      <c r="FB16" s="28"/>
+      <c r="FC16" s="28"/>
+      <c r="FD16" s="28"/>
+      <c r="FE16" s="28"/>
+      <c r="FF16" s="28"/>
+      <c r="FG16" s="28"/>
+      <c r="FH16" s="28"/>
+      <c r="FI16" s="28"/>
+      <c r="FJ16" s="28"/>
+      <c r="FK16" s="28"/>
+      <c r="FL16" s="28"/>
+      <c r="FM16" s="28"/>
+      <c r="FN16" s="28"/>
+      <c r="FO16" s="28"/>
+      <c r="FP16" s="28"/>
+      <c r="FQ16" s="28"/>
+      <c r="FR16" s="28"/>
+      <c r="FS16" s="28"/>
+      <c r="FT16" s="28"/>
+      <c r="FU16" s="28"/>
+      <c r="FV16" s="28"/>
+      <c r="FW16" s="28"/>
+      <c r="FX16" s="28"/>
+      <c r="FY16" s="28"/>
+      <c r="FZ16" s="28"/>
+      <c r="GA16" s="28"/>
+      <c r="GB16" s="28"/>
+      <c r="GC16" s="28"/>
+      <c r="GD16" s="28"/>
+      <c r="GE16" s="28"/>
+      <c r="GF16" s="28"/>
+      <c r="GG16" s="28"/>
+      <c r="GH16" s="28"/>
+      <c r="GI16" s="28"/>
+      <c r="GJ16" s="28"/>
+      <c r="GK16" s="28"/>
+      <c r="GL16" s="28"/>
+      <c r="GM16" s="28"/>
+      <c r="GN16" s="28"/>
+      <c r="GO16" s="28"/>
+      <c r="GP16" s="28"/>
+      <c r="GQ16" s="28"/>
+      <c r="GR16" s="28"/>
+      <c r="GS16" s="28"/>
+      <c r="GT16" s="28"/>
+      <c r="GU16" s="28"/>
+      <c r="GV16" s="28"/>
+      <c r="GW16" s="28"/>
+      <c r="GX16" s="28"/>
+      <c r="GY16" s="28"/>
+      <c r="GZ16" s="28"/>
+      <c r="HA16" s="28"/>
+      <c r="HB16" s="28"/>
+      <c r="HC16" s="28"/>
+      <c r="HD16" s="28"/>
+      <c r="HE16" s="28"/>
+      <c r="HF16" s="28"/>
+      <c r="HG16" s="28"/>
+      <c r="HH16" s="28"/>
+      <c r="HI16" s="28"/>
+      <c r="HJ16" s="28"/>
+      <c r="HK16" s="28"/>
+      <c r="HL16" s="28"/>
+      <c r="HM16" s="28"/>
+      <c r="HN16" s="28"/>
+      <c r="HO16" s="28"/>
+      <c r="HP16" s="28"/>
+      <c r="HQ16" s="28"/>
+      <c r="HR16" s="28"/>
+      <c r="HS16" s="28"/>
+      <c r="HT16" s="28"/>
+      <c r="HU16" s="28"/>
+      <c r="HV16" s="28"/>
+      <c r="HW16" s="28"/>
+      <c r="HX16" s="28"/>
+      <c r="HY16" s="28"/>
+      <c r="HZ16" s="28"/>
+      <c r="IA16" s="28"/>
+      <c r="IB16" s="28"/>
+      <c r="IC16" s="28"/>
+      <c r="ID16" s="28"/>
+      <c r="IE16" s="28"/>
+      <c r="IF16" s="28"/>
+      <c r="IG16" s="28"/>
+      <c r="IH16" s="28"/>
+      <c r="II16" s="28"/>
+      <c r="IJ16" s="28"/>
+      <c r="IK16" s="28"/>
+      <c r="IL16" s="28"/>
+      <c r="IM16" s="28"/>
+      <c r="IN16" s="28"/>
+      <c r="IO16" s="28"/>
+      <c r="IP16" s="28"/>
+    </row>
+    <row r="17" spans="1:250" s="29" customFormat="1" ht="81" customHeight="1">
+      <c r="A17" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="28"/>
+      <c r="AK17" s="28"/>
+      <c r="AL17" s="28"/>
+      <c r="AM17" s="28"/>
+      <c r="AN17" s="28"/>
+      <c r="AO17" s="28"/>
+      <c r="AP17" s="28"/>
+      <c r="AQ17" s="28"/>
+      <c r="AR17" s="28"/>
+      <c r="AS17" s="28"/>
+      <c r="AT17" s="28"/>
+      <c r="AU17" s="28"/>
+      <c r="AV17" s="28"/>
+      <c r="AW17" s="28"/>
+      <c r="AX17" s="28"/>
+      <c r="AY17" s="28"/>
+      <c r="AZ17" s="28"/>
+      <c r="BA17" s="28"/>
+      <c r="BB17" s="28"/>
+      <c r="BC17" s="28"/>
+      <c r="BD17" s="28"/>
+      <c r="BE17" s="28"/>
+      <c r="BF17" s="28"/>
+      <c r="BG17" s="28"/>
+      <c r="BH17" s="28"/>
+      <c r="BI17" s="28"/>
+      <c r="BJ17" s="28"/>
+      <c r="BK17" s="28"/>
+      <c r="BL17" s="28"/>
+      <c r="BM17" s="28"/>
+      <c r="BN17" s="28"/>
+      <c r="BO17" s="28"/>
+      <c r="BP17" s="28"/>
+      <c r="BQ17" s="28"/>
+      <c r="BR17" s="28"/>
+      <c r="BS17" s="28"/>
+      <c r="BT17" s="28"/>
+      <c r="BU17" s="28"/>
+      <c r="BV17" s="28"/>
+      <c r="BW17" s="28"/>
+      <c r="BX17" s="28"/>
+      <c r="BY17" s="28"/>
+      <c r="BZ17" s="28"/>
+      <c r="CA17" s="28"/>
+      <c r="CB17" s="28"/>
+      <c r="CC17" s="28"/>
+      <c r="CD17" s="28"/>
+      <c r="CE17" s="28"/>
+      <c r="CF17" s="28"/>
+      <c r="CG17" s="28"/>
+      <c r="CH17" s="28"/>
+      <c r="CI17" s="28"/>
+      <c r="CJ17" s="28"/>
+      <c r="CK17" s="28"/>
+      <c r="CL17" s="28"/>
+      <c r="CM17" s="28"/>
+      <c r="CN17" s="28"/>
+      <c r="CO17" s="28"/>
+      <c r="CP17" s="28"/>
+      <c r="CQ17" s="28"/>
+      <c r="CR17" s="28"/>
+      <c r="CS17" s="28"/>
+      <c r="CT17" s="28"/>
+      <c r="CU17" s="28"/>
+      <c r="CV17" s="28"/>
+      <c r="CW17" s="28"/>
+      <c r="CX17" s="28"/>
+      <c r="CY17" s="28"/>
+      <c r="CZ17" s="28"/>
+      <c r="DA17" s="28"/>
+      <c r="DB17" s="28"/>
+      <c r="DC17" s="28"/>
+      <c r="DD17" s="28"/>
+      <c r="DE17" s="28"/>
+      <c r="DF17" s="28"/>
+      <c r="DG17" s="28"/>
+      <c r="DH17" s="28"/>
+      <c r="DI17" s="28"/>
+      <c r="DJ17" s="28"/>
+      <c r="DK17" s="28"/>
+      <c r="DL17" s="28"/>
+      <c r="DM17" s="28"/>
+      <c r="DN17" s="28"/>
+      <c r="DO17" s="28"/>
+      <c r="DP17" s="28"/>
+      <c r="DQ17" s="28"/>
+      <c r="DR17" s="28"/>
+      <c r="DS17" s="28"/>
+      <c r="DT17" s="28"/>
+      <c r="DU17" s="28"/>
+      <c r="DV17" s="28"/>
+      <c r="DW17" s="28"/>
+      <c r="DX17" s="28"/>
+      <c r="DY17" s="28"/>
+      <c r="DZ17" s="28"/>
+      <c r="EA17" s="28"/>
+      <c r="EB17" s="28"/>
+      <c r="EC17" s="28"/>
+      <c r="ED17" s="28"/>
+      <c r="EE17" s="28"/>
+      <c r="EF17" s="28"/>
+      <c r="EG17" s="28"/>
+      <c r="EH17" s="28"/>
+      <c r="EI17" s="28"/>
+      <c r="EJ17" s="28"/>
+      <c r="EK17" s="28"/>
+      <c r="EL17" s="28"/>
+      <c r="EM17" s="28"/>
+      <c r="EN17" s="28"/>
+      <c r="EO17" s="28"/>
+      <c r="EP17" s="28"/>
+      <c r="EQ17" s="28"/>
+      <c r="ER17" s="28"/>
+      <c r="ES17" s="28"/>
+      <c r="ET17" s="28"/>
+      <c r="EU17" s="28"/>
+      <c r="EV17" s="28"/>
+      <c r="EW17" s="28"/>
+      <c r="EX17" s="28"/>
+      <c r="EY17" s="28"/>
+      <c r="EZ17" s="28"/>
+      <c r="FA17" s="28"/>
+      <c r="FB17" s="28"/>
+      <c r="FC17" s="28"/>
+      <c r="FD17" s="28"/>
+      <c r="FE17" s="28"/>
+      <c r="FF17" s="28"/>
+      <c r="FG17" s="28"/>
+      <c r="FH17" s="28"/>
+      <c r="FI17" s="28"/>
+      <c r="FJ17" s="28"/>
+      <c r="FK17" s="28"/>
+      <c r="FL17" s="28"/>
+      <c r="FM17" s="28"/>
+      <c r="FN17" s="28"/>
+      <c r="FO17" s="28"/>
+      <c r="FP17" s="28"/>
+      <c r="FQ17" s="28"/>
+      <c r="FR17" s="28"/>
+      <c r="FS17" s="28"/>
+      <c r="FT17" s="28"/>
+      <c r="FU17" s="28"/>
+      <c r="FV17" s="28"/>
+      <c r="FW17" s="28"/>
+      <c r="FX17" s="28"/>
+      <c r="FY17" s="28"/>
+      <c r="FZ17" s="28"/>
+      <c r="GA17" s="28"/>
+      <c r="GB17" s="28"/>
+      <c r="GC17" s="28"/>
+      <c r="GD17" s="28"/>
+      <c r="GE17" s="28"/>
+      <c r="GF17" s="28"/>
+      <c r="GG17" s="28"/>
+      <c r="GH17" s="28"/>
+      <c r="GI17" s="28"/>
+      <c r="GJ17" s="28"/>
+      <c r="GK17" s="28"/>
+      <c r="GL17" s="28"/>
+      <c r="GM17" s="28"/>
+      <c r="GN17" s="28"/>
+      <c r="GO17" s="28"/>
+      <c r="GP17" s="28"/>
+      <c r="GQ17" s="28"/>
+      <c r="GR17" s="28"/>
+      <c r="GS17" s="28"/>
+      <c r="GT17" s="28"/>
+      <c r="GU17" s="28"/>
+      <c r="GV17" s="28"/>
+      <c r="GW17" s="28"/>
+      <c r="GX17" s="28"/>
+      <c r="GY17" s="28"/>
+      <c r="GZ17" s="28"/>
+      <c r="HA17" s="28"/>
+      <c r="HB17" s="28"/>
+      <c r="HC17" s="28"/>
+      <c r="HD17" s="28"/>
+      <c r="HE17" s="28"/>
+      <c r="HF17" s="28"/>
+      <c r="HG17" s="28"/>
+      <c r="HH17" s="28"/>
+      <c r="HI17" s="28"/>
+      <c r="HJ17" s="28"/>
+      <c r="HK17" s="28"/>
+      <c r="HL17" s="28"/>
+      <c r="HM17" s="28"/>
+      <c r="HN17" s="28"/>
+      <c r="HO17" s="28"/>
+      <c r="HP17" s="28"/>
+      <c r="HQ17" s="28"/>
+      <c r="HR17" s="28"/>
+      <c r="HS17" s="28"/>
+      <c r="HT17" s="28"/>
+      <c r="HU17" s="28"/>
+      <c r="HV17" s="28"/>
+      <c r="HW17" s="28"/>
+      <c r="HX17" s="28"/>
+      <c r="HY17" s="28"/>
+      <c r="HZ17" s="28"/>
+      <c r="IA17" s="28"/>
+      <c r="IB17" s="28"/>
+      <c r="IC17" s="28"/>
+      <c r="ID17" s="28"/>
+      <c r="IE17" s="28"/>
+      <c r="IF17" s="28"/>
+      <c r="IG17" s="28"/>
+      <c r="IH17" s="28"/>
+      <c r="II17" s="28"/>
+      <c r="IJ17" s="28"/>
+      <c r="IK17" s="28"/>
+      <c r="IL17" s="28"/>
+      <c r="IM17" s="28"/>
+      <c r="IN17" s="28"/>
+      <c r="IO17" s="28"/>
+      <c r="IP17" s="28"/>
+    </row>
+    <row r="18" spans="1:250" s="29" customFormat="1" ht="129" customHeight="1">
+      <c r="A18" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="28"/>
+      <c r="AK18" s="28"/>
+      <c r="AL18" s="28"/>
+      <c r="AM18" s="28"/>
+      <c r="AN18" s="28"/>
+      <c r="AO18" s="28"/>
+      <c r="AP18" s="28"/>
+      <c r="AQ18" s="28"/>
+      <c r="AR18" s="28"/>
+      <c r="AS18" s="28"/>
+      <c r="AT18" s="28"/>
+      <c r="AU18" s="28"/>
+      <c r="AV18" s="28"/>
+      <c r="AW18" s="28"/>
+      <c r="AX18" s="28"/>
+      <c r="AY18" s="28"/>
+      <c r="AZ18" s="28"/>
+      <c r="BA18" s="28"/>
+      <c r="BB18" s="28"/>
+      <c r="BC18" s="28"/>
+      <c r="BD18" s="28"/>
+      <c r="BE18" s="28"/>
+      <c r="BF18" s="28"/>
+      <c r="BG18" s="28"/>
+      <c r="BH18" s="28"/>
+      <c r="BI18" s="28"/>
+      <c r="BJ18" s="28"/>
+      <c r="BK18" s="28"/>
+      <c r="BL18" s="28"/>
+      <c r="BM18" s="28"/>
+      <c r="BN18" s="28"/>
+      <c r="BO18" s="28"/>
+      <c r="BP18" s="28"/>
+      <c r="BQ18" s="28"/>
+      <c r="BR18" s="28"/>
+      <c r="BS18" s="28"/>
+      <c r="BT18" s="28"/>
+      <c r="BU18" s="28"/>
+      <c r="BV18" s="28"/>
+      <c r="BW18" s="28"/>
+      <c r="BX18" s="28"/>
+      <c r="BY18" s="28"/>
+      <c r="BZ18" s="28"/>
+      <c r="CA18" s="28"/>
+      <c r="CB18" s="28"/>
+      <c r="CC18" s="28"/>
+      <c r="CD18" s="28"/>
+      <c r="CE18" s="28"/>
+      <c r="CF18" s="28"/>
+      <c r="CG18" s="28"/>
+      <c r="CH18" s="28"/>
+      <c r="CI18" s="28"/>
+      <c r="CJ18" s="28"/>
+      <c r="CK18" s="28"/>
+      <c r="CL18" s="28"/>
+      <c r="CM18" s="28"/>
+      <c r="CN18" s="28"/>
+      <c r="CO18" s="28"/>
+      <c r="CP18" s="28"/>
+      <c r="CQ18" s="28"/>
+      <c r="CR18" s="28"/>
+      <c r="CS18" s="28"/>
+      <c r="CT18" s="28"/>
+      <c r="CU18" s="28"/>
+      <c r="CV18" s="28"/>
+      <c r="CW18" s="28"/>
+      <c r="CX18" s="28"/>
+      <c r="CY18" s="28"/>
+      <c r="CZ18" s="28"/>
+      <c r="DA18" s="28"/>
+      <c r="DB18" s="28"/>
+      <c r="DC18" s="28"/>
+      <c r="DD18" s="28"/>
+      <c r="DE18" s="28"/>
+      <c r="DF18" s="28"/>
+      <c r="DG18" s="28"/>
+      <c r="DH18" s="28"/>
+      <c r="DI18" s="28"/>
+      <c r="DJ18" s="28"/>
+      <c r="DK18" s="28"/>
+      <c r="DL18" s="28"/>
+      <c r="DM18" s="28"/>
+      <c r="DN18" s="28"/>
+      <c r="DO18" s="28"/>
+      <c r="DP18" s="28"/>
+      <c r="DQ18" s="28"/>
+      <c r="DR18" s="28"/>
+      <c r="DS18" s="28"/>
+      <c r="DT18" s="28"/>
+      <c r="DU18" s="28"/>
+      <c r="DV18" s="28"/>
+      <c r="DW18" s="28"/>
+      <c r="DX18" s="28"/>
+      <c r="DY18" s="28"/>
+      <c r="DZ18" s="28"/>
+      <c r="EA18" s="28"/>
+      <c r="EB18" s="28"/>
+      <c r="EC18" s="28"/>
+      <c r="ED18" s="28"/>
+      <c r="EE18" s="28"/>
+      <c r="EF18" s="28"/>
+      <c r="EG18" s="28"/>
+      <c r="EH18" s="28"/>
+      <c r="EI18" s="28"/>
+      <c r="EJ18" s="28"/>
+      <c r="EK18" s="28"/>
+      <c r="EL18" s="28"/>
+      <c r="EM18" s="28"/>
+      <c r="EN18" s="28"/>
+      <c r="EO18" s="28"/>
+      <c r="EP18" s="28"/>
+      <c r="EQ18" s="28"/>
+      <c r="ER18" s="28"/>
+      <c r="ES18" s="28"/>
+      <c r="ET18" s="28"/>
+      <c r="EU18" s="28"/>
+      <c r="EV18" s="28"/>
+      <c r="EW18" s="28"/>
+      <c r="EX18" s="28"/>
+      <c r="EY18" s="28"/>
+      <c r="EZ18" s="28"/>
+      <c r="FA18" s="28"/>
+      <c r="FB18" s="28"/>
+      <c r="FC18" s="28"/>
+      <c r="FD18" s="28"/>
+      <c r="FE18" s="28"/>
+      <c r="FF18" s="28"/>
+      <c r="FG18" s="28"/>
+      <c r="FH18" s="28"/>
+      <c r="FI18" s="28"/>
+      <c r="FJ18" s="28"/>
+      <c r="FK18" s="28"/>
+      <c r="FL18" s="28"/>
+      <c r="FM18" s="28"/>
+      <c r="FN18" s="28"/>
+      <c r="FO18" s="28"/>
+      <c r="FP18" s="28"/>
+      <c r="FQ18" s="28"/>
+      <c r="FR18" s="28"/>
+      <c r="FS18" s="28"/>
+      <c r="FT18" s="28"/>
+      <c r="FU18" s="28"/>
+      <c r="FV18" s="28"/>
+      <c r="FW18" s="28"/>
+      <c r="FX18" s="28"/>
+      <c r="FY18" s="28"/>
+      <c r="FZ18" s="28"/>
+      <c r="GA18" s="28"/>
+      <c r="GB18" s="28"/>
+      <c r="GC18" s="28"/>
+      <c r="GD18" s="28"/>
+      <c r="GE18" s="28"/>
+      <c r="GF18" s="28"/>
+      <c r="GG18" s="28"/>
+      <c r="GH18" s="28"/>
+      <c r="GI18" s="28"/>
+      <c r="GJ18" s="28"/>
+      <c r="GK18" s="28"/>
+      <c r="GL18" s="28"/>
+      <c r="GM18" s="28"/>
+      <c r="GN18" s="28"/>
+      <c r="GO18" s="28"/>
+      <c r="GP18" s="28"/>
+      <c r="GQ18" s="28"/>
+      <c r="GR18" s="28"/>
+      <c r="GS18" s="28"/>
+      <c r="GT18" s="28"/>
+      <c r="GU18" s="28"/>
+      <c r="GV18" s="28"/>
+      <c r="GW18" s="28"/>
+      <c r="GX18" s="28"/>
+      <c r="GY18" s="28"/>
+      <c r="GZ18" s="28"/>
+      <c r="HA18" s="28"/>
+      <c r="HB18" s="28"/>
+      <c r="HC18" s="28"/>
+      <c r="HD18" s="28"/>
+      <c r="HE18" s="28"/>
+      <c r="HF18" s="28"/>
+      <c r="HG18" s="28"/>
+      <c r="HH18" s="28"/>
+      <c r="HI18" s="28"/>
+      <c r="HJ18" s="28"/>
+      <c r="HK18" s="28"/>
+      <c r="HL18" s="28"/>
+      <c r="HM18" s="28"/>
+      <c r="HN18" s="28"/>
+      <c r="HO18" s="28"/>
+      <c r="HP18" s="28"/>
+      <c r="HQ18" s="28"/>
+      <c r="HR18" s="28"/>
+      <c r="HS18" s="28"/>
+      <c r="HT18" s="28"/>
+      <c r="HU18" s="28"/>
+      <c r="HV18" s="28"/>
+      <c r="HW18" s="28"/>
+      <c r="HX18" s="28"/>
+      <c r="HY18" s="28"/>
+      <c r="HZ18" s="28"/>
+      <c r="IA18" s="28"/>
+      <c r="IB18" s="28"/>
+      <c r="IC18" s="28"/>
+      <c r="ID18" s="28"/>
+      <c r="IE18" s="28"/>
+      <c r="IF18" s="28"/>
+      <c r="IG18" s="28"/>
+      <c r="IH18" s="28"/>
+      <c r="II18" s="28"/>
+      <c r="IJ18" s="28"/>
+      <c r="IK18" s="28"/>
+      <c r="IL18" s="28"/>
+      <c r="IM18" s="28"/>
+      <c r="IN18" s="28"/>
+      <c r="IO18" s="28"/>
+      <c r="IP18" s="28"/>
+    </row>
+    <row r="19" spans="1:250" s="29" customFormat="1" ht="141" customHeight="1">
+      <c r="A19" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
+      <c r="AK19" s="28"/>
+      <c r="AL19" s="28"/>
+      <c r="AM19" s="28"/>
+      <c r="AN19" s="28"/>
+      <c r="AO19" s="28"/>
+      <c r="AP19" s="28"/>
+      <c r="AQ19" s="28"/>
+      <c r="AR19" s="28"/>
+      <c r="AS19" s="28"/>
+      <c r="AT19" s="28"/>
+      <c r="AU19" s="28"/>
+      <c r="AV19" s="28"/>
+      <c r="AW19" s="28"/>
+      <c r="AX19" s="28"/>
+      <c r="AY19" s="28"/>
+      <c r="AZ19" s="28"/>
+      <c r="BA19" s="28"/>
+      <c r="BB19" s="28"/>
+      <c r="BC19" s="28"/>
+      <c r="BD19" s="28"/>
+      <c r="BE19" s="28"/>
+      <c r="BF19" s="28"/>
+      <c r="BG19" s="28"/>
+      <c r="BH19" s="28"/>
+      <c r="BI19" s="28"/>
+      <c r="BJ19" s="28"/>
+      <c r="BK19" s="28"/>
+      <c r="BL19" s="28"/>
+      <c r="BM19" s="28"/>
+      <c r="BN19" s="28"/>
+      <c r="BO19" s="28"/>
+      <c r="BP19" s="28"/>
+      <c r="BQ19" s="28"/>
+      <c r="BR19" s="28"/>
+      <c r="BS19" s="28"/>
+      <c r="BT19" s="28"/>
+      <c r="BU19" s="28"/>
+      <c r="BV19" s="28"/>
+      <c r="BW19" s="28"/>
+      <c r="BX19" s="28"/>
+      <c r="BY19" s="28"/>
+      <c r="BZ19" s="28"/>
+      <c r="CA19" s="28"/>
+      <c r="CB19" s="28"/>
+      <c r="CC19" s="28"/>
+      <c r="CD19" s="28"/>
+      <c r="CE19" s="28"/>
+      <c r="CF19" s="28"/>
+      <c r="CG19" s="28"/>
+      <c r="CH19" s="28"/>
+      <c r="CI19" s="28"/>
+      <c r="CJ19" s="28"/>
+      <c r="CK19" s="28"/>
+      <c r="CL19" s="28"/>
+      <c r="CM19" s="28"/>
+      <c r="CN19" s="28"/>
+      <c r="CO19" s="28"/>
+      <c r="CP19" s="28"/>
+      <c r="CQ19" s="28"/>
+      <c r="CR19" s="28"/>
+      <c r="CS19" s="28"/>
+      <c r="CT19" s="28"/>
+      <c r="CU19" s="28"/>
+      <c r="CV19" s="28"/>
+      <c r="CW19" s="28"/>
+      <c r="CX19" s="28"/>
+      <c r="CY19" s="28"/>
+      <c r="CZ19" s="28"/>
+      <c r="DA19" s="28"/>
+      <c r="DB19" s="28"/>
+      <c r="DC19" s="28"/>
+      <c r="DD19" s="28"/>
+      <c r="DE19" s="28"/>
+      <c r="DF19" s="28"/>
+      <c r="DG19" s="28"/>
+      <c r="DH19" s="28"/>
+      <c r="DI19" s="28"/>
+      <c r="DJ19" s="28"/>
+      <c r="DK19" s="28"/>
+      <c r="DL19" s="28"/>
+      <c r="DM19" s="28"/>
+      <c r="DN19" s="28"/>
+      <c r="DO19" s="28"/>
+      <c r="DP19" s="28"/>
+      <c r="DQ19" s="28"/>
+      <c r="DR19" s="28"/>
+      <c r="DS19" s="28"/>
+      <c r="DT19" s="28"/>
+      <c r="DU19" s="28"/>
+      <c r="DV19" s="28"/>
+      <c r="DW19" s="28"/>
+      <c r="DX19" s="28"/>
+      <c r="DY19" s="28"/>
+      <c r="DZ19" s="28"/>
+      <c r="EA19" s="28"/>
+      <c r="EB19" s="28"/>
+      <c r="EC19" s="28"/>
+      <c r="ED19" s="28"/>
+      <c r="EE19" s="28"/>
+      <c r="EF19" s="28"/>
+      <c r="EG19" s="28"/>
+      <c r="EH19" s="28"/>
+      <c r="EI19" s="28"/>
+      <c r="EJ19" s="28"/>
+      <c r="EK19" s="28"/>
+      <c r="EL19" s="28"/>
+      <c r="EM19" s="28"/>
+      <c r="EN19" s="28"/>
+      <c r="EO19" s="28"/>
+      <c r="EP19" s="28"/>
+      <c r="EQ19" s="28"/>
+      <c r="ER19" s="28"/>
+      <c r="ES19" s="28"/>
+      <c r="ET19" s="28"/>
+      <c r="EU19" s="28"/>
+      <c r="EV19" s="28"/>
+      <c r="EW19" s="28"/>
+      <c r="EX19" s="28"/>
+      <c r="EY19" s="28"/>
+      <c r="EZ19" s="28"/>
+      <c r="FA19" s="28"/>
+      <c r="FB19" s="28"/>
+      <c r="FC19" s="28"/>
+      <c r="FD19" s="28"/>
+      <c r="FE19" s="28"/>
+      <c r="FF19" s="28"/>
+      <c r="FG19" s="28"/>
+      <c r="FH19" s="28"/>
+      <c r="FI19" s="28"/>
+      <c r="FJ19" s="28"/>
+      <c r="FK19" s="28"/>
+      <c r="FL19" s="28"/>
+      <c r="FM19" s="28"/>
+      <c r="FN19" s="28"/>
+      <c r="FO19" s="28"/>
+      <c r="FP19" s="28"/>
+      <c r="FQ19" s="28"/>
+      <c r="FR19" s="28"/>
+      <c r="FS19" s="28"/>
+      <c r="FT19" s="28"/>
+      <c r="FU19" s="28"/>
+      <c r="FV19" s="28"/>
+      <c r="FW19" s="28"/>
+      <c r="FX19" s="28"/>
+      <c r="FY19" s="28"/>
+      <c r="FZ19" s="28"/>
+      <c r="GA19" s="28"/>
+      <c r="GB19" s="28"/>
+      <c r="GC19" s="28"/>
+      <c r="GD19" s="28"/>
+      <c r="GE19" s="28"/>
+      <c r="GF19" s="28"/>
+      <c r="GG19" s="28"/>
+      <c r="GH19" s="28"/>
+      <c r="GI19" s="28"/>
+      <c r="GJ19" s="28"/>
+      <c r="GK19" s="28"/>
+      <c r="GL19" s="28"/>
+      <c r="GM19" s="28"/>
+      <c r="GN19" s="28"/>
+      <c r="GO19" s="28"/>
+      <c r="GP19" s="28"/>
+      <c r="GQ19" s="28"/>
+      <c r="GR19" s="28"/>
+      <c r="GS19" s="28"/>
+      <c r="GT19" s="28"/>
+      <c r="GU19" s="28"/>
+      <c r="GV19" s="28"/>
+      <c r="GW19" s="28"/>
+      <c r="GX19" s="28"/>
+      <c r="GY19" s="28"/>
+      <c r="GZ19" s="28"/>
+      <c r="HA19" s="28"/>
+      <c r="HB19" s="28"/>
+      <c r="HC19" s="28"/>
+      <c r="HD19" s="28"/>
+      <c r="HE19" s="28"/>
+      <c r="HF19" s="28"/>
+      <c r="HG19" s="28"/>
+      <c r="HH19" s="28"/>
+      <c r="HI19" s="28"/>
+      <c r="HJ19" s="28"/>
+      <c r="HK19" s="28"/>
+      <c r="HL19" s="28"/>
+      <c r="HM19" s="28"/>
+      <c r="HN19" s="28"/>
+      <c r="HO19" s="28"/>
+      <c r="HP19" s="28"/>
+      <c r="HQ19" s="28"/>
+      <c r="HR19" s="28"/>
+      <c r="HS19" s="28"/>
+      <c r="HT19" s="28"/>
+      <c r="HU19" s="28"/>
+      <c r="HV19" s="28"/>
+      <c r="HW19" s="28"/>
+      <c r="HX19" s="28"/>
+      <c r="HY19" s="28"/>
+      <c r="HZ19" s="28"/>
+      <c r="IA19" s="28"/>
+      <c r="IB19" s="28"/>
+      <c r="IC19" s="28"/>
+      <c r="ID19" s="28"/>
+      <c r="IE19" s="28"/>
+      <c r="IF19" s="28"/>
+      <c r="IG19" s="28"/>
+      <c r="IH19" s="28"/>
+      <c r="II19" s="28"/>
+      <c r="IJ19" s="28"/>
+      <c r="IK19" s="28"/>
+      <c r="IL19" s="28"/>
+      <c r="IM19" s="28"/>
+      <c r="IN19" s="28"/>
+      <c r="IO19" s="28"/>
+      <c r="IP19" s="28"/>
+    </row>
+    <row r="20" spans="1:250" s="29" customFormat="1" ht="118.5" customHeight="1">
+      <c r="A20" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="28"/>
+      <c r="AL20" s="28"/>
+      <c r="AM20" s="28"/>
+      <c r="AN20" s="28"/>
+      <c r="AO20" s="28"/>
+      <c r="AP20" s="28"/>
+      <c r="AQ20" s="28"/>
+      <c r="AR20" s="28"/>
+      <c r="AS20" s="28"/>
+      <c r="AT20" s="28"/>
+      <c r="AU20" s="28"/>
+      <c r="AV20" s="28"/>
+      <c r="AW20" s="28"/>
+      <c r="AX20" s="28"/>
+      <c r="AY20" s="28"/>
+      <c r="AZ20" s="28"/>
+      <c r="BA20" s="28"/>
+      <c r="BB20" s="28"/>
+      <c r="BC20" s="28"/>
+      <c r="BD20" s="28"/>
+      <c r="BE20" s="28"/>
+      <c r="BF20" s="28"/>
+      <c r="BG20" s="28"/>
+      <c r="BH20" s="28"/>
+      <c r="BI20" s="28"/>
+      <c r="BJ20" s="28"/>
+      <c r="BK20" s="28"/>
+      <c r="BL20" s="28"/>
+      <c r="BM20" s="28"/>
+      <c r="BN20" s="28"/>
+      <c r="BO20" s="28"/>
+      <c r="BP20" s="28"/>
+      <c r="BQ20" s="28"/>
+      <c r="BR20" s="28"/>
+      <c r="BS20" s="28"/>
+      <c r="BT20" s="28"/>
+      <c r="BU20" s="28"/>
+      <c r="BV20" s="28"/>
+      <c r="BW20" s="28"/>
+      <c r="BX20" s="28"/>
+      <c r="BY20" s="28"/>
+      <c r="BZ20" s="28"/>
+      <c r="CA20" s="28"/>
+      <c r="CB20" s="28"/>
+      <c r="CC20" s="28"/>
+      <c r="CD20" s="28"/>
+      <c r="CE20" s="28"/>
+      <c r="CF20" s="28"/>
+      <c r="CG20" s="28"/>
+      <c r="CH20" s="28"/>
+      <c r="CI20" s="28"/>
+      <c r="CJ20" s="28"/>
+      <c r="CK20" s="28"/>
+      <c r="CL20" s="28"/>
+      <c r="CM20" s="28"/>
+      <c r="CN20" s="28"/>
+      <c r="CO20" s="28"/>
+      <c r="CP20" s="28"/>
+      <c r="CQ20" s="28"/>
+      <c r="CR20" s="28"/>
+      <c r="CS20" s="28"/>
+      <c r="CT20" s="28"/>
+      <c r="CU20" s="28"/>
+      <c r="CV20" s="28"/>
+      <c r="CW20" s="28"/>
+      <c r="CX20" s="28"/>
+      <c r="CY20" s="28"/>
+      <c r="CZ20" s="28"/>
+      <c r="DA20" s="28"/>
+      <c r="DB20" s="28"/>
+      <c r="DC20" s="28"/>
+      <c r="DD20" s="28"/>
+      <c r="DE20" s="28"/>
+      <c r="DF20" s="28"/>
+      <c r="DG20" s="28"/>
+      <c r="DH20" s="28"/>
+      <c r="DI20" s="28"/>
+      <c r="DJ20" s="28"/>
+      <c r="DK20" s="28"/>
+      <c r="DL20" s="28"/>
+      <c r="DM20" s="28"/>
+      <c r="DN20" s="28"/>
+      <c r="DO20" s="28"/>
+      <c r="DP20" s="28"/>
+      <c r="DQ20" s="28"/>
+      <c r="DR20" s="28"/>
+      <c r="DS20" s="28"/>
+      <c r="DT20" s="28"/>
+      <c r="DU20" s="28"/>
+      <c r="DV20" s="28"/>
+      <c r="DW20" s="28"/>
+      <c r="DX20" s="28"/>
+      <c r="DY20" s="28"/>
+      <c r="DZ20" s="28"/>
+      <c r="EA20" s="28"/>
+      <c r="EB20" s="28"/>
+      <c r="EC20" s="28"/>
+      <c r="ED20" s="28"/>
+      <c r="EE20" s="28"/>
+      <c r="EF20" s="28"/>
+      <c r="EG20" s="28"/>
+      <c r="EH20" s="28"/>
+      <c r="EI20" s="28"/>
+      <c r="EJ20" s="28"/>
+      <c r="EK20" s="28"/>
+      <c r="EL20" s="28"/>
+      <c r="EM20" s="28"/>
+      <c r="EN20" s="28"/>
+      <c r="EO20" s="28"/>
+      <c r="EP20" s="28"/>
+      <c r="EQ20" s="28"/>
+      <c r="ER20" s="28"/>
+      <c r="ES20" s="28"/>
+      <c r="ET20" s="28"/>
+      <c r="EU20" s="28"/>
+      <c r="EV20" s="28"/>
+      <c r="EW20" s="28"/>
+      <c r="EX20" s="28"/>
+      <c r="EY20" s="28"/>
+      <c r="EZ20" s="28"/>
+      <c r="FA20" s="28"/>
+      <c r="FB20" s="28"/>
+      <c r="FC20" s="28"/>
+      <c r="FD20" s="28"/>
+      <c r="FE20" s="28"/>
+      <c r="FF20" s="28"/>
+      <c r="FG20" s="28"/>
+      <c r="FH20" s="28"/>
+      <c r="FI20" s="28"/>
+      <c r="FJ20" s="28"/>
+      <c r="FK20" s="28"/>
+      <c r="FL20" s="28"/>
+      <c r="FM20" s="28"/>
+      <c r="FN20" s="28"/>
+      <c r="FO20" s="28"/>
+      <c r="FP20" s="28"/>
+      <c r="FQ20" s="28"/>
+      <c r="FR20" s="28"/>
+      <c r="FS20" s="28"/>
+      <c r="FT20" s="28"/>
+      <c r="FU20" s="28"/>
+      <c r="FV20" s="28"/>
+      <c r="FW20" s="28"/>
+      <c r="FX20" s="28"/>
+      <c r="FY20" s="28"/>
+      <c r="FZ20" s="28"/>
+      <c r="GA20" s="28"/>
+      <c r="GB20" s="28"/>
+      <c r="GC20" s="28"/>
+      <c r="GD20" s="28"/>
+      <c r="GE20" s="28"/>
+      <c r="GF20" s="28"/>
+      <c r="GG20" s="28"/>
+      <c r="GH20" s="28"/>
+      <c r="GI20" s="28"/>
+      <c r="GJ20" s="28"/>
+      <c r="GK20" s="28"/>
+      <c r="GL20" s="28"/>
+      <c r="GM20" s="28"/>
+      <c r="GN20" s="28"/>
+      <c r="GO20" s="28"/>
+      <c r="GP20" s="28"/>
+      <c r="GQ20" s="28"/>
+      <c r="GR20" s="28"/>
+      <c r="GS20" s="28"/>
+      <c r="GT20" s="28"/>
+      <c r="GU20" s="28"/>
+      <c r="GV20" s="28"/>
+      <c r="GW20" s="28"/>
+      <c r="GX20" s="28"/>
+      <c r="GY20" s="28"/>
+      <c r="GZ20" s="28"/>
+      <c r="HA20" s="28"/>
+      <c r="HB20" s="28"/>
+      <c r="HC20" s="28"/>
+      <c r="HD20" s="28"/>
+      <c r="HE20" s="28"/>
+      <c r="HF20" s="28"/>
+      <c r="HG20" s="28"/>
+      <c r="HH20" s="28"/>
+      <c r="HI20" s="28"/>
+      <c r="HJ20" s="28"/>
+      <c r="HK20" s="28"/>
+      <c r="HL20" s="28"/>
+      <c r="HM20" s="28"/>
+      <c r="HN20" s="28"/>
+      <c r="HO20" s="28"/>
+      <c r="HP20" s="28"/>
+      <c r="HQ20" s="28"/>
+      <c r="HR20" s="28"/>
+      <c r="HS20" s="28"/>
+      <c r="HT20" s="28"/>
+      <c r="HU20" s="28"/>
+      <c r="HV20" s="28"/>
+      <c r="HW20" s="28"/>
+      <c r="HX20" s="28"/>
+      <c r="HY20" s="28"/>
+      <c r="HZ20" s="28"/>
+      <c r="IA20" s="28"/>
+      <c r="IB20" s="28"/>
+      <c r="IC20" s="28"/>
+      <c r="ID20" s="28"/>
+      <c r="IE20" s="28"/>
+      <c r="IF20" s="28"/>
+      <c r="IG20" s="28"/>
+      <c r="IH20" s="28"/>
+      <c r="II20" s="28"/>
+      <c r="IJ20" s="28"/>
+      <c r="IK20" s="28"/>
+      <c r="IL20" s="28"/>
+      <c r="IM20" s="28"/>
+      <c r="IN20" s="28"/>
+      <c r="IO20" s="28"/>
+      <c r="IP20" s="28"/>
+    </row>
+    <row r="21" spans="1:250" s="29" customFormat="1" ht="129.75" customHeight="1">
+      <c r="A21" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="28"/>
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="28"/>
+      <c r="AK21" s="28"/>
+      <c r="AL21" s="28"/>
+      <c r="AM21" s="28"/>
+      <c r="AN21" s="28"/>
+      <c r="AO21" s="28"/>
+      <c r="AP21" s="28"/>
+      <c r="AQ21" s="28"/>
+      <c r="AR21" s="28"/>
+      <c r="AS21" s="28"/>
+      <c r="AT21" s="28"/>
+      <c r="AU21" s="28"/>
+      <c r="AV21" s="28"/>
+      <c r="AW21" s="28"/>
+      <c r="AX21" s="28"/>
+      <c r="AY21" s="28"/>
+      <c r="AZ21" s="28"/>
+      <c r="BA21" s="28"/>
+      <c r="BB21" s="28"/>
+      <c r="BC21" s="28"/>
+      <c r="BD21" s="28"/>
+      <c r="BE21" s="28"/>
+      <c r="BF21" s="28"/>
+      <c r="BG21" s="28"/>
+      <c r="BH21" s="28"/>
+      <c r="BI21" s="28"/>
+      <c r="BJ21" s="28"/>
+      <c r="BK21" s="28"/>
+      <c r="BL21" s="28"/>
+      <c r="BM21" s="28"/>
+      <c r="BN21" s="28"/>
+      <c r="BO21" s="28"/>
+      <c r="BP21" s="28"/>
+      <c r="BQ21" s="28"/>
+      <c r="BR21" s="28"/>
+      <c r="BS21" s="28"/>
+      <c r="BT21" s="28"/>
+      <c r="BU21" s="28"/>
+      <c r="BV21" s="28"/>
+      <c r="BW21" s="28"/>
+      <c r="BX21" s="28"/>
+      <c r="BY21" s="28"/>
+      <c r="BZ21" s="28"/>
+      <c r="CA21" s="28"/>
+      <c r="CB21" s="28"/>
+      <c r="CC21" s="28"/>
+      <c r="CD21" s="28"/>
+      <c r="CE21" s="28"/>
+      <c r="CF21" s="28"/>
+      <c r="CG21" s="28"/>
+      <c r="CH21" s="28"/>
+      <c r="CI21" s="28"/>
+      <c r="CJ21" s="28"/>
+      <c r="CK21" s="28"/>
+      <c r="CL21" s="28"/>
+      <c r="CM21" s="28"/>
+      <c r="CN21" s="28"/>
+      <c r="CO21" s="28"/>
+      <c r="CP21" s="28"/>
+      <c r="CQ21" s="28"/>
+      <c r="CR21" s="28"/>
+      <c r="CS21" s="28"/>
+      <c r="CT21" s="28"/>
+      <c r="CU21" s="28"/>
+      <c r="CV21" s="28"/>
+      <c r="CW21" s="28"/>
+      <c r="CX21" s="28"/>
+      <c r="CY21" s="28"/>
+      <c r="CZ21" s="28"/>
+      <c r="DA21" s="28"/>
+      <c r="DB21" s="28"/>
+      <c r="DC21" s="28"/>
+      <c r="DD21" s="28"/>
+      <c r="DE21" s="28"/>
+      <c r="DF21" s="28"/>
+      <c r="DG21" s="28"/>
+      <c r="DH21" s="28"/>
+      <c r="DI21" s="28"/>
+      <c r="DJ21" s="28"/>
+      <c r="DK21" s="28"/>
+      <c r="DL21" s="28"/>
+      <c r="DM21" s="28"/>
+      <c r="DN21" s="28"/>
+      <c r="DO21" s="28"/>
+      <c r="DP21" s="28"/>
+      <c r="DQ21" s="28"/>
+      <c r="DR21" s="28"/>
+      <c r="DS21" s="28"/>
+      <c r="DT21" s="28"/>
+      <c r="DU21" s="28"/>
+      <c r="DV21" s="28"/>
+      <c r="DW21" s="28"/>
+      <c r="DX21" s="28"/>
+      <c r="DY21" s="28"/>
+      <c r="DZ21" s="28"/>
+      <c r="EA21" s="28"/>
+      <c r="EB21" s="28"/>
+      <c r="EC21" s="28"/>
+      <c r="ED21" s="28"/>
+      <c r="EE21" s="28"/>
+      <c r="EF21" s="28"/>
+      <c r="EG21" s="28"/>
+      <c r="EH21" s="28"/>
+      <c r="EI21" s="28"/>
+      <c r="EJ21" s="28"/>
+      <c r="EK21" s="28"/>
+      <c r="EL21" s="28"/>
+      <c r="EM21" s="28"/>
+      <c r="EN21" s="28"/>
+      <c r="EO21" s="28"/>
+      <c r="EP21" s="28"/>
+      <c r="EQ21" s="28"/>
+      <c r="ER21" s="28"/>
+      <c r="ES21" s="28"/>
+      <c r="ET21" s="28"/>
+      <c r="EU21" s="28"/>
+      <c r="EV21" s="28"/>
+      <c r="EW21" s="28"/>
+      <c r="EX21" s="28"/>
+      <c r="EY21" s="28"/>
+      <c r="EZ21" s="28"/>
+      <c r="FA21" s="28"/>
+      <c r="FB21" s="28"/>
+      <c r="FC21" s="28"/>
+      <c r="FD21" s="28"/>
+      <c r="FE21" s="28"/>
+      <c r="FF21" s="28"/>
+      <c r="FG21" s="28"/>
+      <c r="FH21" s="28"/>
+      <c r="FI21" s="28"/>
+      <c r="FJ21" s="28"/>
+      <c r="FK21" s="28"/>
+      <c r="FL21" s="28"/>
+      <c r="FM21" s="28"/>
+      <c r="FN21" s="28"/>
+      <c r="FO21" s="28"/>
+      <c r="FP21" s="28"/>
+      <c r="FQ21" s="28"/>
+      <c r="FR21" s="28"/>
+      <c r="FS21" s="28"/>
+      <c r="FT21" s="28"/>
+      <c r="FU21" s="28"/>
+      <c r="FV21" s="28"/>
+      <c r="FW21" s="28"/>
+      <c r="FX21" s="28"/>
+      <c r="FY21" s="28"/>
+      <c r="FZ21" s="28"/>
+      <c r="GA21" s="28"/>
+      <c r="GB21" s="28"/>
+      <c r="GC21" s="28"/>
+      <c r="GD21" s="28"/>
+      <c r="GE21" s="28"/>
+      <c r="GF21" s="28"/>
+      <c r="GG21" s="28"/>
+      <c r="GH21" s="28"/>
+      <c r="GI21" s="28"/>
+      <c r="GJ21" s="28"/>
+      <c r="GK21" s="28"/>
+      <c r="GL21" s="28"/>
+      <c r="GM21" s="28"/>
+      <c r="GN21" s="28"/>
+      <c r="GO21" s="28"/>
+      <c r="GP21" s="28"/>
+      <c r="GQ21" s="28"/>
+      <c r="GR21" s="28"/>
+      <c r="GS21" s="28"/>
+      <c r="GT21" s="28"/>
+      <c r="GU21" s="28"/>
+      <c r="GV21" s="28"/>
+      <c r="GW21" s="28"/>
+      <c r="GX21" s="28"/>
+      <c r="GY21" s="28"/>
+      <c r="GZ21" s="28"/>
+      <c r="HA21" s="28"/>
+      <c r="HB21" s="28"/>
+      <c r="HC21" s="28"/>
+      <c r="HD21" s="28"/>
+      <c r="HE21" s="28"/>
+      <c r="HF21" s="28"/>
+      <c r="HG21" s="28"/>
+      <c r="HH21" s="28"/>
+      <c r="HI21" s="28"/>
+      <c r="HJ21" s="28"/>
+      <c r="HK21" s="28"/>
+      <c r="HL21" s="28"/>
+      <c r="HM21" s="28"/>
+      <c r="HN21" s="28"/>
+      <c r="HO21" s="28"/>
+      <c r="HP21" s="28"/>
+      <c r="HQ21" s="28"/>
+      <c r="HR21" s="28"/>
+      <c r="HS21" s="28"/>
+      <c r="HT21" s="28"/>
+      <c r="HU21" s="28"/>
+      <c r="HV21" s="28"/>
+      <c r="HW21" s="28"/>
+      <c r="HX21" s="28"/>
+      <c r="HY21" s="28"/>
+      <c r="HZ21" s="28"/>
+      <c r="IA21" s="28"/>
+      <c r="IB21" s="28"/>
+      <c r="IC21" s="28"/>
+      <c r="ID21" s="28"/>
+      <c r="IE21" s="28"/>
+      <c r="IF21" s="28"/>
+      <c r="IG21" s="28"/>
+      <c r="IH21" s="28"/>
+      <c r="II21" s="28"/>
+      <c r="IJ21" s="28"/>
+      <c r="IK21" s="28"/>
+      <c r="IL21" s="28"/>
+      <c r="IM21" s="28"/>
+      <c r="IN21" s="28"/>
+      <c r="IO21" s="28"/>
+      <c r="IP21" s="28"/>
+    </row>
+    <row r="22" spans="1:250" s="40" customFormat="1" ht="141.75" customHeight="1">
+      <c r="A22" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="39"/>
+      <c r="AF22" s="39"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="39"/>
+      <c r="AI22" s="39"/>
+      <c r="AJ22" s="39"/>
+      <c r="AK22" s="39"/>
+      <c r="AL22" s="39"/>
+      <c r="AM22" s="39"/>
+      <c r="AN22" s="39"/>
+      <c r="AO22" s="39"/>
+      <c r="AP22" s="39"/>
+      <c r="AQ22" s="39"/>
+      <c r="AR22" s="39"/>
+      <c r="AS22" s="39"/>
+      <c r="AT22" s="39"/>
+      <c r="AU22" s="39"/>
+      <c r="AV22" s="39"/>
+      <c r="AW22" s="39"/>
+      <c r="AX22" s="39"/>
+      <c r="AY22" s="39"/>
+      <c r="AZ22" s="39"/>
+      <c r="BA22" s="39"/>
+      <c r="BB22" s="39"/>
+      <c r="BC22" s="39"/>
+      <c r="BD22" s="39"/>
+      <c r="BE22" s="39"/>
+      <c r="BF22" s="39"/>
+      <c r="BG22" s="39"/>
+      <c r="BH22" s="39"/>
+      <c r="BI22" s="39"/>
+      <c r="BJ22" s="39"/>
+      <c r="BK22" s="39"/>
+      <c r="BL22" s="39"/>
+      <c r="BM22" s="39"/>
+      <c r="BN22" s="39"/>
+      <c r="BO22" s="39"/>
+      <c r="BP22" s="39"/>
+      <c r="BQ22" s="39"/>
+      <c r="BR22" s="39"/>
+      <c r="BS22" s="39"/>
+      <c r="BT22" s="39"/>
+      <c r="BU22" s="39"/>
+      <c r="BV22" s="39"/>
+      <c r="BW22" s="39"/>
+      <c r="BX22" s="39"/>
+      <c r="BY22" s="39"/>
+      <c r="BZ22" s="39"/>
+      <c r="CA22" s="39"/>
+      <c r="CB22" s="39"/>
+      <c r="CC22" s="39"/>
+      <c r="CD22" s="39"/>
+      <c r="CE22" s="39"/>
+      <c r="CF22" s="39"/>
+      <c r="CG22" s="39"/>
+      <c r="CH22" s="39"/>
+      <c r="CI22" s="39"/>
+      <c r="CJ22" s="39"/>
+      <c r="CK22" s="39"/>
+      <c r="CL22" s="39"/>
+      <c r="CM22" s="39"/>
+      <c r="CN22" s="39"/>
+      <c r="CO22" s="39"/>
+      <c r="CP22" s="39"/>
+      <c r="CQ22" s="39"/>
+      <c r="CR22" s="39"/>
+      <c r="CS22" s="39"/>
+      <c r="CT22" s="39"/>
+      <c r="CU22" s="39"/>
+      <c r="CV22" s="39"/>
+      <c r="CW22" s="39"/>
+      <c r="CX22" s="39"/>
+      <c r="CY22" s="39"/>
+      <c r="CZ22" s="39"/>
+      <c r="DA22" s="39"/>
+      <c r="DB22" s="39"/>
+      <c r="DC22" s="39"/>
+      <c r="DD22" s="39"/>
+      <c r="DE22" s="39"/>
+      <c r="DF22" s="39"/>
+      <c r="DG22" s="39"/>
+      <c r="DH22" s="39"/>
+      <c r="DI22" s="39"/>
+      <c r="DJ22" s="39"/>
+      <c r="DK22" s="39"/>
+      <c r="DL22" s="39"/>
+      <c r="DM22" s="39"/>
+      <c r="DN22" s="39"/>
+      <c r="DO22" s="39"/>
+      <c r="DP22" s="39"/>
+      <c r="DQ22" s="39"/>
+      <c r="DR22" s="39"/>
+      <c r="DS22" s="39"/>
+      <c r="DT22" s="39"/>
+      <c r="DU22" s="39"/>
+      <c r="DV22" s="39"/>
+      <c r="DW22" s="39"/>
+      <c r="DX22" s="39"/>
+      <c r="DY22" s="39"/>
+      <c r="DZ22" s="39"/>
+      <c r="EA22" s="39"/>
+      <c r="EB22" s="39"/>
+      <c r="EC22" s="39"/>
+      <c r="ED22" s="39"/>
+      <c r="EE22" s="39"/>
+      <c r="EF22" s="39"/>
+      <c r="EG22" s="39"/>
+      <c r="EH22" s="39"/>
+      <c r="EI22" s="39"/>
+      <c r="EJ22" s="39"/>
+      <c r="EK22" s="39"/>
+      <c r="EL22" s="39"/>
+      <c r="EM22" s="39"/>
+      <c r="EN22" s="39"/>
+      <c r="EO22" s="39"/>
+      <c r="EP22" s="39"/>
+      <c r="EQ22" s="39"/>
+      <c r="ER22" s="39"/>
+      <c r="ES22" s="39"/>
+      <c r="ET22" s="39"/>
+      <c r="EU22" s="39"/>
+      <c r="EV22" s="39"/>
+      <c r="EW22" s="39"/>
+      <c r="EX22" s="39"/>
+      <c r="EY22" s="39"/>
+      <c r="EZ22" s="39"/>
+      <c r="FA22" s="39"/>
+      <c r="FB22" s="39"/>
+      <c r="FC22" s="39"/>
+      <c r="FD22" s="39"/>
+      <c r="FE22" s="39"/>
+      <c r="FF22" s="39"/>
+      <c r="FG22" s="39"/>
+      <c r="FH22" s="39"/>
+      <c r="FI22" s="39"/>
+      <c r="FJ22" s="39"/>
+      <c r="FK22" s="39"/>
+      <c r="FL22" s="39"/>
+      <c r="FM22" s="39"/>
+      <c r="FN22" s="39"/>
+      <c r="FO22" s="39"/>
+      <c r="FP22" s="39"/>
+      <c r="FQ22" s="39"/>
+      <c r="FR22" s="39"/>
+      <c r="FS22" s="39"/>
+      <c r="FT22" s="39"/>
+      <c r="FU22" s="39"/>
+      <c r="FV22" s="39"/>
+      <c r="FW22" s="39"/>
+      <c r="FX22" s="39"/>
+      <c r="FY22" s="39"/>
+      <c r="FZ22" s="39"/>
+      <c r="GA22" s="39"/>
+      <c r="GB22" s="39"/>
+      <c r="GC22" s="39"/>
+      <c r="GD22" s="39"/>
+      <c r="GE22" s="39"/>
+      <c r="GF22" s="39"/>
+      <c r="GG22" s="39"/>
+      <c r="GH22" s="39"/>
+      <c r="GI22" s="39"/>
+      <c r="GJ22" s="39"/>
+      <c r="GK22" s="39"/>
+      <c r="GL22" s="39"/>
+      <c r="GM22" s="39"/>
+      <c r="GN22" s="39"/>
+      <c r="GO22" s="39"/>
+      <c r="GP22" s="39"/>
+      <c r="GQ22" s="39"/>
+      <c r="GR22" s="39"/>
+      <c r="GS22" s="39"/>
+      <c r="GT22" s="39"/>
+      <c r="GU22" s="39"/>
+      <c r="GV22" s="39"/>
+      <c r="GW22" s="39"/>
+      <c r="GX22" s="39"/>
+      <c r="GY22" s="39"/>
+      <c r="GZ22" s="39"/>
+      <c r="HA22" s="39"/>
+      <c r="HB22" s="39"/>
+      <c r="HC22" s="39"/>
+      <c r="HD22" s="39"/>
+      <c r="HE22" s="39"/>
+      <c r="HF22" s="39"/>
+      <c r="HG22" s="39"/>
+      <c r="HH22" s="39"/>
+      <c r="HI22" s="39"/>
+      <c r="HJ22" s="39"/>
+      <c r="HK22" s="39"/>
+      <c r="HL22" s="39"/>
+      <c r="HM22" s="39"/>
+      <c r="HN22" s="39"/>
+      <c r="HO22" s="39"/>
+      <c r="HP22" s="39"/>
+      <c r="HQ22" s="39"/>
+      <c r="HR22" s="39"/>
+      <c r="HS22" s="39"/>
+      <c r="HT22" s="39"/>
+      <c r="HU22" s="39"/>
+      <c r="HV22" s="39"/>
+      <c r="HW22" s="39"/>
+      <c r="HX22" s="39"/>
+      <c r="HY22" s="39"/>
+      <c r="HZ22" s="39"/>
+      <c r="IA22" s="39"/>
+      <c r="IB22" s="39"/>
+      <c r="IC22" s="39"/>
+      <c r="ID22" s="39"/>
+      <c r="IE22" s="39"/>
+      <c r="IF22" s="39"/>
+      <c r="IG22" s="39"/>
+      <c r="IH22" s="39"/>
+      <c r="II22" s="39"/>
+      <c r="IJ22" s="39"/>
+      <c r="IK22" s="39"/>
+      <c r="IL22" s="39"/>
+      <c r="IM22" s="39"/>
+      <c r="IN22" s="39"/>
+      <c r="IO22" s="39"/>
+      <c r="IP22" s="39"/>
+    </row>
+    <row r="23" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="17"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="17"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="17"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="17"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="17"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="17"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="17"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-    </row>
-    <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-    </row>
-    <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="17"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-    </row>
-    <row r="33" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="17"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-    </row>
-    <row r="34" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="17"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-    </row>
-    <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="17"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-    </row>
-    <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="17"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-    </row>
-    <row r="37" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="17"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-    </row>
-    <row r="38" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="17"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-    </row>
-    <row r="39" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="17"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-    </row>
-    <row r="40" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="17"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-    </row>
-    <row r="41" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="17"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-    </row>
-    <row r="42" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="17"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-    </row>
-    <row r="43" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+    </row>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="17"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-    </row>
-    <row r="44" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="17"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-    </row>
-    <row r="45" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="17"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-    </row>
-    <row r="46" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="17"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-    </row>
-    <row r="47" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="17"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-    </row>
-    <row r="48" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="17"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-    </row>
-    <row r="49" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="17"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-    </row>
-    <row r="50" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="17"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-    </row>
-    <row r="51" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="17"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-    </row>
-    <row r="52" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="17"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D19" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/cmip6/citations/cmip6_ipsl_citations.xlsx
+++ b/cmip6/citations/cmip6_ipsl_citations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="221">
   <si>
     <t>ES-DOC CMIP6 Model Citations</t>
   </si>
@@ -527,12 +527,559 @@
   <si>
     <t>https://www.geosci-model-dev.net/9/363/2016/gmd-9-363-2016.html</t>
   </si>
+  <si>
+    <t>Sadourny1984</t>
+  </si>
+  <si>
+    <t>"@incollection{
+   author = {Sadourny,R. and Laval,K.},
+   address = {Amsterdam},
+   booktitle = {New perspectives in Climate Modeling},
+   editor = {A.~Berger and C.~Nicolis},
+   key = {Sadourny, Laval, 1984},
+   pages = {173-197},
+   series = {Elsevier},
+   title = {January and {July} performance of the \protect{LMD} General Circulation Model},
+   year = {1984}
+}"</t>
+  </si>
+  <si>
+    <t>New perspectives in Climate Modeling</t>
+  </si>
+  <si>
+    <t>VanLeer1977</t>
+  </si>
+  <si>
+    <t>Towards the ultimate conservative difference scheme : {IV.} A new approach to numerical convection</t>
+  </si>
+  <si>
+    <t>"@article{
+   author = {Van Leer , Bram},
+   journal = {J. Computational Phys.},
+   pages = {276-299},
+   title = {Towards the ultimate conservative difference scheme : {IV.} A new approach to numerical convection},
+   volume = {23},
+   year = {1977}
+}"</t>
+  </si>
+  <si>
+    <t>Hourdin1999</t>
+  </si>
+  <si>
+    <t>"@article{
+   author = {Hourdin , F. and Armengaud , A.},
+   journal = {Mon. Wea. Rev.},
+   pages = {822--837},
+   title = {The Use of Finite-Volume Methods for Atmospheric Advection of Trace Species. Part I: Test of Vairious Formulations in a General Circulation Model},
+   volume = {127},
+   year = {1999}
+}"</t>
+  </si>
+  <si>
+    <t>The Use of Finite-Volume Methods for Atmospheric Advection of Trace Species. Part I: Test of Vairious Formulations in a General Circulation Model</t>
+  </si>
+  <si>
+    <t>LMDZ5B: the atmospheric component of the IPSL climate model with revisited parameterizations for clouds and convection</t>
+  </si>
+  <si>
+    <t>Hourdin2013a</t>
+  </si>
+  <si>
+    <t>10.1007/s00382-012-1343-y</t>
+  </si>
+  <si>
+    <t>http://adsabs.harvard.edu/abs/2013ClDy...40.2193H</t>
+  </si>
+  <si>
+    <t>"@article{
+   author = {{Hourdin}, F. and {Grandpeix}, J.-Y. and {Rio}, C. and {Bony}, S. and {Jam}, A. and {Cheruy}, F. and {Rochetin}, N. and {Fairhead}, L. and {Idelkadi}, A. and {Musat}, I. and {Dufresne}, J.-L. and {Lahellec}, A. and {Lefebvre}, M.-P. and {Roehrig}, R.},
+    title = "{LMDZ5B: the atmospheric component of the IPSL climate model with revisited parameterizations for clouds and convection}",
+  journal = {Clim. Dyn},
+ keywords = {Climate modeling, Physical parameterizations, Shallow convection, Deep convection, Climate change projections},
+     year = 2013,
+    month = may,
+   volume = 40,
+    pages = {2193-2222},
+      doi = {10.1007/s00382-012-1343-y},
+   adsurl = {http://adsabs.harvard.edu/abs/2013ClDy...40.2193H},
+  adsnote = {Provided by the SAO/NASA Astrophysics Data System}
+}"</t>
+  </si>
+  <si>
+    <t>Hourdin2013b</t>
+  </si>
+  <si>
+    <t>10.1007/s00382-012-1411-3</t>
+  </si>
+  <si>
+    <t>http://adsabs.harvard.edu/abs/2013ClDy...40.2167H</t>
+  </si>
+  <si>
+    <t>Impact of the LMDZ atmospheric grid configuration on the climate and sensitivity of the IPSL-CM5A coupled model</t>
+  </si>
+  <si>
+    <t>"@article{
+   author = {{Hourdin}, F. and {Foujols}, M.-A. and {Codron}, F. and {Guemas}, V. and {Dufresne}, J.-L. and {Bony}, S. and {Denvil}, S. and {Guez}, L. and {Lott}, F. and {Ghattas}, J. and {Braconnot}, P. and {Marti}, O. and {Meurdesoif}, Y. and {Bopp}, L.},
+    title = "{Impact of the LMDZ atmospheric grid configuration on the climate and sensitivity of the IPSL-CM5A coupled model}",
+  journal = {Clim. Dyn.},
+ keywords = {Climate modeling, Grid resolution, Climate change projections},
+     year = 2013,
+    month = may,
+   volume = 40,
+    pages = {2167-2192},
+      doi = {10.1007/s00382-012-1411-3},
+   adsurl = {http://adsabs.harvard.edu/abs/2013ClDy...40.2167H},
+  adsnote = {Provided by the SAO/NASA Astrophysics Data System}
+}"</t>
+  </si>
+  <si>
+    <t>Yamada1983</t>
+  </si>
+  <si>
+    <t>"@article{
+   author = {Yamada , T.},
+   journal = {J. Atmos. Sci.},
+   pages = {91--106},
+   title = {Simulations of Nocturnal Drainage Flows by a $q^2l$ Turbulence Closure Model},
+   volume = {40},
+   year = {1983}
+}"</t>
+  </si>
+  <si>
+    <t>Hourdin2002</t>
+  </si>
+  <si>
+    <t>"@article{
+   author = {Hourdin , F. and Couvreux , F. and Menut , L.},
+   journal = {J. Atmos. Sci.},
+   title = {Parameterisation of the dry convective boundary layer based on a mass flux representation of thermals},
+   volume = {59},
+   pages = {1105--1123},
+   year = {2002}
+}"</t>
+  </si>
+  <si>
+    <t>Parameterisation of the dry convective boundary layer based on a mass flux representation of thermals</t>
+  </si>
+  <si>
+    <t>Simulations of Nocturnal Drainage Flows by a q²l Turbulence Closure Model</t>
+  </si>
+  <si>
+    <t>Rio2008</t>
+  </si>
+  <si>
+    <t>"@article{Rio:08,
+   author = {Rio , C. and Hourdin , F.},
+   title={A thermal plume model for the convective boundary layer : Representation of cumulus clouds},
+   journal={J. Atmos. Sci.},
+   volume=65,
+   pages={407--425},
+   year = {2008}
+}"</t>
+  </si>
+  <si>
+    <t>A thermal plume model for the convective boundary layer : Representation of cumulus clouds</t>
+  </si>
+  <si>
+    <t>10.1029/2008GL036779</t>
+  </si>
+  <si>
+    <t>http://adsabs.harvard.edu/abs/2009GeoRL..3607809R</t>
+  </si>
+  <si>
+    <t>"@article{
+   author = {{Rio}, C. and {Hourdin}, F. and {Grandpeix}, {J.-Y.} and {Lafore}, {J.-P.}
+        },
+    title = "{Shifting the diurnal cycle of parameterized deep convection over land}",
+  journal = grl,
+ keywords = {Atmospheric Processes: Convective processes, Atmospheric Processes: Boundary layer processes, Atmospheric Processes: Precipitation (1854), Atmospheric Processes: Global climate models (1626, 4928)},
+     year = 2009,
+    month = apr,
+   volume = 36,
+    pages = {7809-+},
+      doi = {10.1029/2008GL036779},
+   adsurl = {http://adsabs.harvard.edu/abs/2009GeoRL..3607809R},
+  adsnote = {Provided by the SAO/NASA Astrophysics Data System}
+}"</t>
+  </si>
+  <si>
+    <t>Shifting the diurnal cycle of parameterized deep convection over land</t>
+  </si>
+  <si>
+    <t>Rio2009</t>
+  </si>
+  <si>
+    <t>Rio2010</t>
+  </si>
+  <si>
+    <t>10.1007/s10546-010-9478-z</t>
+  </si>
+  <si>
+    <t>http://adsabs.harvard.edu/abs/2010BoLMe.135..469R</t>
+  </si>
+  <si>
+    <t>Boundary-layer thermals, Entrainment and detrainment, Large-eddy simulations, Mass-flux parametrization</t>
+  </si>
+  <si>
+    <t>"@article{
+   author = {{Rio}, C. and {Hourdin}, F. and {Couvreux}, F. and {Jam}, A.},
+    title = "{Resolved Versus Parametrized Boundary-Layer Plumes. Part II: Continuous Formulations of Mixing Rates for Mass-Flux Schemes}",
+  journal = blm,
+ keywords = {Boundary-layer thermals, Entrainment and detrainment, Large-eddy simulations, Mass-flux parametrization},
+     year = 2010,
+    month = jun,
+   volume = 135,
+    pages = {469-483},
+      doi = {10.1007/s10546-010-9478-z},
+   adsurl = {http://adsabs.harvard.edu/abs/2010BoLMe.135..469R},
+  adsnote = {Provided by the SAO/NASA Astrophysics Data System}
+}"</t>
+  </si>
+  <si>
+    <t>10.1175/2009JAS3045.1</t>
+  </si>
+  <si>
+    <t>http://adsabs.harvard.edu/abs/2010JAtS...67..898G</t>
+  </si>
+  <si>
+    <t>A Density Current Parameterization Coupled with Emanuel's Convection Scheme. Part II: 1D Simulations</t>
+  </si>
+  <si>
+    <t>"@article{
+   author = {{Grandpeix}, {J.-Y.} and {Lafore}, {J.-P.} and {Cheruy}, F.},
+    title = "{A Density Current Parameterization Coupled with Emanuel's Convection Scheme. Part II: 1D Simulations}",
+  journal = {Journal of Atmospheric Sciences},
+     year = 2010,
+    month = apr,
+   volume = 67,
+    pages = {898-922},
+      doi = {10.1175/2009JAS3045.1},
+   adsurl = {http://adsabs.harvard.edu/abs/2010JAtS...67..898G},
+  adsnote = {Provided by the SAO/NASA Astrophysics Data System}
+}"</t>
+  </si>
+  <si>
+    <t>Grandpeix2010b</t>
+  </si>
+  <si>
+    <t>Grandpeix2010a</t>
+  </si>
+  <si>
+    <t>"@article{
+   author = {{Grandpeix}, {J.-Y.} and {Lafore}, {J.-P.}},
+    title = "{A Density Current Parameterization Coupled with Emanuel's Convection Scheme. Part I: The Models}",
+  journal = {Journal of Atmospheric Sciences},
+     year = 2010,
+    month = apr,
+   volume = 67,
+    pages = {881-897},
+      doi = {10.1175/2009JAS3044.1},
+   adsurl = {http://adsabs.harvard.edu/abs/2010JAtS...67..881G},
+  adsnote = {Provided by the SAO/NASA Astrophysics Data System}
+}"</t>
+  </si>
+  <si>
+    <t>10.1175/2009JAS3044.1</t>
+  </si>
+  <si>
+    <t>http://adsabs.harvard.edu/abs/2010JAtS...67..881G</t>
+  </si>
+  <si>
+    <t>A Density Current Parameterization Coupled with Emanuel's Convection Scheme. Part I: The Models</t>
+  </si>
+  <si>
+    <t>Bony2001</t>
+  </si>
+  <si>
+    <t>A parameterization of the Cloudiness Associated with Cumulus Convection; Evaluation Using TOGA COARE Data</t>
+  </si>
+  <si>
+    <t>"@article{
+   author  = {Bony , S. and Emanuel , K. A.},
+   title = {A parameterization of the Cloudiness Associated with Cumulus Convection; Evaluation Using {TOGA COARE} Data},
+   journal = {J. Atmos. Sci.},
+   volume = 58,
+   pages = {3158--3183},
+   year = 2001
+}"</t>
+  </si>
+  <si>
+    <t>Jam2013</t>
+  </si>
+  <si>
+    <t>Resolved Versus Parametrized Boundary-Layer Plumes. Part III: Derivation of a Statistical Scheme for Cumulus Clouds</t>
+  </si>
+  <si>
+    <t>http://adsabs.harvard.edu/abs/2013BoLMe.147..421J</t>
+  </si>
+  <si>
+    <t>10.1007/s10546-012-9789-3</t>
+  </si>
+  <si>
+    <t>"@article{
+   author = {{Jam}, A. and {Hourdin}, F. and {Rio}, C. and {Couvreux}, F.  },
+    title = "{Resolved Versus Parametrized Boundary-Layer Plumes. Part III: Derivation of a Statistical Scheme for Cumulus Clouds}",
+  journal = {Boundary-layer Meteorol.},
+ keywords = {Boundary-layer thermals, Cloud scheme, Conditional sampling, Large-eddy simulations, Probability distribution function},
+     year = 2013,
+    month = jun,
+   volume = 147,
+    pages = {421-441},
+      doi = {10.1007/s10546-012-9789-3},
+   adsurl = {http://adsabs.harvard.edu/abs/2013BoLMe.147..421J},
+  adsnote = {Provided by the SAO/NASA Astrophysics Data System}
+}"</t>
+  </si>
+  <si>
+    <t>Rochetin2014a</t>
+  </si>
+  <si>
+    <t>10.1175/JAS-D-12-0336.1</t>
+  </si>
+  <si>
+    <t>https://ui.adsabs.harvard.edu/#abs/2014JAtS...71..496R</t>
+  </si>
+  <si>
+    <t>Deep Convection Triggering by Boundary Layer Thermals. Part I: LES Analysis and Stochastic Triggering Formulation</t>
+  </si>
+  <si>
+    <t>"@article{
+       author = {{Rochetin}, Nicolas and {Couvreux}, Fleur and {Grandpeix}, Jean-Yves and {Rio}, Catherine},
+        title = "{Deep Convection Triggering by Boundary Layer Thermals. Part I: LES Analysis and Stochastic Triggering Formulation}",
+      journal = jas,
+         year = 2014,
+        month = Feb,
+       volume = {71},
+        pages = {496-514},
+          doi = {10.1175/JAS-D-12-0336.1},
+       adsurl = {https://ui.adsabs.harvard.edu/#abs/2014JAtS...71..496R},
+      adsnote = {Provided by the SAO/NASA Astrophysics Data System}
+}"</t>
+  </si>
+  <si>
+    <t>Rochetin2014b</t>
+  </si>
+  <si>
+    <t>"@article{
+       author = {{Rochetin}, Nicolas and {Grandpeix}, Jean-Yves and {Rio}, Catherine and {Couvreux}, Fleur},
+        title = "{Deep Convection Triggering by Boundary Layer Thermals. Part II: Stochastic Triggering Parameterization for the LMDZ GCM}",
+      journal = {J. Atmos. Sci.},
+         year = 2014,
+        month = Feb,
+       volume = {71},
+        pages = {515-538},
+          doi = {10.1175/JAS-D-12-0337.1},
+       adsurl = {https://ui.adsabs.harvard.edu/#abs/2014JAtS...71..515R},
+      adsnote = {Provided by the SAO/NASA Astrophysics Data System}
+}"</t>
+  </si>
+  <si>
+    <t>10.1175/JAS-D-12-0337.1</t>
+  </si>
+  <si>
+    <t>https://ui.adsabs.harvard.edu/#abs/2014JAtS...71..515R</t>
+  </si>
+  <si>
+    <t>Deep Convection Triggering by Boundary Layer Thermals. Part II: Stochastic Triggering Parameterization for the LMDZ GCM</t>
+  </si>
+  <si>
+    <t>Lott2013</t>
+  </si>
+  <si>
+    <t>10.1002/jgrd.50705</t>
+  </si>
+  <si>
+    <t>A Stochastic Parameterization of the Gravity Waves Due to Convection and Its Impact on the Equatorial Stratosphere</t>
+  </si>
+  <si>
+    <t>"@article{
+    author      = {Lott, F. and Guez, L.},
+    year        = 2013,
+    title       = {A Stochastic Parameterization of the Gravity Waves Due to Convection and Its Impact on the Equatorial Stratosphere},
+    journal     = {J. Geophys. Res.},
+    volume      = 118,
+    pages       = {8897--8909},
+    doi         = {10.1002/jgrd.50705}
+}"</t>
+  </si>
+  <si>
+    <t>delaCamara2015</t>
+  </si>
+  <si>
+    <t>10.1002/GL063298</t>
+  </si>
+  <si>
+    <t>"@article{
+    author      = {de~la C\'{a}mara, A. and Lott, F.},
+    year        = 2015,
+    title       = {A Stochastic Parameterization of the Gravity Waves Emitted by Fronts and Jets},
+    journal     = {Geophys. Res. Lett.},
+    volume      = 42,
+    pages       = {2071--2078},
+    doi         = {10.1002/GL063298}
+}"</t>
+  </si>
+  <si>
+    <t>A Stochastic Parameterization of the Gravity Waves Emitted by Fronts and Jets</t>
+  </si>
+  <si>
+    <t>Lott2015</t>
+  </si>
+  <si>
+    <t>10.1007/s00382-005-0064-x</t>
+  </si>
+  <si>
+    <t>The stratospheric version of LMDz: Dynamical Climatologies, Arctic Oscillation, and Impact on the Surface Climate</t>
+  </si>
+  <si>
+    <t>"@article{
+    author      = {Lott, F. and Fairhead, L. and Hourdin, F. and Levan, P.},
+    year        = 2005,
+    title       = {The stratospheric version of LMDz: Dynamical Climatologies, Arctic Oscillation, and Impact on the Surface Climate},
+    journal     = {Clim. Dyn.},
+    volume      = 25,
+    pages       = {851--868},
+    doi         = {10.1007/s00382-005-0064-x}
+}"</t>
+  </si>
+  <si>
+    <t>Hines1997</t>
+  </si>
+  <si>
+    <t>"@article{
+author = {Hines, C.~O.},
+number = {4},
+pages = {387--400},
+title = {{Doppler-spread parameterization of gravity-wave momentum deposition in the middle atmosphere. Part 2: Broad and quasi monochromatic spectra, and implementation}},
+journal = {J. of Atmosph. and Solar-Terrestrial Phys.},
+volume = {59},
+year = {1997}
+}"</t>
+  </si>
+  <si>
+    <t>Doppler-spread parameterization of gravity-wave momentum deposition in the middle atmosphere. Part 2: Broad and quasi monochromatic spectra, and implementation</t>
+  </si>
+  <si>
+    <t>"@article{
+author = {de la C\'{a}mara, A. and Lott, F. and Abalos, M.},
+title = {Climatology of the middle atmosphere in LMDz: Impact of source-related parameterizations of gravity wave drag},
+journal = {J. of Adv. in Modeling Earth Systems},
+volume = {8},
+number = {4},
+pages = {1507-1525},
+year = {2016}
+}"</t>
+  </si>
+  <si>
+    <t>delaCamara2016</t>
+  </si>
+  <si>
+    <t>Climatology of the middle atmosphere in LMDz: Impact of source-related parameterizations of gravity wave drag</t>
+  </si>
+  <si>
+    <t>Fouquart1980</t>
+  </si>
+  <si>
+    <t>Computations of solar heating of the Earth’s atmosphere: a new parametrization</t>
+  </si>
+  <si>
+    <t>"@article{
+author={Mlawer, E.J. and S.J. Taubman and P.D. Brown and M.J. Iacono and S.A. Clough},
+year=1997,
+title={Radiative transfer for inhomogeneous atmospheres: {RRTM}, a validated correlated-k model for the longwave},
+journal={J. Geophys. Res.},
+volume={102D},
+pages={16663--16,682}
+}"</t>
+  </si>
+  <si>
+    <t>Mlawer1997</t>
+  </si>
+  <si>
+    <t>Radiative transfer for inhomogeneous atmospheres: RRTM, a validated correlated-k model for the longwave</t>
+  </si>
+  <si>
+    <t>LeTreut1991</t>
+  </si>
+  <si>
+    <t>Sensitivity of an atmospheric general circulation model to prescribed SST changes: Feedback effects associated with the simulation of cloud optical properties</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={Sensitivity of an atmospheric general circulation model to prescribed {SST} changes: Feedback effects associated with the simulation of cloud optical properties},
+  author={Le Treut, Herv{\'e} and Li, Zhao-Xin},
+  journal={Climate Dynamics},
+  volume={5},
+  number={3},
+  pages={175--187},
+  year={1991},
+  publisher={Springer}
+}"</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Bram_Van_Leer/publication/266987705_Towards_the_Ultimate_Conservative_Difference_Scheme_IV_A_New_Approach_to_Numerical_Convection/links/59ea1757aca272cddddb73e8/Towards-the-Ultimate-Conservative-Difference-Scheme-IV-A-New-Approach-to-Numerical-Convection.pdf</t>
+  </si>
+  <si>
+    <t>https://journals.ametsoc.org/doi/pdf/10.1175/1520-0493(1999)127%3C0822%3ATUOFVM%3E2.0.CO%3B2</t>
+  </si>
+  <si>
+    <t>https://journals.ametsoc.org/doi/pdf/10.1175/1520-0469(1983)040%3C0091:SONDFB%3E2.0.CO;2</t>
+  </si>
+  <si>
+    <t>https://journals.ametsoc.org/doi/pdf/10.1175/1520-0469(2002)059%3C1105%3APOTDCB%3E2.0.CO%3B2</t>
+  </si>
+  <si>
+    <t>https://journals.ametsoc.org/doi/pdf/10.1175/1520-0469(2001)058%3C3158%3AAPOTCA%3E2.0.CO%3B2</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/pdf/10.1002/jgrd.50705</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/pdf/10.1002/2015GL063298</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s00382-005-0064-x</t>
+  </si>
+  <si>
+    <t>10.1016/S1364-6826(96)00080-6</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1364682696000806</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/pdf/10.1002/2016MS000753</t>
+  </si>
+  <si>
+    <t>10.1002/2016MS000753</t>
+  </si>
+  <si>
+    <t>"@article{
+author={Fouquart Y and Bonnel B},
+year=1980,
+title={Computations of solar heating of the Earth’s atmosphere: a new parametrization},
+journal={Contrib. Atmos. Phys.},
+volume=53,
+pages={35--62}
+}"</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/97JD00237</t>
+  </si>
+  <si>
+    <t>10.1029/97JD00237</t>
+  </si>
+  <si>
+    <t>10.1007/BF00251808</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/content/pdf/10.1007/BF00251808.pdf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -599,6 +1146,12 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="7">
@@ -752,12 +1305,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -879,8 +1435,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2809,10 +3369,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IP52"/>
+  <dimension ref="A1:IP53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -8091,173 +8651,391 @@
       <c r="IO22" s="39"/>
       <c r="IP22" s="39"/>
     </row>
-    <row r="23" spans="1:250" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="17"/>
+    <row r="23" spans="1:250" ht="144.75" customHeight="1">
+      <c r="A23" s="17" t="s">
+        <v>112</v>
+      </c>
       <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="C23" s="14" t="s">
+        <v>113</v>
+      </c>
       <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:250" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="17"/>
+      <c r="E23" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:250" ht="118.5" customHeight="1">
+      <c r="A24" s="17" t="s">
+        <v>115</v>
+      </c>
       <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:250" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="17"/>
+      <c r="C24" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:250" ht="117.75" customHeight="1">
+      <c r="A25" s="17" t="s">
+        <v>118</v>
+      </c>
       <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="1:250" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="17"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:250" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="17"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="1:250" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="17"/>
+      <c r="C25" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:250" ht="217.5" customHeight="1">
+      <c r="A26" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:250" ht="209.25" customHeight="1">
+      <c r="A27" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:250" ht="107.25" customHeight="1">
+      <c r="A28" s="17" t="s">
+        <v>131</v>
+      </c>
       <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="1:250" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="17"/>
+      <c r="C28" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:250" ht="120" customHeight="1">
+      <c r="A29" s="17" t="s">
+        <v>133</v>
+      </c>
       <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" spans="1:250" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="17"/>
+      <c r="C29" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:250" ht="117.75" customHeight="1">
+      <c r="A30" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="C30" s="20" t="s">
+        <v>138</v>
+      </c>
       <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-    </row>
-    <row r="31" spans="1:250" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="17"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-    </row>
-    <row r="32" spans="1:250" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="17"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-    </row>
-    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="17"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-    </row>
-    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="17"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-    </row>
-    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="17"/>
+      <c r="E30" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:250" ht="205.5" customHeight="1">
+      <c r="A31" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:250" ht="195.75" customHeight="1">
+      <c r="A32" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="168.75" customHeight="1">
+      <c r="A33" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="170.25" customHeight="1">
+      <c r="A34" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="117" customHeight="1">
+      <c r="A35" s="17" t="s">
+        <v>160</v>
+      </c>
       <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-    </row>
-    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="17"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-    </row>
-    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="17"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-    </row>
-    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="17"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-    </row>
-    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="17"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-    </row>
-    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="17"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-    </row>
-    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="17"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-    </row>
-    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="17"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-    </row>
-    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="17"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-    </row>
-    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="17"/>
+      <c r="C35" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="195" customHeight="1">
+      <c r="A36" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="183.75" customHeight="1">
+      <c r="A37" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="181.5" customHeight="1">
+      <c r="A38" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A39" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="115.5" customHeight="1">
+      <c r="A40" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="128.25" customHeight="1">
+      <c r="A41" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="128.25" customHeight="1">
+      <c r="A42" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="131.25" customHeight="1">
+      <c r="A43" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="105" customHeight="1">
+      <c r="A44" s="17" t="s">
+        <v>196</v>
+      </c>
       <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="C44" s="20" t="s">
+        <v>216</v>
+      </c>
       <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-    </row>
-    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="17"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-    </row>
-    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="17"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
+      <c r="E44" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="118.5" customHeight="1">
+      <c r="A45" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="143.25" customHeight="1">
+      <c r="A46" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="17"/>
@@ -8301,12 +9079,20 @@
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
     </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="17"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1"/>
+    <hyperlink ref="D27" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/cmip6/citations/cmip6_ipsl_citations.xlsx
+++ b/cmip6/citations/cmip6_ipsl_citations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="252">
   <si>
     <t>ES-DOC CMIP6 Model Citations</t>
   </si>
@@ -1073,6 +1073,147 @@
   </si>
   <si>
     <t>https://link.springer.com/content/pdf/10.1007/BF00251808.pdf</t>
+  </si>
+  <si>
+    <t>Hourdin2006</t>
+  </si>
+  <si>
+    <t>10.1007/s00382-006-0158-0</t>
+  </si>
+  <si>
+    <t>"@article{
+    author = {Hourdin, F. and {Musat}, I. and {Bony}, S. and {Braconnot}, P. and {Codron}, F. and {Dufresne}, J.-L. and {Fairhead}, L. and {Filiberti}, M.-A. and {Friedlingstein}, P. and {Grandpeix}, J.-Y. and {Krinner}, G. and {Levan}, P. and {Li}, Z.-X. and {Lott}, F.},
+     title = "{The LMDZ4 general circulation model: climate performance and sensitivity to parametrized physics with emphasis on tropical convection}",
+   journal = {Climate Dynamics},
+      year = 2006,
+    volume = 27,
+     pages = {787--813},
+       doi = {10.1007/s00382-006-0158-0}
+}"</t>
+  </si>
+  <si>
+    <t>The LMDZ4 general circulation model: climate performance and sensitivity to parametrized physics with emphasis on tropical convection</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s00382-006-0158-0</t>
+  </si>
+  <si>
+    <t>Zhang2017</t>
+  </si>
+  <si>
+    <t>Krinner2005</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={A dynamic global vegetation model for studies of the coupled atmosphere-biosphere system},
+  author={Krinner, Gerhard and Viovy, Nicolas and de Noblet-Ducoudr{\'e}, Nathalie and Og{\'e}e, J{\'e}r{\^o}me and Polcher, Jan and Friedlingstein, Pierre and Ciais, Philippe and Sitch, Stephen and Prentice, I Colin},
+  journal={Global Biogeochemical Cycles},
+  volume={19},
+  number={1},
+  year={2005},
+  publisher={Wiley Online Library}
+}"</t>
+  </si>
+  <si>
+    <t>A dynamic global vegetation model for studies of the coupled atmosphere-biosphere system</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/full/10.1029/2003GB002199</t>
+  </si>
+  <si>
+    <t>10.1029/2003GB002199</t>
+  </si>
+  <si>
+    <t>Ducoudre1993</t>
+  </si>
+  <si>
+    <t>https://journals.ametsoc.org/doi/pdf/10.1175/1520-0442(1993)006%3C0248:SANSOP%3E2.0.CO%3B2</t>
+  </si>
+  <si>
+    <t>deRosnay1998</t>
+  </si>
+  <si>
+    <t>https://hal.archives-ouvertes.fr/file/index/docid/330830/filename/hess-2-239-1998.pdf</t>
+  </si>
+  <si>
+    <t>Modelling root water uptake in a complex land surface scheme coupled to a GCM</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={Modelling root water uptake in a complex land surface scheme coupled to a {GCM}},
+  author={De Rosnay, Patricia and Polcher, Jan},
+  journal={Hydrology and Earth System Sciences Discussions},
+  volume={2},
+  number={2/3},
+  pages={239--255},
+  year={1998}
+}"</t>
+  </si>
+  <si>
+    <t>dOrgeval2008</t>
+  </si>
+  <si>
+    <t>deRosnay2003</t>
+  </si>
+  <si>
+    <t>Farquhar1980</t>
+  </si>
+  <si>
+    <t>Collatz1992</t>
+  </si>
+  <si>
+    <t>Ball1987</t>
+  </si>
+  <si>
+    <t>"@incollection{
+  title={A model predicting stomatal conductance and its contribution to the control of photosynthesis under different environmental conditions},
+  author={Ball, J Timothy and Woodrow, Ian E and Berry, Joseph A},
+  booktitle={Progress in photosynthesis research},
+  pages={221--224},
+  year={1987},
+  publisher={Springer}
+}"</t>
+  </si>
+  <si>
+    <t>A model predicting stomatal conductance and its contribution to the control of photosynthesis under different environmental conditions</t>
+  </si>
+  <si>
+    <t>Zhang2016</t>
+  </si>
+  <si>
+    <t>deRosnay2000</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={Sensitivity of surface fluxes to the number of layers in the soil model used in {GCM}s},
+  author={De Rosnay, P and Bruen, M and Polcher, J},
+  journal={Geophysical research letters},
+  volume={27},
+  number={20},
+  pages={3329--3332},
+  year={2000},
+  publisher={Wiley Online Library}
+}"</t>
+  </si>
+  <si>
+    <t>10.1029/2000GL011574</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/pdf/10.1029/2000GL011574</t>
+  </si>
+  <si>
+    <t>Sensitivity of surface fluxes to the number of layers in the soil model used in GCMs</t>
+  </si>
+  <si>
+    <t>"@article{
+  title={{SECHIBA}, a new set of parameterizations of the hydrologic exchanges at the land-atmosphere interface within the {LMD} atmospheric general circulation model},
+  author={Ducoudr{\'e}, Nathale I and Laval, Katia and Perrier, Alain},
+  journal={Journal of Climate},
+  volume={6},
+  number={2},
+  pages={248--273},
+  year={1993}
+}"</t>
   </si>
 </sst>
 </file>
@@ -3369,10 +3510,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IP53"/>
+  <dimension ref="A1:IP106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:XFD106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -9037,54 +9178,487 @@
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="17"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
+    <row r="47" spans="1:5" ht="154.5" customHeight="1">
+      <c r="A47" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="17"/>
+      <c r="A48" s="17" t="s">
+        <v>226</v>
+      </c>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
     </row>
-    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="17"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-    </row>
-    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="17"/>
+    <row r="49" spans="1:5" ht="153.75" customHeight="1">
+      <c r="A49" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="131.25" customHeight="1">
+      <c r="A50" s="17" t="s">
+        <v>232</v>
+      </c>
       <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
+      <c r="C50" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="E50" s="20"/>
     </row>
-    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="17"/>
+    <row r="51" spans="1:5" ht="118.5" customHeight="1">
+      <c r="A51" s="17" t="s">
+        <v>234</v>
+      </c>
       <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
+      <c r="C51" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="17"/>
+      <c r="A52" s="17" t="s">
+        <v>238</v>
+      </c>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
     </row>
     <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="17"/>
+      <c r="A53" s="17" t="s">
+        <v>239</v>
+      </c>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+    </row>
+    <row r="56" spans="1:5" ht="117.75" customHeight="1">
+      <c r="A56" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A57" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+    </row>
+    <row r="58" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A58" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A59" s="17"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+    </row>
+    <row r="60" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A60" s="17"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+    </row>
+    <row r="61" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A61" s="17"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+    </row>
+    <row r="62" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A62" s="17"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+    </row>
+    <row r="63" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A63" s="17"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+    </row>
+    <row r="64" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A64" s="17"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+    </row>
+    <row r="65" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A65" s="17"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+    </row>
+    <row r="66" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A66" s="17"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+    </row>
+    <row r="67" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A67" s="17"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+    </row>
+    <row r="68" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A68" s="17"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+    </row>
+    <row r="69" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A69" s="17"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+    </row>
+    <row r="70" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A70" s="17"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+    </row>
+    <row r="71" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A71" s="17"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+    </row>
+    <row r="72" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A72" s="17"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+    </row>
+    <row r="73" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A73" s="17"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+    </row>
+    <row r="74" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A74" s="17"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+    </row>
+    <row r="75" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A75" s="17"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+    </row>
+    <row r="76" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A76" s="17"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+    </row>
+    <row r="77" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A77" s="17"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+    </row>
+    <row r="78" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A78" s="17"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+    </row>
+    <row r="79" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A79" s="17"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+    </row>
+    <row r="80" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A80" s="17"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+    </row>
+    <row r="81" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A81" s="17"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+    </row>
+    <row r="82" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A82" s="17"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+    </row>
+    <row r="83" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A83" s="17"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+    </row>
+    <row r="84" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A84" s="17"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+    </row>
+    <row r="85" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A85" s="17"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+    </row>
+    <row r="86" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A86" s="17"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+    </row>
+    <row r="87" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A87" s="17"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+    </row>
+    <row r="88" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A88" s="17"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+    </row>
+    <row r="89" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A89" s="17"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+    </row>
+    <row r="90" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A90" s="17"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+    </row>
+    <row r="91" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A91" s="17"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+    </row>
+    <row r="92" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A92" s="17"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+    </row>
+    <row r="93" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A93" s="17"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+    </row>
+    <row r="94" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A94" s="17"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+    </row>
+    <row r="95" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A95" s="17"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+    </row>
+    <row r="96" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A96" s="17"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+    </row>
+    <row r="97" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A97" s="17"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+    </row>
+    <row r="98" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A98" s="17"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+    </row>
+    <row r="99" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A99" s="17"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+    </row>
+    <row r="100" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A100" s="17"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+    </row>
+    <row r="101" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A101" s="17"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+    </row>
+    <row r="102" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A102" s="17"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+    </row>
+    <row r="103" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A103" s="17"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
+    </row>
+    <row r="104" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A104" s="17"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="20"/>
+    </row>
+    <row r="105" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A105" s="17"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+    </row>
+    <row r="106" spans="1:5" ht="130.5" customHeight="1">
+      <c r="A106" s="17"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
